--- a/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
+++ b/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seonj\CWNU19SE_2B\3rd_homework\테스트 결과 보고서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PTH\Desktop\git\3rd_homework\테스트 결과 보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CDC64D-D7BD-448F-A800-8089149AD139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B392A9B1-3231-43B0-AB72-E3F588633CFC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>RQ-001</t>
   </si>
@@ -60,12 +60,6 @@
     <t>재접속시 북마크가 유지되는가</t>
   </si>
   <si>
-    <t>되돌아가기</t>
-  </si>
-  <si>
-    <t>날씨화면에서 한번더 클릭했을 떄 메인화면으로 돌아가는가</t>
-  </si>
-  <si>
     <t>NFRQ-001</t>
   </si>
   <si>
@@ -113,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재 날씨가 표시되는가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지도가 정상적으로 출력되는가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,6 +340,58 @@
   </si>
   <si>
     <t>북마크 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC실행결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 커버리지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +399,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +414,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -381,7 +440,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -445,17 +504,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -517,50 +565,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -581,45 +586,124 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -627,9 +711,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,6 +729,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,57 +770,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,508 +1126,1066 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D47"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B4" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="D19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C45" s="4"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C43" s="5"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B47" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="8" t="s">
+      <c r="D47" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="23"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D48" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="10"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="6" t="s">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="B49" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
+      <c r="C49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="D49" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="26">
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B31"/>
+  <mergeCells count="34">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A35"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="F1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
+++ b/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PTH\Desktop\git\3rd_homework\테스트 결과 보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B392A9B1-3231-43B0-AB72-E3F588633CFC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C92197-3BBC-434B-996E-57BD3D135F36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="128">
   <si>
     <t>RQ-001</t>
   </si>
@@ -392,6 +392,130 @@
   </si>
   <si>
     <t>메인 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 및 비기능적 요구사항 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지 선택 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착지 선택 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지 및 목적지 교환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지 GPS 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착지 GPS 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근기록 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근기록을 목적지로 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크를 목적지로 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근기록 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미입력시 오류 페이지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적지 리스트 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지와 목적지가 정상적으로 교환이 되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지 선택 버튼을 클릭했을 때, 최근기록 페이지가 정상적으로 로드되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지 GPS 버튼을 클릭했을 때, 사용자의 위치를 사용하여 터미널 선택 페이지가 로드되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착지 선택 버튼을 클릭했을 때, 최근기록 페이지가 정상적으로 로드되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착지 GPS 버튼을 클릭했을 때, 사용자의 위치를 사용하여 터미널 선택 페이지가 로드되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 버튼을 클릭했을 때, 상세 날씨 페이지가 정상적으로 로드 되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS 버튼을 클릭했을 때, 사용자의 위치를 사용하여 터미널 선택 페이지가 로드 되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 검색을 진행했을 경우에, 사용자가 입력한 텍스트를 기반으로 텍스트 검색 페이지가 정상적으로 로드되는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +564,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -707,11 +831,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -752,13 +916,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -770,22 +958,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -794,23 +970,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,73 +1329,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="17" t="s">
+      <c r="A1" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="39" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="17"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="16" t="s">
         <v>86</v>
       </c>
@@ -1208,20 +1411,20 @@
       <c r="J3" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -1240,9 +1443,9 @@
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="33" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -1261,9 +1464,9 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="13" t="s">
         <v>1</v>
       </c>
@@ -1280,9 +1483,9 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="35" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -1301,9 +1504,9 @@
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="36" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1322,9 +1525,9 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1341,13 +1544,13 @@
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="38" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -1366,9 +1569,9 @@
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="13" t="s">
         <v>29</v>
       </c>
@@ -1385,11 +1588,11 @@
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -1408,9 +1611,9 @@
       <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="13" t="s">
         <v>43</v>
       </c>
@@ -1427,9 +1630,9 @@
       <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="13" t="s">
         <v>44</v>
       </c>
@@ -1446,13 +1649,13 @@
       <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -1471,9 +1674,9 @@
       <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="13" t="s">
         <v>4</v>
       </c>
@@ -1490,9 +1693,9 @@
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="27" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -1511,9 +1714,9 @@
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
@@ -1530,8 +1733,8 @@
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="7" t="s">
         <v>51</v>
       </c>
@@ -1551,8 +1754,8 @@
       <c r="O19" s="11"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="25" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1574,8 +1777,8 @@
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1595,8 +1798,8 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1618,8 +1821,8 @@
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="7" t="s">
         <v>23</v>
       </c>
@@ -1639,8 +1842,8 @@
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="25" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1662,8 +1865,8 @@
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="7" t="s">
         <v>23</v>
       </c>
@@ -1683,11 +1886,11 @@
       <c r="O25" s="11"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="22" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -1706,9 +1909,9 @@
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="13" t="s">
         <v>67</v>
       </c>
@@ -1725,9 +1928,9 @@
       <c r="O27" s="11"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="28"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="13" t="s">
         <v>69</v>
       </c>
@@ -1744,9 +1947,9 @@
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="13" t="s">
         <v>70</v>
       </c>
@@ -1763,8 +1966,8 @@
       <c r="O29" s="11"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="7" t="s">
         <v>60</v>
       </c>
@@ -1784,11 +1987,11 @@
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="22" t="s">
         <v>73</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -1807,9 +2010,9 @@
       <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="13" t="s">
         <v>75</v>
       </c>
@@ -1826,8 +2029,8 @@
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="9" t="s">
         <v>60</v>
       </c>
@@ -1847,8 +2050,8 @@
       <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="24" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="25" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -1870,8 +2073,8 @@
       <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="10" t="s">
         <v>60</v>
       </c>
@@ -1891,10 +2094,10 @@
       <c r="O35" s="11"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -1916,8 +2119,8 @@
       <c r="O36" s="11"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="7" t="s">
         <v>81</v>
       </c>
@@ -1937,9 +2140,9 @@
       <c r="O37" s="11"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="27" t="s">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="22" t="s">
         <v>82</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -1958,9 +2161,9 @@
       <c r="O38" s="11"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="28"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="13" t="s">
         <v>64</v>
       </c>
@@ -1977,11 +2180,11 @@
       <c r="O39" s="11"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="28"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="13" t="s">
         <v>6</v>
       </c>
@@ -1998,9 +2201,9 @@
       <c r="O40" s="11"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="29"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="13" t="s">
         <v>9</v>
       </c>
@@ -2017,8 +2220,8 @@
       <c r="O41" s="11"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="7" t="s">
         <v>83</v>
       </c>
@@ -2079,10 +2282,10 @@
       <c r="O46" s="11"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -2104,8 +2307,8 @@
       <c r="O47" s="11"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="5" t="s">
         <v>17</v>
       </c>
@@ -2149,23 +2352,3312 @@
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
     </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52" s="28"/>
+      <c r="M52" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="N52" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O52" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J54" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="11"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="11"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="11"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="11"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="11"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="42"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="42"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="42"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="42"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="42"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="42"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="42"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="42"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="42"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="42"/>
+      <c r="O93" s="42"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="46"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="46"/>
+      <c r="K94" s="46"/>
+      <c r="L94" s="46"/>
+      <c r="M94" s="46"/>
+      <c r="N94" s="46"/>
+      <c r="O94" s="46"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="46"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="46"/>
+      <c r="N95" s="46"/>
+      <c r="O95" s="46"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="46"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="46"/>
+      <c r="O96" s="46"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="46"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="46"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="46"/>
+      <c r="N97" s="46"/>
+      <c r="O97" s="46"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="46"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="46"/>
+      <c r="N98" s="46"/>
+      <c r="O98" s="46"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F99" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L99" s="28"/>
+      <c r="M99" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="N99" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O99" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="28"/>
+      <c r="M100" s="39"/>
+      <c r="N100" s="39"/>
+      <c r="O100" s="39"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="32"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I101" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J101" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K101" s="28"/>
+      <c r="L101" s="28"/>
+      <c r="M101" s="39"/>
+      <c r="N101" s="39"/>
+      <c r="O101" s="39"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="11"/>
+      <c r="B102" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="42"/>
+      <c r="O102" s="42"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="11"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="42"/>
+      <c r="N103" s="42"/>
+      <c r="O103" s="42"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="11"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="42"/>
+      <c r="O104" s="42"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="11"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="42"/>
+      <c r="M105" s="42"/>
+      <c r="N105" s="42"/>
+      <c r="O105" s="42"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="11"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D106" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="42"/>
+      <c r="O106" s="42"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="11"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="42"/>
+      <c r="O107" s="42"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="11"/>
+      <c r="B108" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D108" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="42"/>
+      <c r="O108" s="42"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="42"/>
+      <c r="O109" s="42"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" s="49"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="42"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="42"/>
+      <c r="M110" s="42"/>
+      <c r="N110" s="42"/>
+      <c r="O110" s="42"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="20"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D111" s="49"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" s="49"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="42"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="42"/>
+      <c r="M112" s="42"/>
+      <c r="N112" s="42"/>
+      <c r="O112" s="42"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113" s="20"/>
+      <c r="C113" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" s="49"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="42"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="42"/>
+      <c r="M113" s="42"/>
+      <c r="N113" s="42"/>
+      <c r="O113" s="42"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114" s="20"/>
+      <c r="B114" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" s="49"/>
+      <c r="E114" s="42"/>
+      <c r="F114" s="42"/>
+      <c r="G114" s="42"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="42"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="42"/>
+      <c r="M114" s="42"/>
+      <c r="N114" s="42"/>
+      <c r="O114" s="42"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A115" s="20"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="49"/>
+      <c r="E115" s="42"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="42"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="42"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="42"/>
+      <c r="M115" s="42"/>
+      <c r="N115" s="42"/>
+      <c r="O115" s="42"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D116" s="49"/>
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="42"/>
+      <c r="K116" s="42"/>
+      <c r="L116" s="42"/>
+      <c r="M116" s="42"/>
+      <c r="N116" s="42"/>
+      <c r="O116" s="42"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A117" s="20"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D117" s="49"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="42"/>
+      <c r="K117" s="42"/>
+      <c r="L117" s="42"/>
+      <c r="M117" s="42"/>
+      <c r="N117" s="42"/>
+      <c r="O117" s="42"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A118" s="20"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D118" s="50"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="42"/>
+      <c r="K118" s="42"/>
+      <c r="L118" s="42"/>
+      <c r="M118" s="42"/>
+      <c r="N118" s="42"/>
+      <c r="O118" s="42"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A119" s="20"/>
+      <c r="B119" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D119" s="49"/>
+      <c r="E119" s="42"/>
+      <c r="F119" s="42"/>
+      <c r="G119" s="42"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="42"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="42"/>
+      <c r="M119" s="42"/>
+      <c r="N119" s="42"/>
+      <c r="O119" s="42"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A120" s="20"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D120" s="49"/>
+      <c r="E120" s="42"/>
+      <c r="F120" s="42"/>
+      <c r="G120" s="42"/>
+      <c r="H120" s="42"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="42"/>
+      <c r="K120" s="42"/>
+      <c r="L120" s="42"/>
+      <c r="M120" s="42"/>
+      <c r="N120" s="42"/>
+      <c r="O120" s="42"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A121" s="20"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" s="49"/>
+      <c r="E121" s="42"/>
+      <c r="F121" s="42"/>
+      <c r="G121" s="42"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="42"/>
+      <c r="K121" s="42"/>
+      <c r="L121" s="42"/>
+      <c r="M121" s="42"/>
+      <c r="N121" s="42"/>
+      <c r="O121" s="42"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A122" s="20"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="42"/>
+      <c r="K122" s="42"/>
+      <c r="L122" s="42"/>
+      <c r="M122" s="42"/>
+      <c r="N122" s="42"/>
+      <c r="O122" s="42"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A123" s="20"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="43"/>
+      <c r="E123" s="42"/>
+      <c r="F123" s="42"/>
+      <c r="G123" s="42"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+      <c r="K123" s="42"/>
+      <c r="L123" s="42"/>
+      <c r="M123" s="42"/>
+      <c r="N123" s="42"/>
+      <c r="O123" s="42"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A124" s="20"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="42"/>
+      <c r="K124" s="42"/>
+      <c r="L124" s="42"/>
+      <c r="M124" s="42"/>
+      <c r="N124" s="42"/>
+      <c r="O124" s="42"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A125" s="20"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="42"/>
+      <c r="F125" s="42"/>
+      <c r="G125" s="42"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="42"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="42"/>
+      <c r="M125" s="42"/>
+      <c r="N125" s="42"/>
+      <c r="O125" s="42"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A126" s="20"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="43"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42"/>
+      <c r="G126" s="42"/>
+      <c r="H126" s="42"/>
+      <c r="I126" s="42"/>
+      <c r="J126" s="42"/>
+      <c r="K126" s="42"/>
+      <c r="L126" s="42"/>
+      <c r="M126" s="42"/>
+      <c r="N126" s="42"/>
+      <c r="O126" s="42"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A127" s="20"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42"/>
+      <c r="G127" s="42"/>
+      <c r="H127" s="42"/>
+      <c r="I127" s="42"/>
+      <c r="J127" s="42"/>
+      <c r="K127" s="42"/>
+      <c r="L127" s="42"/>
+      <c r="M127" s="42"/>
+      <c r="N127" s="42"/>
+      <c r="O127" s="42"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A128" s="20"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="42"/>
+      <c r="F128" s="42"/>
+      <c r="G128" s="42"/>
+      <c r="H128" s="42"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="42"/>
+      <c r="K128" s="42"/>
+      <c r="L128" s="42"/>
+      <c r="M128" s="42"/>
+      <c r="N128" s="42"/>
+      <c r="O128" s="42"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A129" s="20"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="42"/>
+      <c r="F129" s="42"/>
+      <c r="G129" s="42"/>
+      <c r="H129" s="42"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="42"/>
+      <c r="K129" s="42"/>
+      <c r="L129" s="42"/>
+      <c r="M129" s="42"/>
+      <c r="N129" s="42"/>
+      <c r="O129" s="42"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A130" s="20"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="42"/>
+      <c r="F130" s="42"/>
+      <c r="G130" s="42"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="42"/>
+      <c r="K130" s="42"/>
+      <c r="L130" s="42"/>
+      <c r="M130" s="42"/>
+      <c r="N130" s="42"/>
+      <c r="O130" s="42"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A131" s="20"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="42"/>
+      <c r="F131" s="42"/>
+      <c r="G131" s="42"/>
+      <c r="H131" s="42"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="42"/>
+      <c r="K131" s="42"/>
+      <c r="L131" s="42"/>
+      <c r="M131" s="42"/>
+      <c r="N131" s="42"/>
+      <c r="O131" s="42"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="42"/>
+      <c r="F132" s="42"/>
+      <c r="G132" s="42"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="42"/>
+      <c r="K132" s="42"/>
+      <c r="L132" s="42"/>
+      <c r="M132" s="42"/>
+      <c r="N132" s="42"/>
+      <c r="O132" s="42"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A133" s="20"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="42"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
+      <c r="K133" s="42"/>
+      <c r="L133" s="42"/>
+      <c r="M133" s="42"/>
+      <c r="N133" s="42"/>
+      <c r="O133" s="42"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A134" s="20"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="42"/>
+      <c r="F134" s="42"/>
+      <c r="G134" s="42"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="42"/>
+      <c r="K134" s="42"/>
+      <c r="L134" s="42"/>
+      <c r="M134" s="42"/>
+      <c r="N134" s="42"/>
+      <c r="O134" s="42"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A135" s="20"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="42"/>
+      <c r="F135" s="42"/>
+      <c r="G135" s="42"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="42"/>
+      <c r="J135" s="42"/>
+      <c r="K135" s="42"/>
+      <c r="L135" s="42"/>
+      <c r="M135" s="42"/>
+      <c r="N135" s="42"/>
+      <c r="O135" s="42"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
+      <c r="G136" s="42"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="42"/>
+      <c r="K136" s="42"/>
+      <c r="L136" s="42"/>
+      <c r="M136" s="42"/>
+      <c r="N136" s="42"/>
+      <c r="O136" s="42"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A137" s="20"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="42"/>
+      <c r="F137" s="42"/>
+      <c r="G137" s="42"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="42"/>
+      <c r="K137" s="42"/>
+      <c r="L137" s="42"/>
+      <c r="M137" s="42"/>
+      <c r="N137" s="42"/>
+      <c r="O137" s="42"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="42"/>
+      <c r="F138" s="42"/>
+      <c r="G138" s="42"/>
+      <c r="H138" s="42"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="42"/>
+      <c r="K138" s="42"/>
+      <c r="L138" s="42"/>
+      <c r="M138" s="42"/>
+      <c r="N138" s="42"/>
+      <c r="O138" s="42"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A139" s="20"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="42"/>
+      <c r="F139" s="42"/>
+      <c r="G139" s="42"/>
+      <c r="H139" s="42"/>
+      <c r="I139" s="42"/>
+      <c r="J139" s="42"/>
+      <c r="K139" s="42"/>
+      <c r="L139" s="42"/>
+      <c r="M139" s="42"/>
+      <c r="N139" s="42"/>
+      <c r="O139" s="42"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="44"/>
+      <c r="E140" s="42"/>
+      <c r="F140" s="42"/>
+      <c r="G140" s="42"/>
+      <c r="H140" s="42"/>
+      <c r="I140" s="42"/>
+      <c r="J140" s="42"/>
+      <c r="K140" s="42"/>
+      <c r="L140" s="42"/>
+      <c r="M140" s="42"/>
+      <c r="N140" s="42"/>
+      <c r="O140" s="42"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A141" s="46"/>
+      <c r="B141" s="46"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="46"/>
+      <c r="F141" s="46"/>
+      <c r="G141" s="46"/>
+      <c r="H141" s="46"/>
+      <c r="I141" s="46"/>
+      <c r="J141" s="46"/>
+      <c r="K141" s="46"/>
+      <c r="L141" s="46"/>
+      <c r="M141" s="46"/>
+      <c r="N141" s="46"/>
+      <c r="O141" s="46"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A142" s="46"/>
+      <c r="B142" s="46"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="46"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="46"/>
+      <c r="J142" s="46"/>
+      <c r="K142" s="46"/>
+      <c r="L142" s="46"/>
+      <c r="M142" s="46"/>
+      <c r="N142" s="46"/>
+      <c r="O142" s="46"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A143" s="46"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="46"/>
+      <c r="E143" s="46"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="46"/>
+      <c r="H143" s="46"/>
+      <c r="I143" s="46"/>
+      <c r="J143" s="46"/>
+      <c r="K143" s="46"/>
+      <c r="L143" s="46"/>
+      <c r="M143" s="46"/>
+      <c r="N143" s="46"/>
+      <c r="O143" s="46"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A144" s="46"/>
+      <c r="B144" s="46"/>
+      <c r="C144" s="46"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="46"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="46"/>
+      <c r="I144" s="46"/>
+      <c r="J144" s="46"/>
+      <c r="K144" s="46"/>
+      <c r="L144" s="46"/>
+      <c r="M144" s="46"/>
+      <c r="N144" s="46"/>
+      <c r="O144" s="46"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A145" s="46"/>
+      <c r="B145" s="46"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="46"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="46"/>
+      <c r="H145" s="46"/>
+      <c r="I145" s="46"/>
+      <c r="J145" s="46"/>
+      <c r="K145" s="46"/>
+      <c r="L145" s="46"/>
+      <c r="M145" s="46"/>
+      <c r="N145" s="46"/>
+      <c r="O145" s="46"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A146" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B146" s="32"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F146" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G146" s="28"/>
+      <c r="H146" s="28"/>
+      <c r="I146" s="28"/>
+      <c r="J146" s="28"/>
+      <c r="K146" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L146" s="28"/>
+      <c r="M146" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="N146" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O146" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A147" s="32"/>
+      <c r="B147" s="32"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="28"/>
+      <c r="H147" s="28"/>
+      <c r="I147" s="28"/>
+      <c r="J147" s="28"/>
+      <c r="K147" s="28"/>
+      <c r="L147" s="28"/>
+      <c r="M147" s="39"/>
+      <c r="N147" s="39"/>
+      <c r="O147" s="39"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A148" s="32"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G148" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H148" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I148" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J148" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K148" s="28"/>
+      <c r="L148" s="28"/>
+      <c r="M148" s="39"/>
+      <c r="N148" s="39"/>
+      <c r="O148" s="39"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A149" s="20"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="42"/>
+      <c r="F149" s="42"/>
+      <c r="G149" s="42"/>
+      <c r="H149" s="42"/>
+      <c r="I149" s="42"/>
+      <c r="J149" s="42"/>
+      <c r="K149" s="42"/>
+      <c r="L149" s="42"/>
+      <c r="M149" s="42"/>
+      <c r="N149" s="42"/>
+      <c r="O149" s="42"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A150" s="20"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="42"/>
+      <c r="F150" s="42"/>
+      <c r="G150" s="42"/>
+      <c r="H150" s="42"/>
+      <c r="I150" s="42"/>
+      <c r="J150" s="42"/>
+      <c r="K150" s="42"/>
+      <c r="L150" s="42"/>
+      <c r="M150" s="42"/>
+      <c r="N150" s="42"/>
+      <c r="O150" s="42"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A151" s="20"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="42"/>
+      <c r="F151" s="42"/>
+      <c r="G151" s="42"/>
+      <c r="H151" s="42"/>
+      <c r="I151" s="42"/>
+      <c r="J151" s="42"/>
+      <c r="K151" s="42"/>
+      <c r="L151" s="42"/>
+      <c r="M151" s="42"/>
+      <c r="N151" s="42"/>
+      <c r="O151" s="42"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A152" s="20"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="42"/>
+      <c r="F152" s="42"/>
+      <c r="G152" s="42"/>
+      <c r="H152" s="42"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="42"/>
+      <c r="K152" s="42"/>
+      <c r="L152" s="42"/>
+      <c r="M152" s="42"/>
+      <c r="N152" s="42"/>
+      <c r="O152" s="42"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A153" s="20"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="42"/>
+      <c r="F153" s="42"/>
+      <c r="G153" s="42"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="42"/>
+      <c r="K153" s="42"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="42"/>
+      <c r="O153" s="42"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="42"/>
+      <c r="F154" s="42"/>
+      <c r="G154" s="42"/>
+      <c r="H154" s="42"/>
+      <c r="I154" s="42"/>
+      <c r="J154" s="42"/>
+      <c r="K154" s="42"/>
+      <c r="L154" s="42"/>
+      <c r="M154" s="42"/>
+      <c r="N154" s="42"/>
+      <c r="O154" s="42"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="42"/>
+      <c r="F155" s="42"/>
+      <c r="G155" s="42"/>
+      <c r="H155" s="42"/>
+      <c r="I155" s="42"/>
+      <c r="J155" s="42"/>
+      <c r="K155" s="42"/>
+      <c r="L155" s="42"/>
+      <c r="M155" s="42"/>
+      <c r="N155" s="42"/>
+      <c r="O155" s="42"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A156" s="20"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="43"/>
+      <c r="E156" s="42"/>
+      <c r="F156" s="42"/>
+      <c r="G156" s="42"/>
+      <c r="H156" s="42"/>
+      <c r="I156" s="42"/>
+      <c r="J156" s="42"/>
+      <c r="K156" s="42"/>
+      <c r="L156" s="42"/>
+      <c r="M156" s="42"/>
+      <c r="N156" s="42"/>
+      <c r="O156" s="42"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A157" s="20"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="43"/>
+      <c r="E157" s="42"/>
+      <c r="F157" s="42"/>
+      <c r="G157" s="42"/>
+      <c r="H157" s="42"/>
+      <c r="I157" s="42"/>
+      <c r="J157" s="42"/>
+      <c r="K157" s="42"/>
+      <c r="L157" s="42"/>
+      <c r="M157" s="42"/>
+      <c r="N157" s="42"/>
+      <c r="O157" s="42"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A158" s="20"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="43"/>
+      <c r="E158" s="42"/>
+      <c r="F158" s="42"/>
+      <c r="G158" s="42"/>
+      <c r="H158" s="42"/>
+      <c r="I158" s="42"/>
+      <c r="J158" s="42"/>
+      <c r="K158" s="42"/>
+      <c r="L158" s="42"/>
+      <c r="M158" s="42"/>
+      <c r="N158" s="42"/>
+      <c r="O158" s="42"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A159" s="20"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="43"/>
+      <c r="E159" s="42"/>
+      <c r="F159" s="42"/>
+      <c r="G159" s="42"/>
+      <c r="H159" s="42"/>
+      <c r="I159" s="42"/>
+      <c r="J159" s="42"/>
+      <c r="K159" s="42"/>
+      <c r="L159" s="42"/>
+      <c r="M159" s="42"/>
+      <c r="N159" s="42"/>
+      <c r="O159" s="42"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A160" s="20"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="43"/>
+      <c r="E160" s="42"/>
+      <c r="F160" s="42"/>
+      <c r="G160" s="42"/>
+      <c r="H160" s="42"/>
+      <c r="I160" s="42"/>
+      <c r="J160" s="42"/>
+      <c r="K160" s="42"/>
+      <c r="L160" s="42"/>
+      <c r="M160" s="42"/>
+      <c r="N160" s="42"/>
+      <c r="O160" s="42"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A161" s="20"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="42"/>
+      <c r="F161" s="42"/>
+      <c r="G161" s="42"/>
+      <c r="H161" s="42"/>
+      <c r="I161" s="42"/>
+      <c r="J161" s="42"/>
+      <c r="K161" s="42"/>
+      <c r="L161" s="42"/>
+      <c r="M161" s="42"/>
+      <c r="N161" s="42"/>
+      <c r="O161" s="42"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A162" s="20"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="43"/>
+      <c r="E162" s="42"/>
+      <c r="F162" s="42"/>
+      <c r="G162" s="42"/>
+      <c r="H162" s="42"/>
+      <c r="I162" s="42"/>
+      <c r="J162" s="42"/>
+      <c r="K162" s="42"/>
+      <c r="L162" s="42"/>
+      <c r="M162" s="42"/>
+      <c r="N162" s="42"/>
+      <c r="O162" s="42"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A163" s="20"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="43"/>
+      <c r="E163" s="42"/>
+      <c r="F163" s="42"/>
+      <c r="G163" s="42"/>
+      <c r="H163" s="42"/>
+      <c r="I163" s="42"/>
+      <c r="J163" s="42"/>
+      <c r="K163" s="42"/>
+      <c r="L163" s="42"/>
+      <c r="M163" s="42"/>
+      <c r="N163" s="42"/>
+      <c r="O163" s="42"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A164" s="20"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="43"/>
+      <c r="E164" s="42"/>
+      <c r="F164" s="42"/>
+      <c r="G164" s="42"/>
+      <c r="H164" s="42"/>
+      <c r="I164" s="42"/>
+      <c r="J164" s="42"/>
+      <c r="K164" s="42"/>
+      <c r="L164" s="42"/>
+      <c r="M164" s="42"/>
+      <c r="N164" s="42"/>
+      <c r="O164" s="42"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A165" s="20"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="44"/>
+      <c r="E165" s="42"/>
+      <c r="F165" s="42"/>
+      <c r="G165" s="42"/>
+      <c r="H165" s="42"/>
+      <c r="I165" s="42"/>
+      <c r="J165" s="42"/>
+      <c r="K165" s="42"/>
+      <c r="L165" s="42"/>
+      <c r="M165" s="42"/>
+      <c r="N165" s="42"/>
+      <c r="O165" s="42"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A166" s="20"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="43"/>
+      <c r="E166" s="42"/>
+      <c r="F166" s="42"/>
+      <c r="G166" s="42"/>
+      <c r="H166" s="42"/>
+      <c r="I166" s="42"/>
+      <c r="J166" s="42"/>
+      <c r="K166" s="42"/>
+      <c r="L166" s="42"/>
+      <c r="M166" s="42"/>
+      <c r="N166" s="42"/>
+      <c r="O166" s="42"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A167" s="20"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="43"/>
+      <c r="E167" s="42"/>
+      <c r="F167" s="42"/>
+      <c r="G167" s="42"/>
+      <c r="H167" s="42"/>
+      <c r="I167" s="42"/>
+      <c r="J167" s="42"/>
+      <c r="K167" s="42"/>
+      <c r="L167" s="42"/>
+      <c r="M167" s="42"/>
+      <c r="N167" s="42"/>
+      <c r="O167" s="42"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A168" s="20"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="43"/>
+      <c r="E168" s="42"/>
+      <c r="F168" s="42"/>
+      <c r="G168" s="42"/>
+      <c r="H168" s="42"/>
+      <c r="I168" s="42"/>
+      <c r="J168" s="42"/>
+      <c r="K168" s="42"/>
+      <c r="L168" s="42"/>
+      <c r="M168" s="42"/>
+      <c r="N168" s="42"/>
+      <c r="O168" s="42"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A169" s="20"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="43"/>
+      <c r="E169" s="42"/>
+      <c r="F169" s="42"/>
+      <c r="G169" s="42"/>
+      <c r="H169" s="42"/>
+      <c r="I169" s="42"/>
+      <c r="J169" s="42"/>
+      <c r="K169" s="42"/>
+      <c r="L169" s="42"/>
+      <c r="M169" s="42"/>
+      <c r="N169" s="42"/>
+      <c r="O169" s="42"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A170" s="20"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="43"/>
+      <c r="E170" s="42"/>
+      <c r="F170" s="42"/>
+      <c r="G170" s="42"/>
+      <c r="H170" s="42"/>
+      <c r="I170" s="42"/>
+      <c r="J170" s="42"/>
+      <c r="K170" s="42"/>
+      <c r="L170" s="42"/>
+      <c r="M170" s="42"/>
+      <c r="N170" s="42"/>
+      <c r="O170" s="42"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A171" s="20"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="43"/>
+      <c r="E171" s="42"/>
+      <c r="F171" s="42"/>
+      <c r="G171" s="42"/>
+      <c r="H171" s="42"/>
+      <c r="I171" s="42"/>
+      <c r="J171" s="42"/>
+      <c r="K171" s="42"/>
+      <c r="L171" s="42"/>
+      <c r="M171" s="42"/>
+      <c r="N171" s="42"/>
+      <c r="O171" s="42"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A172" s="20"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="43"/>
+      <c r="E172" s="42"/>
+      <c r="F172" s="42"/>
+      <c r="G172" s="42"/>
+      <c r="H172" s="42"/>
+      <c r="I172" s="42"/>
+      <c r="J172" s="42"/>
+      <c r="K172" s="42"/>
+      <c r="L172" s="42"/>
+      <c r="M172" s="42"/>
+      <c r="N172" s="42"/>
+      <c r="O172" s="42"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="43"/>
+      <c r="E173" s="42"/>
+      <c r="F173" s="42"/>
+      <c r="G173" s="42"/>
+      <c r="H173" s="42"/>
+      <c r="I173" s="42"/>
+      <c r="J173" s="42"/>
+      <c r="K173" s="42"/>
+      <c r="L173" s="42"/>
+      <c r="M173" s="42"/>
+      <c r="N173" s="42"/>
+      <c r="O173" s="42"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A174" s="20"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="43"/>
+      <c r="E174" s="42"/>
+      <c r="F174" s="42"/>
+      <c r="G174" s="42"/>
+      <c r="H174" s="42"/>
+      <c r="I174" s="42"/>
+      <c r="J174" s="42"/>
+      <c r="K174" s="42"/>
+      <c r="L174" s="42"/>
+      <c r="M174" s="42"/>
+      <c r="N174" s="42"/>
+      <c r="O174" s="42"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A175" s="20"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="43"/>
+      <c r="E175" s="42"/>
+      <c r="F175" s="42"/>
+      <c r="G175" s="42"/>
+      <c r="H175" s="42"/>
+      <c r="I175" s="42"/>
+      <c r="J175" s="42"/>
+      <c r="K175" s="42"/>
+      <c r="L175" s="42"/>
+      <c r="M175" s="42"/>
+      <c r="N175" s="42"/>
+      <c r="O175" s="42"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A176" s="20"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="43"/>
+      <c r="E176" s="42"/>
+      <c r="F176" s="42"/>
+      <c r="G176" s="42"/>
+      <c r="H176" s="42"/>
+      <c r="I176" s="42"/>
+      <c r="J176" s="42"/>
+      <c r="K176" s="42"/>
+      <c r="L176" s="42"/>
+      <c r="M176" s="42"/>
+      <c r="N176" s="42"/>
+      <c r="O176" s="42"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="43"/>
+      <c r="E177" s="42"/>
+      <c r="F177" s="42"/>
+      <c r="G177" s="42"/>
+      <c r="H177" s="42"/>
+      <c r="I177" s="42"/>
+      <c r="J177" s="42"/>
+      <c r="K177" s="42"/>
+      <c r="L177" s="42"/>
+      <c r="M177" s="42"/>
+      <c r="N177" s="42"/>
+      <c r="O177" s="42"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A178" s="20"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="43"/>
+      <c r="E178" s="42"/>
+      <c r="F178" s="42"/>
+      <c r="G178" s="42"/>
+      <c r="H178" s="42"/>
+      <c r="I178" s="42"/>
+      <c r="J178" s="42"/>
+      <c r="K178" s="42"/>
+      <c r="L178" s="42"/>
+      <c r="M178" s="42"/>
+      <c r="N178" s="42"/>
+      <c r="O178" s="42"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A179" s="20"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="43"/>
+      <c r="E179" s="42"/>
+      <c r="F179" s="42"/>
+      <c r="G179" s="42"/>
+      <c r="H179" s="42"/>
+      <c r="I179" s="42"/>
+      <c r="J179" s="42"/>
+      <c r="K179" s="42"/>
+      <c r="L179" s="42"/>
+      <c r="M179" s="42"/>
+      <c r="N179" s="42"/>
+      <c r="O179" s="42"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A180" s="20"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="43"/>
+      <c r="E180" s="42"/>
+      <c r="F180" s="42"/>
+      <c r="G180" s="42"/>
+      <c r="H180" s="42"/>
+      <c r="I180" s="42"/>
+      <c r="J180" s="42"/>
+      <c r="K180" s="42"/>
+      <c r="L180" s="42"/>
+      <c r="M180" s="42"/>
+      <c r="N180" s="42"/>
+      <c r="O180" s="42"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A181" s="20"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="43"/>
+      <c r="E181" s="42"/>
+      <c r="F181" s="42"/>
+      <c r="G181" s="42"/>
+      <c r="H181" s="42"/>
+      <c r="I181" s="42"/>
+      <c r="J181" s="42"/>
+      <c r="K181" s="42"/>
+      <c r="L181" s="42"/>
+      <c r="M181" s="42"/>
+      <c r="N181" s="42"/>
+      <c r="O181" s="42"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A182" s="20"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="45"/>
+      <c r="E182" s="42"/>
+      <c r="F182" s="42"/>
+      <c r="G182" s="42"/>
+      <c r="H182" s="42"/>
+      <c r="I182" s="42"/>
+      <c r="J182" s="42"/>
+      <c r="K182" s="42"/>
+      <c r="L182" s="42"/>
+      <c r="M182" s="42"/>
+      <c r="N182" s="42"/>
+      <c r="O182" s="42"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A183" s="20"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="43"/>
+      <c r="E183" s="42"/>
+      <c r="F183" s="42"/>
+      <c r="G183" s="42"/>
+      <c r="H183" s="42"/>
+      <c r="I183" s="42"/>
+      <c r="J183" s="42"/>
+      <c r="K183" s="42"/>
+      <c r="L183" s="42"/>
+      <c r="M183" s="42"/>
+      <c r="N183" s="42"/>
+      <c r="O183" s="42"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A184" s="20"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="43"/>
+      <c r="E184" s="42"/>
+      <c r="F184" s="42"/>
+      <c r="G184" s="42"/>
+      <c r="H184" s="42"/>
+      <c r="I184" s="42"/>
+      <c r="J184" s="42"/>
+      <c r="K184" s="42"/>
+      <c r="L184" s="42"/>
+      <c r="M184" s="42"/>
+      <c r="N184" s="42"/>
+      <c r="O184" s="42"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A185" s="20"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="43"/>
+      <c r="E185" s="42"/>
+      <c r="F185" s="42"/>
+      <c r="G185" s="42"/>
+      <c r="H185" s="42"/>
+      <c r="I185" s="42"/>
+      <c r="J185" s="42"/>
+      <c r="K185" s="42"/>
+      <c r="L185" s="42"/>
+      <c r="M185" s="42"/>
+      <c r="N185" s="42"/>
+      <c r="O185" s="42"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A186" s="20"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="43"/>
+      <c r="E186" s="42"/>
+      <c r="F186" s="42"/>
+      <c r="G186" s="42"/>
+      <c r="H186" s="42"/>
+      <c r="I186" s="42"/>
+      <c r="J186" s="42"/>
+      <c r="K186" s="42"/>
+      <c r="L186" s="42"/>
+      <c r="M186" s="42"/>
+      <c r="N186" s="42"/>
+      <c r="O186" s="42"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A187" s="20"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="44"/>
+      <c r="E187" s="42"/>
+      <c r="F187" s="42"/>
+      <c r="G187" s="42"/>
+      <c r="H187" s="42"/>
+      <c r="I187" s="42"/>
+      <c r="J187" s="42"/>
+      <c r="K187" s="42"/>
+      <c r="L187" s="42"/>
+      <c r="M187" s="42"/>
+      <c r="N187" s="42"/>
+      <c r="O187" s="42"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A188" s="46"/>
+      <c r="B188" s="46"/>
+      <c r="C188" s="46"/>
+      <c r="D188" s="46"/>
+      <c r="E188" s="46"/>
+      <c r="F188" s="46"/>
+      <c r="G188" s="46"/>
+      <c r="H188" s="46"/>
+      <c r="I188" s="46"/>
+      <c r="J188" s="46"/>
+      <c r="K188" s="46"/>
+      <c r="L188" s="46"/>
+      <c r="M188" s="46"/>
+      <c r="N188" s="46"/>
+      <c r="O188" s="46"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A189" s="46"/>
+      <c r="B189" s="46"/>
+      <c r="C189" s="46"/>
+      <c r="D189" s="46"/>
+      <c r="E189" s="46"/>
+      <c r="F189" s="46"/>
+      <c r="G189" s="46"/>
+      <c r="H189" s="46"/>
+      <c r="I189" s="46"/>
+      <c r="J189" s="46"/>
+      <c r="K189" s="46"/>
+      <c r="L189" s="46"/>
+      <c r="M189" s="46"/>
+      <c r="N189" s="46"/>
+      <c r="O189" s="46"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A190" s="46"/>
+      <c r="B190" s="46"/>
+      <c r="C190" s="46"/>
+      <c r="D190" s="46"/>
+      <c r="E190" s="46"/>
+      <c r="F190" s="46"/>
+      <c r="G190" s="46"/>
+      <c r="H190" s="46"/>
+      <c r="I190" s="46"/>
+      <c r="J190" s="46"/>
+      <c r="K190" s="46"/>
+      <c r="L190" s="46"/>
+      <c r="M190" s="46"/>
+      <c r="N190" s="46"/>
+      <c r="O190" s="46"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A191" s="46"/>
+      <c r="B191" s="46"/>
+      <c r="C191" s="46"/>
+      <c r="D191" s="46"/>
+      <c r="E191" s="46"/>
+      <c r="F191" s="46"/>
+      <c r="G191" s="46"/>
+      <c r="H191" s="46"/>
+      <c r="I191" s="46"/>
+      <c r="J191" s="46"/>
+      <c r="K191" s="46"/>
+      <c r="L191" s="46"/>
+      <c r="M191" s="46"/>
+      <c r="N191" s="46"/>
+      <c r="O191" s="46"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A192" s="46"/>
+      <c r="B192" s="46"/>
+      <c r="C192" s="46"/>
+      <c r="D192" s="46"/>
+      <c r="E192" s="46"/>
+      <c r="F192" s="46"/>
+      <c r="G192" s="46"/>
+      <c r="H192" s="46"/>
+      <c r="I192" s="46"/>
+      <c r="J192" s="46"/>
+      <c r="K192" s="46"/>
+      <c r="L192" s="46"/>
+      <c r="M192" s="46"/>
+      <c r="N192" s="46"/>
+      <c r="O192" s="46"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A193" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B193" s="32"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32"/>
+      <c r="E193" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F193" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G193" s="28"/>
+      <c r="H193" s="28"/>
+      <c r="I193" s="28"/>
+      <c r="J193" s="28"/>
+      <c r="K193" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L193" s="28"/>
+      <c r="M193" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="N193" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O193" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A194" s="32"/>
+      <c r="B194" s="32"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="32"/>
+      <c r="E194" s="28"/>
+      <c r="F194" s="28"/>
+      <c r="G194" s="28"/>
+      <c r="H194" s="28"/>
+      <c r="I194" s="28"/>
+      <c r="J194" s="28"/>
+      <c r="K194" s="28"/>
+      <c r="L194" s="28"/>
+      <c r="M194" s="39"/>
+      <c r="N194" s="39"/>
+      <c r="O194" s="39"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A195" s="32"/>
+      <c r="B195" s="32"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="32"/>
+      <c r="E195" s="28"/>
+      <c r="F195" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G195" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H195" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I195" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J195" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K195" s="28"/>
+      <c r="L195" s="28"/>
+      <c r="M195" s="39"/>
+      <c r="N195" s="39"/>
+      <c r="O195" s="39"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A196" s="20"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="41"/>
+      <c r="E196" s="42"/>
+      <c r="F196" s="42"/>
+      <c r="G196" s="42"/>
+      <c r="H196" s="42"/>
+      <c r="I196" s="42"/>
+      <c r="J196" s="42"/>
+      <c r="K196" s="42"/>
+      <c r="L196" s="42"/>
+      <c r="M196" s="42"/>
+      <c r="N196" s="42"/>
+      <c r="O196" s="42"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A197" s="20"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="43"/>
+      <c r="E197" s="42"/>
+      <c r="F197" s="42"/>
+      <c r="G197" s="42"/>
+      <c r="H197" s="42"/>
+      <c r="I197" s="42"/>
+      <c r="J197" s="42"/>
+      <c r="K197" s="42"/>
+      <c r="L197" s="42"/>
+      <c r="M197" s="42"/>
+      <c r="N197" s="42"/>
+      <c r="O197" s="42"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A198" s="20"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="43"/>
+      <c r="E198" s="42"/>
+      <c r="F198" s="42"/>
+      <c r="G198" s="42"/>
+      <c r="H198" s="42"/>
+      <c r="I198" s="42"/>
+      <c r="J198" s="42"/>
+      <c r="K198" s="42"/>
+      <c r="L198" s="42"/>
+      <c r="M198" s="42"/>
+      <c r="N198" s="42"/>
+      <c r="O198" s="42"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A199" s="20"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="43"/>
+      <c r="E199" s="42"/>
+      <c r="F199" s="42"/>
+      <c r="G199" s="42"/>
+      <c r="H199" s="42"/>
+      <c r="I199" s="42"/>
+      <c r="J199" s="42"/>
+      <c r="K199" s="42"/>
+      <c r="L199" s="42"/>
+      <c r="M199" s="42"/>
+      <c r="N199" s="42"/>
+      <c r="O199" s="42"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A200" s="20"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="43"/>
+      <c r="E200" s="42"/>
+      <c r="F200" s="42"/>
+      <c r="G200" s="42"/>
+      <c r="H200" s="42"/>
+      <c r="I200" s="42"/>
+      <c r="J200" s="42"/>
+      <c r="K200" s="42"/>
+      <c r="L200" s="42"/>
+      <c r="M200" s="42"/>
+      <c r="N200" s="42"/>
+      <c r="O200" s="42"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A201" s="20"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="43"/>
+      <c r="E201" s="42"/>
+      <c r="F201" s="42"/>
+      <c r="G201" s="42"/>
+      <c r="H201" s="42"/>
+      <c r="I201" s="42"/>
+      <c r="J201" s="42"/>
+      <c r="K201" s="42"/>
+      <c r="L201" s="42"/>
+      <c r="M201" s="42"/>
+      <c r="N201" s="42"/>
+      <c r="O201" s="42"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A202" s="20"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="20"/>
+      <c r="D202" s="43"/>
+      <c r="E202" s="42"/>
+      <c r="F202" s="42"/>
+      <c r="G202" s="42"/>
+      <c r="H202" s="42"/>
+      <c r="I202" s="42"/>
+      <c r="J202" s="42"/>
+      <c r="K202" s="42"/>
+      <c r="L202" s="42"/>
+      <c r="M202" s="42"/>
+      <c r="N202" s="42"/>
+      <c r="O202" s="42"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A203" s="20"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="43"/>
+      <c r="E203" s="42"/>
+      <c r="F203" s="42"/>
+      <c r="G203" s="42"/>
+      <c r="H203" s="42"/>
+      <c r="I203" s="42"/>
+      <c r="J203" s="42"/>
+      <c r="K203" s="42"/>
+      <c r="L203" s="42"/>
+      <c r="M203" s="42"/>
+      <c r="N203" s="42"/>
+      <c r="O203" s="42"/>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A204" s="20"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="43"/>
+      <c r="E204" s="42"/>
+      <c r="F204" s="42"/>
+      <c r="G204" s="42"/>
+      <c r="H204" s="42"/>
+      <c r="I204" s="42"/>
+      <c r="J204" s="42"/>
+      <c r="K204" s="42"/>
+      <c r="L204" s="42"/>
+      <c r="M204" s="42"/>
+      <c r="N204" s="42"/>
+      <c r="O204" s="42"/>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A205" s="20"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="43"/>
+      <c r="E205" s="42"/>
+      <c r="F205" s="42"/>
+      <c r="G205" s="42"/>
+      <c r="H205" s="42"/>
+      <c r="I205" s="42"/>
+      <c r="J205" s="42"/>
+      <c r="K205" s="42"/>
+      <c r="L205" s="42"/>
+      <c r="M205" s="42"/>
+      <c r="N205" s="42"/>
+      <c r="O205" s="42"/>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A206" s="20"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="43"/>
+      <c r="E206" s="42"/>
+      <c r="F206" s="42"/>
+      <c r="G206" s="42"/>
+      <c r="H206" s="42"/>
+      <c r="I206" s="42"/>
+      <c r="J206" s="42"/>
+      <c r="K206" s="42"/>
+      <c r="L206" s="42"/>
+      <c r="M206" s="42"/>
+      <c r="N206" s="42"/>
+      <c r="O206" s="42"/>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A207" s="20"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="20"/>
+      <c r="D207" s="43"/>
+      <c r="E207" s="42"/>
+      <c r="F207" s="42"/>
+      <c r="G207" s="42"/>
+      <c r="H207" s="42"/>
+      <c r="I207" s="42"/>
+      <c r="J207" s="42"/>
+      <c r="K207" s="42"/>
+      <c r="L207" s="42"/>
+      <c r="M207" s="42"/>
+      <c r="N207" s="42"/>
+      <c r="O207" s="42"/>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A208" s="20"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="20"/>
+      <c r="D208" s="43"/>
+      <c r="E208" s="42"/>
+      <c r="F208" s="42"/>
+      <c r="G208" s="42"/>
+      <c r="H208" s="42"/>
+      <c r="I208" s="42"/>
+      <c r="J208" s="42"/>
+      <c r="K208" s="42"/>
+      <c r="L208" s="42"/>
+      <c r="M208" s="42"/>
+      <c r="N208" s="42"/>
+      <c r="O208" s="42"/>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A209" s="20"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="43"/>
+      <c r="E209" s="42"/>
+      <c r="F209" s="42"/>
+      <c r="G209" s="42"/>
+      <c r="H209" s="42"/>
+      <c r="I209" s="42"/>
+      <c r="J209" s="42"/>
+      <c r="K209" s="42"/>
+      <c r="L209" s="42"/>
+      <c r="M209" s="42"/>
+      <c r="N209" s="42"/>
+      <c r="O209" s="42"/>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A210" s="20"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="43"/>
+      <c r="E210" s="42"/>
+      <c r="F210" s="42"/>
+      <c r="G210" s="42"/>
+      <c r="H210" s="42"/>
+      <c r="I210" s="42"/>
+      <c r="J210" s="42"/>
+      <c r="K210" s="42"/>
+      <c r="L210" s="42"/>
+      <c r="M210" s="42"/>
+      <c r="N210" s="42"/>
+      <c r="O210" s="42"/>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A211" s="20"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="43"/>
+      <c r="E211" s="42"/>
+      <c r="F211" s="42"/>
+      <c r="G211" s="42"/>
+      <c r="H211" s="42"/>
+      <c r="I211" s="42"/>
+      <c r="J211" s="42"/>
+      <c r="K211" s="42"/>
+      <c r="L211" s="42"/>
+      <c r="M211" s="42"/>
+      <c r="N211" s="42"/>
+      <c r="O211" s="42"/>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A212" s="20"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="44"/>
+      <c r="E212" s="42"/>
+      <c r="F212" s="42"/>
+      <c r="G212" s="42"/>
+      <c r="H212" s="42"/>
+      <c r="I212" s="42"/>
+      <c r="J212" s="42"/>
+      <c r="K212" s="42"/>
+      <c r="L212" s="42"/>
+      <c r="M212" s="42"/>
+      <c r="N212" s="42"/>
+      <c r="O212" s="42"/>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A213" s="20"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="20"/>
+      <c r="D213" s="43"/>
+      <c r="E213" s="42"/>
+      <c r="F213" s="42"/>
+      <c r="G213" s="42"/>
+      <c r="H213" s="42"/>
+      <c r="I213" s="42"/>
+      <c r="J213" s="42"/>
+      <c r="K213" s="42"/>
+      <c r="L213" s="42"/>
+      <c r="M213" s="42"/>
+      <c r="N213" s="42"/>
+      <c r="O213" s="42"/>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A214" s="20"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
+      <c r="D214" s="43"/>
+      <c r="E214" s="42"/>
+      <c r="F214" s="42"/>
+      <c r="G214" s="42"/>
+      <c r="H214" s="42"/>
+      <c r="I214" s="42"/>
+      <c r="J214" s="42"/>
+      <c r="K214" s="42"/>
+      <c r="L214" s="42"/>
+      <c r="M214" s="42"/>
+      <c r="N214" s="42"/>
+      <c r="O214" s="42"/>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A215" s="20"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="20"/>
+      <c r="D215" s="43"/>
+      <c r="E215" s="42"/>
+      <c r="F215" s="42"/>
+      <c r="G215" s="42"/>
+      <c r="H215" s="42"/>
+      <c r="I215" s="42"/>
+      <c r="J215" s="42"/>
+      <c r="K215" s="42"/>
+      <c r="L215" s="42"/>
+      <c r="M215" s="42"/>
+      <c r="N215" s="42"/>
+      <c r="O215" s="42"/>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A216" s="20"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="20"/>
+      <c r="D216" s="43"/>
+      <c r="E216" s="42"/>
+      <c r="F216" s="42"/>
+      <c r="G216" s="42"/>
+      <c r="H216" s="42"/>
+      <c r="I216" s="42"/>
+      <c r="J216" s="42"/>
+      <c r="K216" s="42"/>
+      <c r="L216" s="42"/>
+      <c r="M216" s="42"/>
+      <c r="N216" s="42"/>
+      <c r="O216" s="42"/>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A217" s="20"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="43"/>
+      <c r="E217" s="42"/>
+      <c r="F217" s="42"/>
+      <c r="G217" s="42"/>
+      <c r="H217" s="42"/>
+      <c r="I217" s="42"/>
+      <c r="J217" s="42"/>
+      <c r="K217" s="42"/>
+      <c r="L217" s="42"/>
+      <c r="M217" s="42"/>
+      <c r="N217" s="42"/>
+      <c r="O217" s="42"/>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A218" s="20"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="43"/>
+      <c r="E218" s="42"/>
+      <c r="F218" s="42"/>
+      <c r="G218" s="42"/>
+      <c r="H218" s="42"/>
+      <c r="I218" s="42"/>
+      <c r="J218" s="42"/>
+      <c r="K218" s="42"/>
+      <c r="L218" s="42"/>
+      <c r="M218" s="42"/>
+      <c r="N218" s="42"/>
+      <c r="O218" s="42"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A219" s="20"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="43"/>
+      <c r="E219" s="42"/>
+      <c r="F219" s="42"/>
+      <c r="G219" s="42"/>
+      <c r="H219" s="42"/>
+      <c r="I219" s="42"/>
+      <c r="J219" s="42"/>
+      <c r="K219" s="42"/>
+      <c r="L219" s="42"/>
+      <c r="M219" s="42"/>
+      <c r="N219" s="42"/>
+      <c r="O219" s="42"/>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A220" s="20"/>
+      <c r="B220" s="20"/>
+      <c r="C220" s="20"/>
+      <c r="D220" s="43"/>
+      <c r="E220" s="42"/>
+      <c r="F220" s="42"/>
+      <c r="G220" s="42"/>
+      <c r="H220" s="42"/>
+      <c r="I220" s="42"/>
+      <c r="J220" s="42"/>
+      <c r="K220" s="42"/>
+      <c r="L220" s="42"/>
+      <c r="M220" s="42"/>
+      <c r="N220" s="42"/>
+      <c r="O220" s="42"/>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A221" s="20"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="43"/>
+      <c r="E221" s="42"/>
+      <c r="F221" s="42"/>
+      <c r="G221" s="42"/>
+      <c r="H221" s="42"/>
+      <c r="I221" s="42"/>
+      <c r="J221" s="42"/>
+      <c r="K221" s="42"/>
+      <c r="L221" s="42"/>
+      <c r="M221" s="42"/>
+      <c r="N221" s="42"/>
+      <c r="O221" s="42"/>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A222" s="20"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="20"/>
+      <c r="D222" s="43"/>
+      <c r="E222" s="42"/>
+      <c r="F222" s="42"/>
+      <c r="G222" s="42"/>
+      <c r="H222" s="42"/>
+      <c r="I222" s="42"/>
+      <c r="J222" s="42"/>
+      <c r="K222" s="42"/>
+      <c r="L222" s="42"/>
+      <c r="M222" s="42"/>
+      <c r="N222" s="42"/>
+      <c r="O222" s="42"/>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A223" s="20"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
+      <c r="D223" s="43"/>
+      <c r="E223" s="42"/>
+      <c r="F223" s="42"/>
+      <c r="G223" s="42"/>
+      <c r="H223" s="42"/>
+      <c r="I223" s="42"/>
+      <c r="J223" s="42"/>
+      <c r="K223" s="42"/>
+      <c r="L223" s="42"/>
+      <c r="M223" s="42"/>
+      <c r="N223" s="42"/>
+      <c r="O223" s="42"/>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A224" s="20"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="20"/>
+      <c r="D224" s="43"/>
+      <c r="E224" s="42"/>
+      <c r="F224" s="42"/>
+      <c r="G224" s="42"/>
+      <c r="H224" s="42"/>
+      <c r="I224" s="42"/>
+      <c r="J224" s="42"/>
+      <c r="K224" s="42"/>
+      <c r="L224" s="42"/>
+      <c r="M224" s="42"/>
+      <c r="N224" s="42"/>
+      <c r="O224" s="42"/>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A225" s="20"/>
+      <c r="B225" s="20"/>
+      <c r="C225" s="20"/>
+      <c r="D225" s="43"/>
+      <c r="E225" s="42"/>
+      <c r="F225" s="42"/>
+      <c r="G225" s="42"/>
+      <c r="H225" s="42"/>
+      <c r="I225" s="42"/>
+      <c r="J225" s="42"/>
+      <c r="K225" s="42"/>
+      <c r="L225" s="42"/>
+      <c r="M225" s="42"/>
+      <c r="N225" s="42"/>
+      <c r="O225" s="42"/>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A226" s="20"/>
+      <c r="B226" s="20"/>
+      <c r="C226" s="20"/>
+      <c r="D226" s="43"/>
+      <c r="E226" s="42"/>
+      <c r="F226" s="42"/>
+      <c r="G226" s="42"/>
+      <c r="H226" s="42"/>
+      <c r="I226" s="42"/>
+      <c r="J226" s="42"/>
+      <c r="K226" s="42"/>
+      <c r="L226" s="42"/>
+      <c r="M226" s="42"/>
+      <c r="N226" s="42"/>
+      <c r="O226" s="42"/>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A227" s="20"/>
+      <c r="B227" s="20"/>
+      <c r="C227" s="40"/>
+      <c r="D227" s="43"/>
+      <c r="E227" s="42"/>
+      <c r="F227" s="42"/>
+      <c r="G227" s="42"/>
+      <c r="H227" s="42"/>
+      <c r="I227" s="42"/>
+      <c r="J227" s="42"/>
+      <c r="K227" s="42"/>
+      <c r="L227" s="42"/>
+      <c r="M227" s="42"/>
+      <c r="N227" s="42"/>
+      <c r="O227" s="42"/>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A228" s="20"/>
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="43"/>
+      <c r="E228" s="42"/>
+      <c r="F228" s="42"/>
+      <c r="G228" s="42"/>
+      <c r="H228" s="42"/>
+      <c r="I228" s="42"/>
+      <c r="J228" s="42"/>
+      <c r="K228" s="42"/>
+      <c r="L228" s="42"/>
+      <c r="M228" s="42"/>
+      <c r="N228" s="42"/>
+      <c r="O228" s="42"/>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A229" s="20"/>
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="45"/>
+      <c r="E229" s="42"/>
+      <c r="F229" s="42"/>
+      <c r="G229" s="42"/>
+      <c r="H229" s="42"/>
+      <c r="I229" s="42"/>
+      <c r="J229" s="42"/>
+      <c r="K229" s="42"/>
+      <c r="L229" s="42"/>
+      <c r="M229" s="42"/>
+      <c r="N229" s="42"/>
+      <c r="O229" s="42"/>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A230" s="20"/>
+      <c r="B230" s="20"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="43"/>
+      <c r="E230" s="42"/>
+      <c r="F230" s="42"/>
+      <c r="G230" s="42"/>
+      <c r="H230" s="42"/>
+      <c r="I230" s="42"/>
+      <c r="J230" s="42"/>
+      <c r="K230" s="42"/>
+      <c r="L230" s="42"/>
+      <c r="M230" s="42"/>
+      <c r="N230" s="42"/>
+      <c r="O230" s="42"/>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A231" s="20"/>
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="43"/>
+      <c r="E231" s="42"/>
+      <c r="F231" s="42"/>
+      <c r="G231" s="42"/>
+      <c r="H231" s="42"/>
+      <c r="I231" s="42"/>
+      <c r="J231" s="42"/>
+      <c r="K231" s="42"/>
+      <c r="L231" s="42"/>
+      <c r="M231" s="42"/>
+      <c r="N231" s="42"/>
+      <c r="O231" s="42"/>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A232" s="20"/>
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="43"/>
+      <c r="E232" s="42"/>
+      <c r="F232" s="42"/>
+      <c r="G232" s="42"/>
+      <c r="H232" s="42"/>
+      <c r="I232" s="42"/>
+      <c r="J232" s="42"/>
+      <c r="K232" s="42"/>
+      <c r="L232" s="42"/>
+      <c r="M232" s="42"/>
+      <c r="N232" s="42"/>
+      <c r="O232" s="42"/>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A233" s="20"/>
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="43"/>
+      <c r="E233" s="42"/>
+      <c r="F233" s="42"/>
+      <c r="G233" s="42"/>
+      <c r="H233" s="42"/>
+      <c r="I233" s="42"/>
+      <c r="J233" s="42"/>
+      <c r="K233" s="42"/>
+      <c r="L233" s="42"/>
+      <c r="M233" s="42"/>
+      <c r="N233" s="42"/>
+      <c r="O233" s="42"/>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A234" s="20"/>
+      <c r="B234" s="20"/>
+      <c r="C234" s="20"/>
+      <c r="D234" s="44"/>
+      <c r="E234" s="42"/>
+      <c r="F234" s="42"/>
+      <c r="G234" s="42"/>
+      <c r="H234" s="42"/>
+      <c r="I234" s="42"/>
+      <c r="J234" s="42"/>
+      <c r="K234" s="42"/>
+      <c r="L234" s="42"/>
+      <c r="M234" s="42"/>
+      <c r="N234" s="42"/>
+      <c r="O234" s="42"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="34">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
+  <mergeCells count="62">
+    <mergeCell ref="N193:N195"/>
+    <mergeCell ref="O193:O195"/>
+    <mergeCell ref="A193:D195"/>
+    <mergeCell ref="E193:E195"/>
+    <mergeCell ref="F193:J194"/>
+    <mergeCell ref="K193:L195"/>
+    <mergeCell ref="M193:M195"/>
+    <mergeCell ref="O99:O101"/>
+    <mergeCell ref="A146:D148"/>
+    <mergeCell ref="E146:E148"/>
+    <mergeCell ref="F146:J147"/>
+    <mergeCell ref="K146:L148"/>
+    <mergeCell ref="M146:M148"/>
+    <mergeCell ref="N146:N148"/>
+    <mergeCell ref="O146:O148"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="F99:J100"/>
+    <mergeCell ref="K99:L101"/>
+    <mergeCell ref="M99:M101"/>
+    <mergeCell ref="N99:N101"/>
+    <mergeCell ref="A99:D101"/>
+    <mergeCell ref="N52:N54"/>
+    <mergeCell ref="O52:O54"/>
+    <mergeCell ref="A52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:J53"/>
+    <mergeCell ref="K52:L54"/>
+    <mergeCell ref="M52:M54"/>
+    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="F1:J2"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="B47:B48"/>
@@ -2181,11 +5673,20 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="K1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="F1:J2"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
+++ b/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PTH\Desktop\git\3rd_homework\테스트 결과 보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4C7114-FEE0-46DA-A919-314881CADBF2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B63DD0-3E13-444C-AC1C-C0AB76528529}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="307">
   <si>
     <t>RQ-001</t>
   </si>
@@ -916,6 +916,209 @@
   </si>
   <si>
     <t>2019-11-19~2019-11-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT-02</t>
+  </si>
+  <si>
+    <t>DT-03</t>
+  </si>
+  <si>
+    <t>DT-04</t>
+  </si>
+  <si>
+    <t>DT-05</t>
+  </si>
+  <si>
+    <t>DT-06</t>
+  </si>
+  <si>
+    <t>DT-07</t>
+  </si>
+  <si>
+    <t>DT-08</t>
+  </si>
+  <si>
+    <t>DT-09</t>
+  </si>
+  <si>
+    <t>DT-10</t>
+  </si>
+  <si>
+    <t>DT-11</t>
+  </si>
+  <si>
+    <t>DT-12</t>
+  </si>
+  <si>
+    <t>DT-13</t>
+  </si>
+  <si>
+    <t>DT-14</t>
+  </si>
+  <si>
+    <t>DT-15</t>
+  </si>
+  <si>
+    <t>DT-16</t>
+  </si>
+  <si>
+    <t>DT-17</t>
+  </si>
+  <si>
+    <t>DT-18</t>
+  </si>
+  <si>
+    <t>DT-19</t>
+  </si>
+  <si>
+    <t>DT-20</t>
+  </si>
+  <si>
+    <t>DT-21</t>
+  </si>
+  <si>
+    <t>DT-22</t>
+  </si>
+  <si>
+    <t>DT-23</t>
+  </si>
+  <si>
+    <t>DT-24</t>
+  </si>
+  <si>
+    <t>DT-25</t>
+  </si>
+  <si>
+    <t>DT-26</t>
+  </si>
+  <si>
+    <t>인터넷 연결 불안정 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-12-01~2019-12-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박태형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일지점 선택 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 오타 검색 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 자음 검색 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-12-01~2019-12-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일한 지점을 선택하였을 경우, 경로 안내 페이지에서 오류가 있음을 감지하여 알려주는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷이 불안정 할 때 검색을 실행하였을 경우, 각 페이지를 정삭적으로 로드하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 입력을 한글 자음으로만 실시했을 경우, 검색 결과 페이지에서 사용자가 의도한 값을 도출하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미입력 목적지 맞교환 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지와 목적지를 입력하지 않고 출발지와 목적지를 맞교환을 하였을 경우, 정상적인 페이지를 로드하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 안내 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 입력 중 오타가 생겼을 경우, 검색 결과 페이지에서 그에 맞는 결과값을 정상적으로 로드하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 검색 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 불가능 시간 사용 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누비자를 사용 불가능 한 시간대에서 접근할 경우, 정상적으로 오류메시지를 출력하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크 검색 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기록 제한 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임종원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈 값 검색 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 입력을 하지 않고 검색을 실시하였을 경우, 에러 페이지를 로드하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-12-01~2019-12-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자음 모음 분리 검색 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 입력 시 자음과 모음을 분리하여 검색을 실시하였을 경우, 정상적인 결과 페이지를 로드하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기록이 5개 쌓이고 새로운 검색을 시도할 경우, 정상적으로 가장 오래된 기록을 삭제하고 새로운 검색결과를 저장하는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1401,7 +1604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1454,6 +1657,189 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1463,182 +1849,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1955,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O160"/>
+  <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K97" sqref="K97"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1972,59 +2190,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="28" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="39" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="16" t="s">
         <v>86</v>
       </c>
@@ -2040,17 +2258,17 @@
       <c r="J3" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="86" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -2072,9 +2290,9 @@
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="36" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -2093,9 +2311,9 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="13" t="s">
         <v>1</v>
       </c>
@@ -2112,8 +2330,8 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="19" t="s">
         <v>36</v>
       </c>
@@ -2133,9 +2351,9 @@
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="38" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="82" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -2154,9 +2372,9 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
@@ -2173,13 +2391,13 @@
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="82" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2198,9 +2416,9 @@
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="37"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="13" t="s">
         <v>29</v>
       </c>
@@ -2217,11 +2435,11 @@
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="77"/>
+      <c r="B12" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="83" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -2240,9 +2458,9 @@
       <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="13" t="s">
         <v>43</v>
       </c>
@@ -2259,9 +2477,9 @@
       <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="13" t="s">
         <v>44</v>
       </c>
@@ -2278,13 +2496,13 @@
       <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="83" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -2303,9 +2521,9 @@
       <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="13" t="s">
         <v>4</v>
       </c>
@@ -2322,9 +2540,9 @@
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="22" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="83" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -2343,9 +2561,9 @@
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
@@ -2362,8 +2580,8 @@
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="7" t="s">
         <v>51</v>
       </c>
@@ -2383,8 +2601,8 @@
       <c r="O19" s="11"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="48" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -2406,8 +2624,8 @@
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
@@ -2427,8 +2645,8 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -2450,8 +2668,8 @@
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="7" t="s">
         <v>23</v>
       </c>
@@ -2471,8 +2689,8 @@
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="50"/>
+      <c r="B24" s="48" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2494,8 +2712,8 @@
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="7" t="s">
         <v>23</v>
       </c>
@@ -2515,11 +2733,11 @@
       <c r="O25" s="11"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="50"/>
+      <c r="B26" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -2538,9 +2756,9 @@
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="23"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="13" t="s">
         <v>67</v>
       </c>
@@ -2557,9 +2775,9 @@
       <c r="O27" s="11"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="23"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="13" t="s">
         <v>69</v>
       </c>
@@ -2576,9 +2794,9 @@
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="24"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="13" t="s">
         <v>70</v>
       </c>
@@ -2595,8 +2813,8 @@
       <c r="O29" s="11"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="7" t="s">
         <v>60</v>
       </c>
@@ -2616,11 +2834,11 @@
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="50"/>
+      <c r="B31" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="83" t="s">
         <v>73</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -2639,9 +2857,9 @@
       <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="24"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="13" t="s">
         <v>75</v>
       </c>
@@ -2658,8 +2876,8 @@
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="9" t="s">
         <v>60</v>
       </c>
@@ -2679,8 +2897,8 @@
       <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="25" t="s">
+      <c r="A34" s="50"/>
+      <c r="B34" s="48" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -2702,8 +2920,8 @@
       <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="10" t="s">
         <v>60</v>
       </c>
@@ -2723,10 +2941,10 @@
       <c r="O35" s="11"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="48" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -2748,8 +2966,8 @@
       <c r="O36" s="11"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="7" t="s">
         <v>81</v>
       </c>
@@ -2769,9 +2987,9 @@
       <c r="O37" s="11"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="22" t="s">
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="83" t="s">
         <v>82</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -2790,9 +3008,9 @@
       <c r="O38" s="11"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="23"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="84"/>
       <c r="D39" s="13" t="s">
         <v>64</v>
       </c>
@@ -2809,11 +3027,11 @@
       <c r="O39" s="11"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26" t="s">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="23"/>
+      <c r="C40" s="84"/>
       <c r="D40" s="13" t="s">
         <v>6</v>
       </c>
@@ -2830,9 +3048,9 @@
       <c r="O40" s="11"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="24"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="13" t="s">
         <v>9</v>
       </c>
@@ -2849,8 +3067,8 @@
       <c r="O41" s="11"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="7" t="s">
         <v>83</v>
       </c>
@@ -2911,10 +3129,10 @@
       <c r="O46" s="11"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="74" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -2936,8 +3154,8 @@
       <c r="O47" s="11"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="31"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="5" t="s">
         <v>17</v>
       </c>
@@ -2982,59 +3200,59 @@
       <c r="O49" s="11"/>
     </row>
     <row r="52" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="74" t="s">
+      <c r="A52" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="71" t="s">
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="F52" s="63" t="s">
+      <c r="F52" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="63" t="s">
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="L52" s="64"/>
-      <c r="M52" s="60" t="s">
+      <c r="L52" s="68"/>
+      <c r="M52" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="N52" s="60" t="s">
+      <c r="N52" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="O52" s="60" t="s">
+      <c r="O52" s="51" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="77"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="67"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="69"/>
       <c r="G53" s="70"/>
       <c r="H53" s="70"/>
       <c r="I53" s="70"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
     </row>
     <row r="54" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="80"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="73"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="65"/>
       <c r="F54" s="17" t="s">
         <v>86</v>
       </c>
@@ -3050,892 +3268,892 @@
       <c r="J54" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K54" s="67"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="28" t="s">
         <v>208</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="44"/>
-      <c r="O55" s="44"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="28" t="s">
         <v>209</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="44"/>
-      <c r="N56" s="44"/>
-      <c r="O56" s="44"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="28" t="s">
         <v>210</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="44"/>
-      <c r="O57" s="44"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="28" t="s">
         <v>211</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="28" t="s">
         <v>212</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="44"/>
-      <c r="O59" s="44"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="28" t="s">
         <v>213</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="44"/>
-      <c r="O60" s="44"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="28" t="s">
         <v>214</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="44"/>
-      <c r="N61" s="44"/>
-      <c r="O61" s="44"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="28" t="s">
         <v>215</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="44"/>
-      <c r="O62" s="44"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="28" t="s">
         <v>216</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="44"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="28" t="s">
         <v>217</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="44"/>
-      <c r="O64" s="44"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="28" t="s">
         <v>218</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="28" t="s">
         <v>219</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="44"/>
-      <c r="O66" s="44"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="44" t="s">
+      <c r="A67" s="28" t="s">
         <v>220</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="58"/>
-      <c r="M67" s="44"/>
-      <c r="N67" s="44"/>
-      <c r="O67" s="44"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="28" t="s">
         <v>221</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="44"/>
-      <c r="O68" s="44"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="28" t="s">
         <v>222</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="44"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="28" t="s">
         <v>223</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="53"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="44"/>
-      <c r="O70" s="44"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="28" t="s">
         <v>224</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="44"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="44" t="s">
+      <c r="A72" s="28" t="s">
         <v>225</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="44"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="44"/>
-      <c r="N72" s="44"/>
-      <c r="O72" s="44"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="28" t="s">
         <v>226</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="44"/>
-      <c r="O73" s="44"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="44" t="s">
+      <c r="A74" s="28" t="s">
         <v>227</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="53"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="44"/>
-      <c r="N74" s="44"/>
-      <c r="O74" s="44"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="28" t="s">
         <v>228</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="44"/>
-      <c r="N75" s="44"/>
-      <c r="O75" s="44"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="44" t="s">
+      <c r="A76" s="28" t="s">
         <v>229</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="44"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="44"/>
-      <c r="N76" s="44"/>
-      <c r="O76" s="44"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="28" t="s">
         <v>230</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="44"/>
-      <c r="N77" s="44"/>
-      <c r="O77" s="44"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="44" t="s">
+      <c r="A78" s="28" t="s">
         <v>231</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="44"/>
-      <c r="N78" s="44"/>
-      <c r="O78" s="44"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="28"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="44" t="s">
+      <c r="A79" s="28" t="s">
         <v>232</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="44"/>
-      <c r="N79" s="44"/>
-      <c r="O79" s="44"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="28"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="44" t="s">
+      <c r="A80" s="28" t="s">
         <v>233</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="44"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="44"/>
-      <c r="N80" s="44"/>
-      <c r="O80" s="44"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="44" t="s">
+      <c r="A81" s="28" t="s">
         <v>234</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="44"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="54"/>
-      <c r="M81" s="44"/>
-      <c r="N81" s="44"/>
-      <c r="O81" s="44"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="28"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="28" t="s">
         <v>235</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="44"/>
-      <c r="J82" s="44"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="54"/>
-      <c r="M82" s="44"/>
-      <c r="N82" s="44"/>
-      <c r="O82" s="44"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="28"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="44" t="s">
+      <c r="A83" s="28" t="s">
         <v>236</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="44"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="44"/>
-      <c r="O83" s="44"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="28"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A84" s="44" t="s">
+      <c r="A84" s="28" t="s">
         <v>237</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="54"/>
-      <c r="M84" s="44"/>
-      <c r="N84" s="44"/>
-      <c r="O84" s="44"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="28"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" s="44" t="s">
+      <c r="A85" s="28" t="s">
         <v>238</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="44"/>
-      <c r="N85" s="44"/>
-      <c r="O85" s="44"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="40"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="28"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="44" t="s">
+      <c r="A86" s="28" t="s">
         <v>239</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="54"/>
-      <c r="M86" s="44"/>
-      <c r="N86" s="44"/>
-      <c r="O86" s="44"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="44" t="s">
+      <c r="A87" s="28" t="s">
         <v>240</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="54"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="44"/>
-      <c r="O87" s="44"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="28"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="28" t="s">
         <v>241</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="54"/>
-      <c r="M88" s="44"/>
-      <c r="N88" s="44"/>
-      <c r="O88" s="44"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" s="44" t="s">
+      <c r="A89" s="28" t="s">
         <v>242</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="54"/>
-      <c r="M89" s="44"/>
-      <c r="N89" s="44"/>
-      <c r="O89" s="44"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="28"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A90" s="44" t="s">
+      <c r="A90" s="28" t="s">
         <v>243</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="53"/>
-      <c r="L90" s="54"/>
-      <c r="M90" s="44"/>
-      <c r="N90" s="44"/>
-      <c r="O90" s="44"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="40"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="28"/>
+      <c r="O90" s="28"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91" s="44" t="s">
+      <c r="A91" s="28" t="s">
         <v>244</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="53"/>
-      <c r="L91" s="54"/>
-      <c r="M91" s="44"/>
-      <c r="N91" s="44"/>
-      <c r="O91" s="44"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="40"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="28"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92" s="44" t="s">
+      <c r="A92" s="28" t="s">
         <v>245</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
-      <c r="K92" s="53"/>
-      <c r="L92" s="54"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="44"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="40"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="28"/>
+      <c r="O92" s="28"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93" s="44" t="s">
+      <c r="A93" s="28" t="s">
         <v>246</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
-      <c r="D93" s="46"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
-      <c r="K93" s="53"/>
-      <c r="L93" s="54"/>
-      <c r="M93" s="44"/>
-      <c r="N93" s="44"/>
-      <c r="O93" s="44"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="28"/>
+      <c r="O93" s="28"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94" s="48"/>
-      <c r="B94" s="48"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="48"/>
-      <c r="K94" s="48"/>
-      <c r="L94" s="48"/>
-      <c r="M94" s="48"/>
-      <c r="N94" s="48"/>
-      <c r="O94" s="48"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="32"/>
+      <c r="O94" s="32"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="48"/>
-      <c r="B95" s="48"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48"/>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48"/>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48"/>
-      <c r="L95" s="48"/>
-      <c r="M95" s="48"/>
-      <c r="N95" s="48"/>
-      <c r="O95" s="48"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="32"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96" s="48"/>
-      <c r="B96" s="48"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="48"/>
-      <c r="L96" s="48"/>
-      <c r="M96" s="48"/>
-      <c r="N96" s="48"/>
-      <c r="O96" s="48"/>
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="32"/>
+      <c r="O96" s="32"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="48"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="48"/>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="48"/>
-      <c r="J97" s="48"/>
-      <c r="K97" s="48"/>
-      <c r="L97" s="48"/>
-      <c r="M97" s="48"/>
-      <c r="N97" s="48"/>
-      <c r="O97" s="48"/>
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="32"/>
+      <c r="N97" s="32"/>
+      <c r="O97" s="32"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="48"/>
-      <c r="B98" s="48"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="48"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="48"/>
-      <c r="J98" s="48"/>
-      <c r="K98" s="48"/>
-      <c r="L98" s="48"/>
-      <c r="M98" s="48"/>
-      <c r="N98" s="48"/>
-      <c r="O98" s="48"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
+      <c r="M98" s="32"/>
+      <c r="N98" s="32"/>
+      <c r="O98" s="32"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="28" t="s">
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="F99" s="28" t="s">
+      <c r="F99" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28" t="s">
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+      <c r="K99" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="L99" s="28"/>
-      <c r="M99" s="39" t="s">
+      <c r="L99" s="45"/>
+      <c r="M99" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="N99" s="39" t="s">
+      <c r="N99" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="O99" s="39" t="s">
+      <c r="O99" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="32"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="28"/>
-      <c r="M100" s="39"/>
-      <c r="N100" s="39"/>
-      <c r="O100" s="39"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
+      <c r="J100" s="45"/>
+      <c r="K100" s="45"/>
+      <c r="L100" s="45"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="43"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="32"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="28"/>
+      <c r="A101" s="44"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="44"/>
+      <c r="E101" s="45"/>
       <c r="F101" s="17" t="s">
         <v>86</v>
       </c>
@@ -3951,898 +4169,898 @@
       <c r="J101" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K101" s="28"/>
-      <c r="L101" s="28"/>
-      <c r="M101" s="39"/>
-      <c r="N101" s="39"/>
-      <c r="O101" s="39"/>
+      <c r="K101" s="45"/>
+      <c r="L101" s="45"/>
+      <c r="M101" s="43"/>
+      <c r="N101" s="43"/>
+      <c r="O101" s="43"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="44" t="s">
+      <c r="A102" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B102" s="25" t="s">
+      <c r="B102" s="48" t="s">
         <v>100</v>
       </c>
       <c r="C102" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D102" s="50" t="s">
+      <c r="D102" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E102" s="44" t="s">
+      <c r="E102" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="44"/>
-      <c r="K102" s="53"/>
-      <c r="L102" s="54"/>
-      <c r="M102" s="44"/>
-      <c r="N102" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="O102" s="44" t="s">
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="39"/>
+      <c r="L102" s="40"/>
+      <c r="M102" s="28"/>
+      <c r="N102" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="O102" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103" s="44" t="s">
+      <c r="A103" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="B103" s="26"/>
+      <c r="B103" s="50"/>
       <c r="C103" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D103" s="51" t="s">
+      <c r="D103" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E103" s="44" t="s">
+      <c r="E103" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="53"/>
-      <c r="L103" s="54"/>
-      <c r="M103" s="44"/>
-      <c r="N103" s="44" t="s">
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="28"/>
+      <c r="K103" s="39"/>
+      <c r="L103" s="40"/>
+      <c r="M103" s="28"/>
+      <c r="N103" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="O103" s="44" t="s">
+      <c r="O103" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="B104" s="26"/>
+      <c r="B104" s="50"/>
       <c r="C104" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D104" s="51" t="s">
+      <c r="D104" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="E104" s="44" t="s">
+      <c r="E104" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="44"/>
-      <c r="K104" s="53"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="44"/>
-      <c r="N104" s="44" t="s">
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="39"/>
+      <c r="L104" s="40"/>
+      <c r="M104" s="28"/>
+      <c r="N104" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="O104" s="44" t="s">
+      <c r="O104" s="28" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A105" s="44" t="s">
+      <c r="A105" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B105" s="26"/>
+      <c r="B105" s="50"/>
       <c r="C105" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D105" s="51" t="s">
+      <c r="D105" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="E105" s="44" t="s">
+      <c r="E105" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="44"/>
-      <c r="K105" s="53"/>
-      <c r="L105" s="54"/>
-      <c r="M105" s="44"/>
-      <c r="N105" s="44" t="s">
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="39"/>
+      <c r="L105" s="40"/>
+      <c r="M105" s="28"/>
+      <c r="N105" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="O105" s="44" t="s">
+      <c r="O105" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A106" s="44" t="s">
+      <c r="A106" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="B106" s="26"/>
+      <c r="B106" s="50"/>
       <c r="C106" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D106" s="51" t="s">
+      <c r="D106" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="E106" s="44" t="s">
+      <c r="E106" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F106" s="44"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="44"/>
-      <c r="I106" s="44"/>
-      <c r="J106" s="44"/>
-      <c r="K106" s="53"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="44"/>
-      <c r="N106" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="O106" s="44" t="s">
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="39"/>
+      <c r="L106" s="40"/>
+      <c r="M106" s="28"/>
+      <c r="N106" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="O106" s="28" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107" s="44" t="s">
+      <c r="A107" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B107" s="27"/>
+      <c r="B107" s="49"/>
       <c r="C107" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="51" t="s">
+      <c r="D107" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E107" s="44" t="s">
+      <c r="E107" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="F107" s="44"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="44"/>
-      <c r="I107" s="44"/>
-      <c r="J107" s="44"/>
-      <c r="K107" s="55"/>
-      <c r="L107" s="56"/>
-      <c r="M107" s="44"/>
-      <c r="N107" s="44" t="s">
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="46"/>
+      <c r="L107" s="47"/>
+      <c r="M107" s="28"/>
+      <c r="N107" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="O107" s="44" t="s">
+      <c r="O107" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" s="44" t="s">
+      <c r="A108" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="B108" s="25" t="s">
+      <c r="B108" s="48" t="s">
         <v>108</v>
       </c>
       <c r="C108" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D108" s="51" t="s">
+      <c r="D108" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E108" s="44" t="s">
+      <c r="E108" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F108" s="44"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="44"/>
-      <c r="I108" s="44"/>
-      <c r="J108" s="44"/>
-      <c r="K108" s="53"/>
-      <c r="L108" s="54"/>
-      <c r="M108" s="44"/>
-      <c r="N108" s="44" t="s">
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="39"/>
+      <c r="L108" s="40"/>
+      <c r="M108" s="28"/>
+      <c r="N108" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="O108" s="44" t="s">
+      <c r="O108" s="28" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A109" s="44" t="s">
+      <c r="A109" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="26"/>
+      <c r="B109" s="50"/>
       <c r="C109" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D109" s="51" t="s">
+      <c r="D109" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E109" s="44" t="s">
+      <c r="E109" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F109" s="44"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="44"/>
-      <c r="I109" s="44"/>
-      <c r="J109" s="44"/>
-      <c r="K109" s="53"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="44"/>
-      <c r="N109" s="44" t="s">
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="39"/>
+      <c r="L109" s="40"/>
+      <c r="M109" s="28"/>
+      <c r="N109" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="O109" s="44" t="s">
+      <c r="O109" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A110" s="44" t="s">
+      <c r="A110" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B110" s="26"/>
+      <c r="B110" s="50"/>
       <c r="C110" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D110" s="51" t="s">
+      <c r="D110" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="E110" s="44" t="s">
+      <c r="E110" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="44"/>
-      <c r="I110" s="44"/>
-      <c r="J110" s="44"/>
-      <c r="K110" s="53"/>
-      <c r="L110" s="54"/>
-      <c r="M110" s="44"/>
-      <c r="N110" s="44" t="s">
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="39"/>
+      <c r="L110" s="40"/>
+      <c r="M110" s="28"/>
+      <c r="N110" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="O110" s="44" t="s">
+      <c r="O110" s="28" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111" s="44" t="s">
+      <c r="A111" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B111" s="26"/>
+      <c r="B111" s="50"/>
       <c r="C111" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D111" s="51" t="s">
+      <c r="D111" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="E111" s="44" t="s">
+      <c r="E111" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F111" s="44"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="44"/>
-      <c r="I111" s="44"/>
-      <c r="J111" s="44"/>
-      <c r="K111" s="53"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="44"/>
-      <c r="N111" s="44" t="s">
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="39"/>
+      <c r="L111" s="40"/>
+      <c r="M111" s="28"/>
+      <c r="N111" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="O111" s="44" t="s">
+      <c r="O111" s="28" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A112" s="44" t="s">
+      <c r="A112" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="B112" s="26"/>
-      <c r="C112" s="49" t="s">
+      <c r="B112" s="50"/>
+      <c r="C112" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D112" s="51" t="s">
+      <c r="D112" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="E112" s="44" t="s">
+      <c r="E112" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F112" s="44"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="44"/>
-      <c r="I112" s="44"/>
-      <c r="J112" s="44"/>
-      <c r="K112" s="53"/>
-      <c r="L112" s="54"/>
-      <c r="M112" s="44"/>
-      <c r="N112" s="44" t="s">
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="39"/>
+      <c r="L112" s="40"/>
+      <c r="M112" s="28"/>
+      <c r="N112" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="O112" s="44" t="s">
+      <c r="O112" s="28" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A113" s="44" t="s">
+      <c r="A113" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="B113" s="27"/>
+      <c r="B113" s="49"/>
       <c r="C113" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D113" s="51" t="s">
+      <c r="D113" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="E113" s="44" t="s">
+      <c r="E113" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="F113" s="44"/>
-      <c r="G113" s="44"/>
-      <c r="H113" s="44"/>
-      <c r="I113" s="44"/>
-      <c r="J113" s="44"/>
-      <c r="K113" s="53"/>
-      <c r="L113" s="54"/>
-      <c r="M113" s="44"/>
-      <c r="N113" s="44" t="s">
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="39"/>
+      <c r="L113" s="40"/>
+      <c r="M113" s="28"/>
+      <c r="N113" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="O113" s="44" t="s">
+      <c r="O113" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A114" s="44" t="s">
+      <c r="A114" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="B114" s="25" t="s">
+      <c r="B114" s="48" t="s">
         <v>112</v>
       </c>
       <c r="C114" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D114" s="51" t="s">
+      <c r="D114" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E114" s="44" t="s">
+      <c r="E114" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F114" s="44"/>
-      <c r="G114" s="44"/>
-      <c r="H114" s="44"/>
-      <c r="I114" s="44"/>
-      <c r="J114" s="44"/>
-      <c r="K114" s="53"/>
-      <c r="L114" s="54"/>
-      <c r="M114" s="44"/>
-      <c r="N114" s="44" t="s">
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="39"/>
+      <c r="L114" s="40"/>
+      <c r="M114" s="28"/>
+      <c r="N114" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="O114" s="44" t="s">
+      <c r="O114" s="28" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A115" s="44" t="s">
+      <c r="A115" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="B115" s="26"/>
+      <c r="B115" s="50"/>
       <c r="C115" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D115" s="51" t="s">
+      <c r="D115" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E115" s="44" t="s">
+      <c r="E115" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="44"/>
-      <c r="I115" s="44"/>
-      <c r="J115" s="44"/>
-      <c r="K115" s="53"/>
-      <c r="L115" s="54"/>
-      <c r="M115" s="44"/>
-      <c r="N115" s="44" t="s">
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="39"/>
+      <c r="L115" s="40"/>
+      <c r="M115" s="28"/>
+      <c r="N115" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="O115" s="44" t="s">
+      <c r="O115" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A116" s="44" t="s">
+      <c r="A116" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="B116" s="26"/>
+      <c r="B116" s="50"/>
       <c r="C116" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D116" s="51" t="s">
+      <c r="D116" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="E116" s="44" t="s">
+      <c r="E116" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F116" s="44"/>
-      <c r="G116" s="44"/>
-      <c r="H116" s="44"/>
-      <c r="I116" s="44"/>
-      <c r="J116" s="44"/>
-      <c r="K116" s="53"/>
-      <c r="L116" s="54"/>
-      <c r="M116" s="44"/>
-      <c r="N116" s="44" t="s">
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="39"/>
+      <c r="L116" s="40"/>
+      <c r="M116" s="28"/>
+      <c r="N116" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="O116" s="44" t="s">
+      <c r="O116" s="28" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A117" s="44" t="s">
+      <c r="A117" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="B117" s="26"/>
+      <c r="B117" s="50"/>
       <c r="C117" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D117" s="51" t="s">
+      <c r="D117" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E117" s="44" t="s">
+      <c r="E117" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="F117" s="44"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="44"/>
-      <c r="I117" s="44"/>
-      <c r="J117" s="44"/>
-      <c r="K117" s="53"/>
-      <c r="L117" s="54"/>
-      <c r="M117" s="44"/>
-      <c r="N117" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O117" s="44" t="s">
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="39"/>
+      <c r="L117" s="40"/>
+      <c r="M117" s="28"/>
+      <c r="N117" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="O117" s="28" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A118" s="44" t="s">
+      <c r="A118" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="B118" s="27"/>
+      <c r="B118" s="49"/>
       <c r="C118" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D118" s="52" t="s">
+      <c r="D118" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E118" s="44" t="s">
+      <c r="E118" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="F118" s="44"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="44"/>
-      <c r="I118" s="44"/>
-      <c r="J118" s="44"/>
-      <c r="K118" s="53"/>
-      <c r="L118" s="54"/>
-      <c r="M118" s="44"/>
-      <c r="N118" s="44" t="s">
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="39"/>
+      <c r="L118" s="40"/>
+      <c r="M118" s="28"/>
+      <c r="N118" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="O118" s="44" t="s">
+      <c r="O118" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A119" s="44" t="s">
+      <c r="A119" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="B119" s="25" t="s">
+      <c r="B119" s="48" t="s">
         <v>117</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D119" s="51" t="s">
+      <c r="D119" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="E119" s="44" t="s">
+      <c r="E119" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F119" s="44"/>
-      <c r="G119" s="44"/>
-      <c r="H119" s="44"/>
-      <c r="I119" s="44"/>
-      <c r="J119" s="44"/>
-      <c r="K119" s="53"/>
-      <c r="L119" s="54"/>
-      <c r="M119" s="44"/>
-      <c r="N119" s="44" t="s">
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="28"/>
+      <c r="I119" s="28"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="39"/>
+      <c r="L119" s="40"/>
+      <c r="M119" s="28"/>
+      <c r="N119" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="O119" s="44" t="s">
+      <c r="O119" s="28" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A120" s="44" t="s">
+      <c r="A120" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="B120" s="26"/>
+      <c r="B120" s="50"/>
       <c r="C120" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D120" s="51" t="s">
+      <c r="D120" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="E120" s="44" t="s">
+      <c r="E120" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="F120" s="44"/>
-      <c r="G120" s="44"/>
-      <c r="H120" s="44"/>
-      <c r="I120" s="44"/>
-      <c r="J120" s="44"/>
-      <c r="K120" s="53"/>
-      <c r="L120" s="54"/>
-      <c r="M120" s="44"/>
-      <c r="N120" s="44" t="s">
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="39"/>
+      <c r="L120" s="40"/>
+      <c r="M120" s="28"/>
+      <c r="N120" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="O120" s="44" t="s">
+      <c r="O120" s="28" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A121" s="44" t="s">
+      <c r="A121" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="B121" s="27"/>
+      <c r="B121" s="49"/>
       <c r="C121" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D121" s="51" t="s">
+      <c r="D121" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E121" s="44" t="s">
+      <c r="E121" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="44"/>
-      <c r="I121" s="44"/>
-      <c r="J121" s="44"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="54"/>
-      <c r="M121" s="44"/>
-      <c r="N121" s="44" t="s">
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="28"/>
+      <c r="J121" s="28"/>
+      <c r="K121" s="39"/>
+      <c r="L121" s="40"/>
+      <c r="M121" s="28"/>
+      <c r="N121" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="O121" s="44" t="s">
+      <c r="O121" s="28" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A122" s="44" t="s">
+      <c r="A122" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B122" s="25" t="s">
+      <c r="B122" s="48" t="s">
         <v>126</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D122" s="51" t="s">
+      <c r="D122" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="E122" s="44" t="s">
+      <c r="E122" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F122" s="44"/>
-      <c r="G122" s="44"/>
-      <c r="H122" s="44"/>
-      <c r="I122" s="44"/>
-      <c r="J122" s="44"/>
-      <c r="K122" s="53"/>
-      <c r="L122" s="54"/>
-      <c r="M122" s="44"/>
-      <c r="N122" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="O122" s="44" t="s">
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="28"/>
+      <c r="J122" s="28"/>
+      <c r="K122" s="39"/>
+      <c r="L122" s="40"/>
+      <c r="M122" s="28"/>
+      <c r="N122" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="O122" s="28" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A123" s="44" t="s">
+      <c r="A123" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="B123" s="26"/>
-      <c r="C123" s="25" t="s">
+      <c r="B123" s="50"/>
+      <c r="C123" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="D123" s="51" t="s">
+      <c r="D123" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="E123" s="44" t="s">
+      <c r="E123" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="F123" s="44"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="44"/>
-      <c r="I123" s="44"/>
-      <c r="J123" s="44"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="54"/>
-      <c r="M123" s="44"/>
-      <c r="N123" s="44" t="s">
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="28"/>
+      <c r="J123" s="28"/>
+      <c r="K123" s="39"/>
+      <c r="L123" s="40"/>
+      <c r="M123" s="28"/>
+      <c r="N123" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="O123" s="44" t="s">
+      <c r="O123" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A124" s="44" t="s">
+      <c r="A124" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="B124" s="26"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="51" t="s">
+      <c r="B124" s="50"/>
+      <c r="C124" s="49"/>
+      <c r="D124" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="E124" s="44" t="s">
+      <c r="E124" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="44"/>
-      <c r="I124" s="44"/>
-      <c r="J124" s="44"/>
-      <c r="K124" s="57"/>
-      <c r="L124" s="58"/>
-      <c r="M124" s="44"/>
-      <c r="N124" s="44" t="s">
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="28"/>
+      <c r="I124" s="28"/>
+      <c r="J124" s="28"/>
+      <c r="K124" s="41"/>
+      <c r="L124" s="42"/>
+      <c r="M124" s="28"/>
+      <c r="N124" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="O124" s="44" t="s">
+      <c r="O124" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A125" s="44" t="s">
+      <c r="A125" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B125" s="27"/>
+      <c r="B125" s="49"/>
       <c r="C125" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D125" s="51" t="s">
+      <c r="D125" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E125" s="44" t="s">
+      <c r="E125" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="F125" s="44"/>
-      <c r="G125" s="44"/>
-      <c r="H125" s="44"/>
-      <c r="I125" s="44"/>
-      <c r="J125" s="44"/>
-      <c r="K125" s="53"/>
-      <c r="L125" s="54"/>
-      <c r="M125" s="44"/>
-      <c r="N125" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="O125" s="44" t="s">
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="28"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="40"/>
+      <c r="M125" s="28"/>
+      <c r="N125" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="O125" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A126" s="44" t="s">
+      <c r="A126" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B126" s="25" t="s">
+      <c r="B126" s="48" t="s">
         <v>143</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D126" s="51" t="s">
+      <c r="D126" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E126" s="44" t="s">
+      <c r="E126" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="44"/>
-      <c r="I126" s="44"/>
-      <c r="J126" s="44"/>
-      <c r="K126" s="53"/>
-      <c r="L126" s="54"/>
-      <c r="M126" s="44"/>
-      <c r="N126" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="O126" s="44" t="s">
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="28"/>
+      <c r="I126" s="28"/>
+      <c r="J126" s="28"/>
+      <c r="K126" s="39"/>
+      <c r="L126" s="40"/>
+      <c r="M126" s="28"/>
+      <c r="N126" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="O126" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A127" s="44" t="s">
+      <c r="A127" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="B127" s="27"/>
+      <c r="B127" s="49"/>
       <c r="C127" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D127" s="51" t="s">
+      <c r="D127" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E127" s="44" t="s">
+      <c r="E127" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="F127" s="44"/>
-      <c r="G127" s="44"/>
-      <c r="H127" s="44"/>
-      <c r="I127" s="44"/>
-      <c r="J127" s="44"/>
-      <c r="K127" s="53"/>
-      <c r="L127" s="54"/>
-      <c r="M127" s="44"/>
-      <c r="N127" s="44" t="s">
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="28"/>
+      <c r="I127" s="28"/>
+      <c r="J127" s="28"/>
+      <c r="K127" s="39"/>
+      <c r="L127" s="40"/>
+      <c r="M127" s="28"/>
+      <c r="N127" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="O127" s="44" t="s">
+      <c r="O127" s="28" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A128" s="48"/>
-      <c r="B128" s="48"/>
-      <c r="C128" s="48"/>
-      <c r="D128" s="48"/>
-      <c r="E128" s="48"/>
-      <c r="F128" s="48"/>
-      <c r="G128" s="48"/>
-      <c r="H128" s="48"/>
-      <c r="I128" s="48"/>
-      <c r="J128" s="48"/>
-      <c r="K128" s="48"/>
-      <c r="L128" s="48"/>
-      <c r="M128" s="48"/>
-      <c r="N128" s="48"/>
-      <c r="O128" s="48"/>
+      <c r="A128" s="32"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
+      <c r="J128" s="32"/>
+      <c r="K128" s="32"/>
+      <c r="L128" s="32"/>
+      <c r="M128" s="32"/>
+      <c r="N128" s="32"/>
+      <c r="O128" s="32"/>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A129" s="48"/>
-      <c r="B129" s="48"/>
-      <c r="C129" s="48"/>
-      <c r="D129" s="48"/>
-      <c r="E129" s="48"/>
-      <c r="F129" s="48"/>
-      <c r="G129" s="48"/>
-      <c r="H129" s="48"/>
-      <c r="I129" s="48"/>
-      <c r="J129" s="48"/>
-      <c r="K129" s="48"/>
-      <c r="L129" s="48"/>
-      <c r="M129" s="48"/>
-      <c r="N129" s="48"/>
-      <c r="O129" s="48"/>
+      <c r="A129" s="32"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="32"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="32"/>
+      <c r="K129" s="32"/>
+      <c r="L129" s="32"/>
+      <c r="M129" s="32"/>
+      <c r="N129" s="32"/>
+      <c r="O129" s="32"/>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A130" s="48"/>
-      <c r="B130" s="48"/>
-      <c r="C130" s="48"/>
-      <c r="D130" s="48"/>
-      <c r="E130" s="48"/>
-      <c r="F130" s="48"/>
-      <c r="G130" s="48"/>
-      <c r="H130" s="48"/>
-      <c r="I130" s="48"/>
-      <c r="J130" s="48"/>
-      <c r="K130" s="48"/>
-      <c r="L130" s="48"/>
-      <c r="M130" s="48"/>
-      <c r="N130" s="48"/>
-      <c r="O130" s="48"/>
+      <c r="A130" s="32"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="32"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="32"/>
+      <c r="M130" s="32"/>
+      <c r="N130" s="32"/>
+      <c r="O130" s="32"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A131" s="48"/>
-      <c r="B131" s="48"/>
-      <c r="C131" s="48"/>
-      <c r="D131" s="48"/>
-      <c r="E131" s="48"/>
-      <c r="F131" s="48"/>
-      <c r="G131" s="48"/>
-      <c r="H131" s="48"/>
-      <c r="I131" s="48"/>
-      <c r="J131" s="48"/>
-      <c r="K131" s="48"/>
-      <c r="L131" s="48"/>
-      <c r="M131" s="48"/>
-      <c r="N131" s="48"/>
-      <c r="O131" s="48"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="32"/>
+      <c r="J131" s="32"/>
+      <c r="K131" s="32"/>
+      <c r="L131" s="32"/>
+      <c r="M131" s="32"/>
+      <c r="N131" s="32"/>
+      <c r="O131" s="32"/>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A132" s="32" t="s">
+      <c r="A132" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B132" s="32"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="32"/>
-      <c r="E132" s="28" t="s">
+      <c r="B132" s="44"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="44"/>
+      <c r="E132" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="F132" s="28" t="s">
+      <c r="F132" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G132" s="28"/>
-      <c r="H132" s="28"/>
-      <c r="I132" s="28"/>
-      <c r="J132" s="28"/>
-      <c r="K132" s="28" t="s">
+      <c r="G132" s="45"/>
+      <c r="H132" s="45"/>
+      <c r="I132" s="45"/>
+      <c r="J132" s="45"/>
+      <c r="K132" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="L132" s="28"/>
-      <c r="M132" s="39" t="s">
+      <c r="L132" s="45"/>
+      <c r="M132" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="N132" s="39" t="s">
+      <c r="N132" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="O132" s="39" t="s">
+      <c r="O132" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A133" s="32"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="28"/>
-      <c r="L133" s="28"/>
-      <c r="M133" s="39"/>
-      <c r="N133" s="39"/>
-      <c r="O133" s="39"/>
+      <c r="A133" s="44"/>
+      <c r="B133" s="44"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="44"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="45"/>
+      <c r="H133" s="45"/>
+      <c r="I133" s="45"/>
+      <c r="J133" s="45"/>
+      <c r="K133" s="45"/>
+      <c r="L133" s="45"/>
+      <c r="M133" s="43"/>
+      <c r="N133" s="43"/>
+      <c r="O133" s="43"/>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A134" s="32"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="28"/>
+      <c r="A134" s="44"/>
+      <c r="B134" s="44"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="44"/>
+      <c r="E134" s="45"/>
       <c r="F134" s="17" t="s">
         <v>86</v>
       </c>
@@ -4858,621 +5076,1304 @@
       <c r="J134" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K134" s="28"/>
-      <c r="L134" s="28"/>
-      <c r="M134" s="39"/>
-      <c r="N134" s="39"/>
-      <c r="O134" s="39"/>
+      <c r="K134" s="45"/>
+      <c r="L134" s="45"/>
+      <c r="M134" s="43"/>
+      <c r="N134" s="43"/>
+      <c r="O134" s="43"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A135" s="44" t="s">
+      <c r="A135" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B135" s="41"/>
+      <c r="B135" s="25"/>
       <c r="C135" s="20"/>
-      <c r="D135" s="50"/>
-      <c r="E135" s="44"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="44"/>
-      <c r="I135" s="44"/>
-      <c r="J135" s="44"/>
-      <c r="K135" s="53"/>
-      <c r="L135" s="54"/>
-      <c r="M135" s="44"/>
-      <c r="N135" s="44"/>
-      <c r="O135" s="44"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="28"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="39"/>
+      <c r="L135" s="40"/>
+      <c r="M135" s="28"/>
+      <c r="N135" s="28"/>
+      <c r="O135" s="28"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A136" s="44" t="s">
+      <c r="A136" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B136" s="41"/>
+      <c r="B136" s="25"/>
       <c r="C136" s="20"/>
-      <c r="D136" s="51"/>
-      <c r="E136" s="44"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="44"/>
-      <c r="I136" s="44"/>
-      <c r="J136" s="44"/>
-      <c r="K136" s="53"/>
-      <c r="L136" s="54"/>
-      <c r="M136" s="44"/>
-      <c r="N136" s="44"/>
-      <c r="O136" s="44"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="28"/>
+      <c r="H136" s="28"/>
+      <c r="I136" s="28"/>
+      <c r="J136" s="28"/>
+      <c r="K136" s="39"/>
+      <c r="L136" s="40"/>
+      <c r="M136" s="28"/>
+      <c r="N136" s="28"/>
+      <c r="O136" s="28"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A137" s="44" t="s">
+      <c r="A137" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B137" s="41"/>
+      <c r="B137" s="25"/>
       <c r="C137" s="20"/>
-      <c r="D137" s="51"/>
-      <c r="E137" s="44"/>
-      <c r="F137" s="44"/>
-      <c r="G137" s="44"/>
-      <c r="H137" s="44"/>
-      <c r="I137" s="44"/>
-      <c r="J137" s="44"/>
-      <c r="K137" s="53"/>
-      <c r="L137" s="54"/>
-      <c r="M137" s="44"/>
-      <c r="N137" s="44"/>
-      <c r="O137" s="44"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="28"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="28"/>
+      <c r="I137" s="28"/>
+      <c r="J137" s="28"/>
+      <c r="K137" s="39"/>
+      <c r="L137" s="40"/>
+      <c r="M137" s="28"/>
+      <c r="N137" s="28"/>
+      <c r="O137" s="28"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A138" s="44" t="s">
+      <c r="A138" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B138" s="41"/>
+      <c r="B138" s="25"/>
       <c r="C138" s="20"/>
-      <c r="D138" s="51"/>
-      <c r="E138" s="44"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="44"/>
-      <c r="I138" s="44"/>
-      <c r="J138" s="44"/>
-      <c r="K138" s="53"/>
-      <c r="L138" s="54"/>
-      <c r="M138" s="44"/>
-      <c r="N138" s="44"/>
-      <c r="O138" s="44"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="28"/>
+      <c r="J138" s="28"/>
+      <c r="K138" s="39"/>
+      <c r="L138" s="40"/>
+      <c r="M138" s="28"/>
+      <c r="N138" s="28"/>
+      <c r="O138" s="28"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A139" s="44" t="s">
+      <c r="A139" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B139" s="41"/>
+      <c r="B139" s="25"/>
       <c r="C139" s="20"/>
-      <c r="D139" s="51"/>
-      <c r="E139" s="44"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="44"/>
-      <c r="I139" s="44"/>
-      <c r="J139" s="44"/>
-      <c r="K139" s="53"/>
-      <c r="L139" s="54"/>
-      <c r="M139" s="44"/>
-      <c r="N139" s="44"/>
-      <c r="O139" s="44"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
+      <c r="H139" s="28"/>
+      <c r="I139" s="28"/>
+      <c r="J139" s="28"/>
+      <c r="K139" s="39"/>
+      <c r="L139" s="40"/>
+      <c r="M139" s="28"/>
+      <c r="N139" s="28"/>
+      <c r="O139" s="28"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A140" s="44" t="s">
+      <c r="A140" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B140" s="41"/>
+      <c r="B140" s="25"/>
       <c r="C140" s="20"/>
-      <c r="D140" s="51"/>
-      <c r="E140" s="44"/>
-      <c r="F140" s="44"/>
-      <c r="G140" s="44"/>
-      <c r="H140" s="44"/>
-      <c r="I140" s="44"/>
-      <c r="J140" s="44"/>
-      <c r="K140" s="55"/>
-      <c r="L140" s="56"/>
-      <c r="M140" s="44"/>
-      <c r="N140" s="44"/>
-      <c r="O140" s="44"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="28"/>
+      <c r="I140" s="28"/>
+      <c r="J140" s="28"/>
+      <c r="K140" s="46"/>
+      <c r="L140" s="47"/>
+      <c r="M140" s="28"/>
+      <c r="N140" s="28"/>
+      <c r="O140" s="28"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A141" s="44" t="s">
+      <c r="A141" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B141" s="41"/>
+      <c r="B141" s="25"/>
       <c r="C141" s="20"/>
-      <c r="D141" s="51"/>
-      <c r="E141" s="44"/>
-      <c r="F141" s="44"/>
-      <c r="G141" s="44"/>
-      <c r="H141" s="44"/>
-      <c r="I141" s="44"/>
-      <c r="J141" s="44"/>
-      <c r="K141" s="53"/>
-      <c r="L141" s="54"/>
-      <c r="M141" s="44"/>
-      <c r="N141" s="44"/>
-      <c r="O141" s="44"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="28"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
+      <c r="H141" s="28"/>
+      <c r="I141" s="28"/>
+      <c r="J141" s="28"/>
+      <c r="K141" s="39"/>
+      <c r="L141" s="40"/>
+      <c r="M141" s="28"/>
+      <c r="N141" s="28"/>
+      <c r="O141" s="28"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A142" s="44" t="s">
+      <c r="A142" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B142" s="41"/>
+      <c r="B142" s="25"/>
       <c r="C142" s="20"/>
-      <c r="D142" s="51"/>
-      <c r="E142" s="44"/>
-      <c r="F142" s="44"/>
-      <c r="G142" s="44"/>
-      <c r="H142" s="44"/>
-      <c r="I142" s="44"/>
-      <c r="J142" s="44"/>
-      <c r="K142" s="53"/>
-      <c r="L142" s="54"/>
-      <c r="M142" s="44"/>
-      <c r="N142" s="44"/>
-      <c r="O142" s="44"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="28"/>
+      <c r="I142" s="28"/>
+      <c r="J142" s="28"/>
+      <c r="K142" s="39"/>
+      <c r="L142" s="40"/>
+      <c r="M142" s="28"/>
+      <c r="N142" s="28"/>
+      <c r="O142" s="28"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A143" s="44" t="s">
+      <c r="A143" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="B143" s="41"/>
+      <c r="B143" s="25"/>
       <c r="C143" s="20"/>
-      <c r="D143" s="51"/>
-      <c r="E143" s="44"/>
-      <c r="F143" s="44"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="44"/>
-      <c r="I143" s="44"/>
-      <c r="J143" s="44"/>
-      <c r="K143" s="53"/>
-      <c r="L143" s="54"/>
-      <c r="M143" s="44"/>
-      <c r="N143" s="44"/>
-      <c r="O143" s="44"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="28"/>
+      <c r="H143" s="28"/>
+      <c r="I143" s="28"/>
+      <c r="J143" s="28"/>
+      <c r="K143" s="39"/>
+      <c r="L143" s="40"/>
+      <c r="M143" s="28"/>
+      <c r="N143" s="28"/>
+      <c r="O143" s="28"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A144" s="44" t="s">
+      <c r="A144" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B144" s="41"/>
+      <c r="B144" s="25"/>
       <c r="C144" s="20"/>
-      <c r="D144" s="51"/>
-      <c r="E144" s="44"/>
-      <c r="F144" s="44"/>
-      <c r="G144" s="44"/>
-      <c r="H144" s="44"/>
-      <c r="I144" s="44"/>
-      <c r="J144" s="44"/>
-      <c r="K144" s="53"/>
-      <c r="L144" s="54"/>
-      <c r="M144" s="44"/>
-      <c r="N144" s="44"/>
-      <c r="O144" s="44"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="28"/>
+      <c r="H144" s="28"/>
+      <c r="I144" s="28"/>
+      <c r="J144" s="28"/>
+      <c r="K144" s="39"/>
+      <c r="L144" s="40"/>
+      <c r="M144" s="28"/>
+      <c r="N144" s="28"/>
+      <c r="O144" s="28"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A145" s="44" t="s">
+      <c r="A145" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B145" s="41"/>
-      <c r="C145" s="49"/>
-      <c r="D145" s="51"/>
-      <c r="E145" s="44"/>
-      <c r="F145" s="44"/>
-      <c r="G145" s="44"/>
-      <c r="H145" s="44"/>
-      <c r="I145" s="44"/>
-      <c r="J145" s="44"/>
-      <c r="K145" s="53"/>
-      <c r="L145" s="54"/>
-      <c r="M145" s="44"/>
-      <c r="N145" s="44"/>
-      <c r="O145" s="44"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="28"/>
+      <c r="H145" s="28"/>
+      <c r="I145" s="28"/>
+      <c r="J145" s="28"/>
+      <c r="K145" s="39"/>
+      <c r="L145" s="40"/>
+      <c r="M145" s="28"/>
+      <c r="N145" s="28"/>
+      <c r="O145" s="28"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A146" s="44" t="s">
+      <c r="A146" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B146" s="41"/>
+      <c r="B146" s="25"/>
       <c r="C146" s="20"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="44"/>
-      <c r="F146" s="44"/>
-      <c r="G146" s="44"/>
-      <c r="H146" s="44"/>
-      <c r="I146" s="44"/>
-      <c r="J146" s="44"/>
-      <c r="K146" s="53"/>
-      <c r="L146" s="54"/>
-      <c r="M146" s="44"/>
-      <c r="N146" s="44"/>
-      <c r="O146" s="44"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="28"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="28"/>
+      <c r="H146" s="28"/>
+      <c r="I146" s="28"/>
+      <c r="J146" s="28"/>
+      <c r="K146" s="39"/>
+      <c r="L146" s="40"/>
+      <c r="M146" s="28"/>
+      <c r="N146" s="28"/>
+      <c r="O146" s="28"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A147" s="44" t="s">
+      <c r="A147" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B147" s="59"/>
+      <c r="B147" s="37"/>
       <c r="C147" s="20"/>
-      <c r="D147" s="51"/>
-      <c r="E147" s="44"/>
-      <c r="F147" s="44"/>
-      <c r="G147" s="44"/>
-      <c r="H147" s="44"/>
-      <c r="I147" s="44"/>
-      <c r="J147" s="44"/>
-      <c r="K147" s="53"/>
-      <c r="L147" s="54"/>
-      <c r="M147" s="44"/>
-      <c r="N147" s="44"/>
-      <c r="O147" s="44"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="28"/>
+      <c r="H147" s="28"/>
+      <c r="I147" s="28"/>
+      <c r="J147" s="28"/>
+      <c r="K147" s="39"/>
+      <c r="L147" s="40"/>
+      <c r="M147" s="28"/>
+      <c r="N147" s="28"/>
+      <c r="O147" s="28"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A148" s="44" t="s">
+      <c r="A148" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B148" s="59"/>
+      <c r="B148" s="37"/>
       <c r="C148" s="20"/>
-      <c r="D148" s="51"/>
-      <c r="E148" s="44"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="44"/>
-      <c r="I148" s="44"/>
-      <c r="J148" s="44"/>
-      <c r="K148" s="53"/>
-      <c r="L148" s="54"/>
-      <c r="M148" s="44"/>
-      <c r="N148" s="44"/>
-      <c r="O148" s="44"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="28"/>
+      <c r="H148" s="28"/>
+      <c r="I148" s="28"/>
+      <c r="J148" s="28"/>
+      <c r="K148" s="39"/>
+      <c r="L148" s="40"/>
+      <c r="M148" s="28"/>
+      <c r="N148" s="28"/>
+      <c r="O148" s="28"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A149" s="44" t="s">
+      <c r="A149" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B149" s="59"/>
+      <c r="B149" s="37"/>
       <c r="C149" s="20"/>
-      <c r="D149" s="51"/>
-      <c r="E149" s="44"/>
-      <c r="F149" s="44"/>
-      <c r="G149" s="44"/>
-      <c r="H149" s="44"/>
-      <c r="I149" s="44"/>
-      <c r="J149" s="44"/>
-      <c r="K149" s="53"/>
-      <c r="L149" s="54"/>
-      <c r="M149" s="44"/>
-      <c r="N149" s="44"/>
-      <c r="O149" s="44"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="28"/>
+      <c r="H149" s="28"/>
+      <c r="I149" s="28"/>
+      <c r="J149" s="28"/>
+      <c r="K149" s="39"/>
+      <c r="L149" s="40"/>
+      <c r="M149" s="28"/>
+      <c r="N149" s="28"/>
+      <c r="O149" s="28"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A150" s="44" t="s">
+      <c r="A150" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B150" s="59"/>
+      <c r="B150" s="37"/>
       <c r="C150" s="20"/>
-      <c r="D150" s="51"/>
-      <c r="E150" s="44"/>
-      <c r="F150" s="44"/>
-      <c r="G150" s="44"/>
-      <c r="H150" s="44"/>
-      <c r="I150" s="44"/>
-      <c r="J150" s="44"/>
-      <c r="K150" s="53"/>
-      <c r="L150" s="54"/>
-      <c r="M150" s="44"/>
-      <c r="N150" s="44"/>
-      <c r="O150" s="44"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="28"/>
+      <c r="K150" s="39"/>
+      <c r="L150" s="40"/>
+      <c r="M150" s="28"/>
+      <c r="N150" s="28"/>
+      <c r="O150" s="28"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A151" s="44" t="s">
+      <c r="A151" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B151" s="59"/>
+      <c r="B151" s="37"/>
       <c r="C151" s="20"/>
-      <c r="D151" s="52"/>
-      <c r="E151" s="44"/>
-      <c r="F151" s="44"/>
-      <c r="G151" s="44"/>
-      <c r="H151" s="44"/>
-      <c r="I151" s="44"/>
-      <c r="J151" s="44"/>
-      <c r="K151" s="53"/>
-      <c r="L151" s="54"/>
-      <c r="M151" s="44"/>
-      <c r="N151" s="44"/>
-      <c r="O151" s="44"/>
+      <c r="D151" s="36"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="28"/>
+      <c r="H151" s="28"/>
+      <c r="I151" s="28"/>
+      <c r="J151" s="28"/>
+      <c r="K151" s="39"/>
+      <c r="L151" s="40"/>
+      <c r="M151" s="28"/>
+      <c r="N151" s="28"/>
+      <c r="O151" s="28"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A152" s="44" t="s">
+      <c r="A152" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B152" s="41"/>
+      <c r="B152" s="25"/>
       <c r="C152" s="20"/>
-      <c r="D152" s="51"/>
-      <c r="E152" s="44"/>
-      <c r="F152" s="44"/>
-      <c r="G152" s="44"/>
-      <c r="H152" s="44"/>
-      <c r="I152" s="44"/>
-      <c r="J152" s="44"/>
-      <c r="K152" s="53"/>
-      <c r="L152" s="54"/>
-      <c r="M152" s="44"/>
-      <c r="N152" s="44"/>
-      <c r="O152" s="44"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="28"/>
+      <c r="H152" s="28"/>
+      <c r="I152" s="28"/>
+      <c r="J152" s="28"/>
+      <c r="K152" s="39"/>
+      <c r="L152" s="40"/>
+      <c r="M152" s="28"/>
+      <c r="N152" s="28"/>
+      <c r="O152" s="28"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A153" s="44" t="s">
+      <c r="A153" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="B153" s="41"/>
+      <c r="B153" s="25"/>
       <c r="C153" s="20"/>
-      <c r="D153" s="51"/>
-      <c r="E153" s="44"/>
-      <c r="F153" s="44"/>
-      <c r="G153" s="44"/>
-      <c r="H153" s="44"/>
-      <c r="I153" s="44"/>
-      <c r="J153" s="44"/>
-      <c r="K153" s="53"/>
-      <c r="L153" s="54"/>
-      <c r="M153" s="44"/>
-      <c r="N153" s="44"/>
-      <c r="O153" s="44"/>
+      <c r="D153" s="35"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
+      <c r="H153" s="28"/>
+      <c r="I153" s="28"/>
+      <c r="J153" s="28"/>
+      <c r="K153" s="39"/>
+      <c r="L153" s="40"/>
+      <c r="M153" s="28"/>
+      <c r="N153" s="28"/>
+      <c r="O153" s="28"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A154" s="44" t="s">
+      <c r="A154" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="B154" s="41"/>
+      <c r="B154" s="25"/>
       <c r="C154" s="20"/>
-      <c r="D154" s="51"/>
-      <c r="E154" s="44"/>
-      <c r="F154" s="44"/>
-      <c r="G154" s="44"/>
-      <c r="H154" s="44"/>
-      <c r="I154" s="44"/>
-      <c r="J154" s="44"/>
-      <c r="K154" s="53"/>
-      <c r="L154" s="54"/>
-      <c r="M154" s="44"/>
-      <c r="N154" s="44"/>
-      <c r="O154" s="44"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="28"/>
+      <c r="H154" s="28"/>
+      <c r="I154" s="28"/>
+      <c r="J154" s="28"/>
+      <c r="K154" s="39"/>
+      <c r="L154" s="40"/>
+      <c r="M154" s="28"/>
+      <c r="N154" s="28"/>
+      <c r="O154" s="28"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A155" s="44" t="s">
+      <c r="A155" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="B155" s="41"/>
+      <c r="B155" s="25"/>
       <c r="C155" s="20"/>
-      <c r="D155" s="51"/>
-      <c r="E155" s="44"/>
-      <c r="F155" s="44"/>
-      <c r="G155" s="44"/>
-      <c r="H155" s="44"/>
-      <c r="I155" s="44"/>
-      <c r="J155" s="44"/>
-      <c r="K155" s="53"/>
-      <c r="L155" s="54"/>
-      <c r="M155" s="44"/>
-      <c r="N155" s="44"/>
-      <c r="O155" s="44"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="28"/>
+      <c r="H155" s="28"/>
+      <c r="I155" s="28"/>
+      <c r="J155" s="28"/>
+      <c r="K155" s="39"/>
+      <c r="L155" s="40"/>
+      <c r="M155" s="28"/>
+      <c r="N155" s="28"/>
+      <c r="O155" s="28"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A156" s="44" t="s">
+      <c r="A156" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B156" s="41"/>
-      <c r="C156" s="83"/>
-      <c r="D156" s="51"/>
-      <c r="E156" s="44"/>
-      <c r="F156" s="44"/>
-      <c r="G156" s="44"/>
-      <c r="H156" s="44"/>
-      <c r="I156" s="44"/>
-      <c r="J156" s="44"/>
-      <c r="K156" s="53"/>
-      <c r="L156" s="54"/>
-      <c r="M156" s="44"/>
-      <c r="N156" s="44"/>
-      <c r="O156" s="44"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="38"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="28"/>
+      <c r="H156" s="28"/>
+      <c r="I156" s="28"/>
+      <c r="J156" s="28"/>
+      <c r="K156" s="39"/>
+      <c r="L156" s="40"/>
+      <c r="M156" s="28"/>
+      <c r="N156" s="28"/>
+      <c r="O156" s="28"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A157" s="44" t="s">
+      <c r="A157" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B157" s="41"/>
-      <c r="C157" s="40"/>
-      <c r="D157" s="51"/>
-      <c r="E157" s="44"/>
-      <c r="F157" s="44"/>
-      <c r="G157" s="44"/>
-      <c r="H157" s="44"/>
-      <c r="I157" s="44"/>
-      <c r="J157" s="44"/>
-      <c r="K157" s="57"/>
-      <c r="L157" s="58"/>
-      <c r="M157" s="44"/>
-      <c r="N157" s="44"/>
-      <c r="O157" s="44"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="35"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="28"/>
+      <c r="H157" s="28"/>
+      <c r="I157" s="28"/>
+      <c r="J157" s="28"/>
+      <c r="K157" s="41"/>
+      <c r="L157" s="42"/>
+      <c r="M157" s="28"/>
+      <c r="N157" s="28"/>
+      <c r="O157" s="28"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A158" s="44" t="s">
+      <c r="A158" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="B158" s="41"/>
+      <c r="B158" s="25"/>
       <c r="C158" s="20"/>
-      <c r="D158" s="51"/>
-      <c r="E158" s="44"/>
-      <c r="F158" s="44"/>
-      <c r="G158" s="44"/>
-      <c r="H158" s="44"/>
-      <c r="I158" s="44"/>
-      <c r="J158" s="44"/>
-      <c r="K158" s="53"/>
-      <c r="L158" s="54"/>
-      <c r="M158" s="44"/>
-      <c r="N158" s="44"/>
-      <c r="O158" s="44"/>
+      <c r="D158" s="35"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="28"/>
+      <c r="H158" s="28"/>
+      <c r="I158" s="28"/>
+      <c r="J158" s="28"/>
+      <c r="K158" s="39"/>
+      <c r="L158" s="40"/>
+      <c r="M158" s="28"/>
+      <c r="N158" s="28"/>
+      <c r="O158" s="28"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A159" s="44" t="s">
+      <c r="A159" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B159" s="41"/>
+      <c r="B159" s="25"/>
       <c r="C159" s="20"/>
-      <c r="D159" s="51"/>
-      <c r="E159" s="44"/>
-      <c r="F159" s="44"/>
-      <c r="G159" s="44"/>
-      <c r="H159" s="44"/>
-      <c r="I159" s="44"/>
-      <c r="J159" s="44"/>
-      <c r="K159" s="53"/>
-      <c r="L159" s="54"/>
-      <c r="M159" s="44"/>
-      <c r="N159" s="44"/>
-      <c r="O159" s="44"/>
+      <c r="D159" s="35"/>
+      <c r="E159" s="28"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="28"/>
+      <c r="H159" s="28"/>
+      <c r="I159" s="28"/>
+      <c r="J159" s="28"/>
+      <c r="K159" s="39"/>
+      <c r="L159" s="40"/>
+      <c r="M159" s="28"/>
+      <c r="N159" s="28"/>
+      <c r="O159" s="28"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A160" s="44" t="s">
+      <c r="A160" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="B160" s="41"/>
+      <c r="B160" s="25"/>
       <c r="C160" s="20"/>
-      <c r="D160" s="51"/>
-      <c r="E160" s="44"/>
-      <c r="F160" s="44"/>
-      <c r="G160" s="44"/>
-      <c r="H160" s="44"/>
-      <c r="I160" s="44"/>
-      <c r="J160" s="44"/>
-      <c r="K160" s="53"/>
-      <c r="L160" s="54"/>
-      <c r="M160" s="44"/>
-      <c r="N160" s="44"/>
-      <c r="O160" s="44"/>
+      <c r="D160" s="35"/>
+      <c r="E160" s="28"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="28"/>
+      <c r="H160" s="28"/>
+      <c r="I160" s="28"/>
+      <c r="J160" s="28"/>
+      <c r="K160" s="39"/>
+      <c r="L160" s="40"/>
+      <c r="M160" s="28"/>
+      <c r="N160" s="28"/>
+      <c r="O160" s="28"/>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A165" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="B165" s="44"/>
+      <c r="C165" s="44"/>
+      <c r="D165" s="44"/>
+      <c r="E165" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F165" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="G165" s="45"/>
+      <c r="H165" s="45"/>
+      <c r="I165" s="45"/>
+      <c r="J165" s="45"/>
+      <c r="K165" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="L165" s="45"/>
+      <c r="M165" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="N165" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="O165" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="P165" s="86" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A166" s="44"/>
+      <c r="B166" s="44"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="44"/>
+      <c r="E166" s="45"/>
+      <c r="F166" s="45"/>
+      <c r="G166" s="45"/>
+      <c r="H166" s="45"/>
+      <c r="I166" s="45"/>
+      <c r="J166" s="45"/>
+      <c r="K166" s="45"/>
+      <c r="L166" s="45"/>
+      <c r="M166" s="43"/>
+      <c r="N166" s="43"/>
+      <c r="O166" s="43"/>
+      <c r="P166" s="86"/>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A167" s="44"/>
+      <c r="B167" s="44"/>
+      <c r="C167" s="44"/>
+      <c r="D167" s="44"/>
+      <c r="E167" s="45"/>
+      <c r="F167" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G167" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H167" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I167" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="J167" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="K167" s="45"/>
+      <c r="L167" s="45"/>
+      <c r="M167" s="43"/>
+      <c r="N167" s="43"/>
+      <c r="O167" s="43"/>
+      <c r="P167" s="86"/>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A168" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B168" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D168" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="E168" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F168" s="28">
+        <v>17</v>
+      </c>
+      <c r="G168" s="28">
+        <v>11</v>
+      </c>
+      <c r="H168" s="28">
+        <v>6</v>
+      </c>
+      <c r="I168" s="28"/>
+      <c r="J168" s="28"/>
+      <c r="K168" s="88">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="L168" s="40"/>
+      <c r="M168" s="28"/>
+      <c r="N168" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="O168" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="P168" s="11"/>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A169" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B169" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="D169" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="E169" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F169" s="28"/>
+      <c r="G169" s="28"/>
+      <c r="H169" s="28"/>
+      <c r="I169" s="28"/>
+      <c r="J169" s="28"/>
+      <c r="K169" s="39"/>
+      <c r="L169" s="40"/>
+      <c r="M169" s="28"/>
+      <c r="N169" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="O169" s="28"/>
+      <c r="P169" s="11"/>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A170" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B170" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D170" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="E170" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F170" s="28"/>
+      <c r="G170" s="28"/>
+      <c r="H170" s="28"/>
+      <c r="I170" s="28"/>
+      <c r="J170" s="28"/>
+      <c r="K170" s="39"/>
+      <c r="L170" s="40"/>
+      <c r="M170" s="28"/>
+      <c r="N170" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="O170" s="28"/>
+      <c r="P170" s="11"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A171" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D171" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="E171" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="F171" s="28"/>
+      <c r="G171" s="28"/>
+      <c r="H171" s="28"/>
+      <c r="I171" s="28"/>
+      <c r="J171" s="28"/>
+      <c r="K171" s="39"/>
+      <c r="L171" s="40"/>
+      <c r="M171" s="28"/>
+      <c r="N171" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="O171" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="P171" s="11"/>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A172" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D172" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="E172" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F172" s="28"/>
+      <c r="G172" s="28"/>
+      <c r="H172" s="28"/>
+      <c r="I172" s="28"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="39"/>
+      <c r="L172" s="40"/>
+      <c r="M172" s="28"/>
+      <c r="N172" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="O172" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="P172" s="11"/>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A173" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D173" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="E173" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F173" s="28"/>
+      <c r="G173" s="28"/>
+      <c r="H173" s="28"/>
+      <c r="I173" s="28"/>
+      <c r="J173" s="28"/>
+      <c r="K173" s="46"/>
+      <c r="L173" s="47"/>
+      <c r="M173" s="28"/>
+      <c r="N173" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="O173" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="P173" s="11"/>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A174" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D174" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="E174" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F174" s="28">
+        <v>14</v>
+      </c>
+      <c r="G174" s="28">
+        <v>0</v>
+      </c>
+      <c r="H174" s="28">
+        <v>14</v>
+      </c>
+      <c r="I174" s="28">
+        <v>0</v>
+      </c>
+      <c r="J174" s="28">
+        <v>0</v>
+      </c>
+      <c r="K174" s="46">
+        <v>1</v>
+      </c>
+      <c r="L174" s="40"/>
+      <c r="M174" s="28"/>
+      <c r="N174" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="O174" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="P174" s="11"/>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A175" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D175" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="E175" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F175" s="28">
+        <v>13</v>
+      </c>
+      <c r="G175" s="28">
+        <v>0</v>
+      </c>
+      <c r="H175" s="28">
+        <v>13</v>
+      </c>
+      <c r="I175" s="28">
+        <v>0</v>
+      </c>
+      <c r="J175" s="28">
+        <v>0</v>
+      </c>
+      <c r="K175" s="46">
+        <v>1</v>
+      </c>
+      <c r="L175" s="40"/>
+      <c r="M175" s="28"/>
+      <c r="N175" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="O175" s="28"/>
+      <c r="P175" s="11"/>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A176" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D176" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E176" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F176" s="28">
+        <v>17</v>
+      </c>
+      <c r="G176" s="28">
+        <v>0</v>
+      </c>
+      <c r="H176" s="28">
+        <v>17</v>
+      </c>
+      <c r="I176" s="28">
+        <v>0</v>
+      </c>
+      <c r="J176" s="28">
+        <v>0</v>
+      </c>
+      <c r="K176" s="46">
+        <v>1</v>
+      </c>
+      <c r="L176" s="40"/>
+      <c r="M176" s="28"/>
+      <c r="N176" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="O176" s="28"/>
+      <c r="P176" s="11"/>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A177" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B177" s="21"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="35"/>
+      <c r="E177" s="28"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="28"/>
+      <c r="H177" s="28"/>
+      <c r="I177" s="28"/>
+      <c r="J177" s="28"/>
+      <c r="K177" s="39"/>
+      <c r="L177" s="40"/>
+      <c r="M177" s="28"/>
+      <c r="N177" s="28"/>
+      <c r="O177" s="28"/>
+      <c r="P177" s="11"/>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A178" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B178" s="21"/>
+      <c r="C178" s="33"/>
+      <c r="D178" s="35"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="28"/>
+      <c r="H178" s="28"/>
+      <c r="I178" s="28"/>
+      <c r="J178" s="28"/>
+      <c r="K178" s="39"/>
+      <c r="L178" s="40"/>
+      <c r="M178" s="28"/>
+      <c r="N178" s="28"/>
+      <c r="O178" s="28"/>
+      <c r="P178" s="11"/>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A179" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="B179" s="21"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="35"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="28"/>
+      <c r="H179" s="28"/>
+      <c r="I179" s="28"/>
+      <c r="J179" s="28"/>
+      <c r="K179" s="39"/>
+      <c r="L179" s="40"/>
+      <c r="M179" s="28"/>
+      <c r="N179" s="28"/>
+      <c r="O179" s="28"/>
+      <c r="P179" s="11"/>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A180" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B180" s="23"/>
+      <c r="C180" s="21"/>
+      <c r="D180" s="35"/>
+      <c r="E180" s="28"/>
+      <c r="F180" s="28"/>
+      <c r="G180" s="28"/>
+      <c r="H180" s="28"/>
+      <c r="I180" s="28"/>
+      <c r="J180" s="28"/>
+      <c r="K180" s="39"/>
+      <c r="L180" s="40"/>
+      <c r="M180" s="28"/>
+      <c r="N180" s="28"/>
+      <c r="O180" s="28"/>
+      <c r="P180" s="11"/>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A181" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B181" s="23"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="35"/>
+      <c r="E181" s="28"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="28"/>
+      <c r="H181" s="28"/>
+      <c r="I181" s="28"/>
+      <c r="J181" s="28"/>
+      <c r="K181" s="39"/>
+      <c r="L181" s="40"/>
+      <c r="M181" s="28"/>
+      <c r="N181" s="28"/>
+      <c r="O181" s="28"/>
+      <c r="P181" s="11"/>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A182" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B182" s="23"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="35"/>
+      <c r="E182" s="28"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="28"/>
+      <c r="H182" s="28"/>
+      <c r="I182" s="28"/>
+      <c r="J182" s="28"/>
+      <c r="K182" s="39"/>
+      <c r="L182" s="40"/>
+      <c r="M182" s="28"/>
+      <c r="N182" s="28"/>
+      <c r="O182" s="28"/>
+      <c r="P182" s="11"/>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A183" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B183" s="23"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="35"/>
+      <c r="E183" s="28"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="28"/>
+      <c r="H183" s="28"/>
+      <c r="I183" s="28"/>
+      <c r="J183" s="28"/>
+      <c r="K183" s="39"/>
+      <c r="L183" s="40"/>
+      <c r="M183" s="28"/>
+      <c r="N183" s="28"/>
+      <c r="O183" s="28"/>
+      <c r="P183" s="11"/>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A184" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="B184" s="23"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="36"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="28"/>
+      <c r="H184" s="28"/>
+      <c r="I184" s="28"/>
+      <c r="J184" s="28"/>
+      <c r="K184" s="39"/>
+      <c r="L184" s="40"/>
+      <c r="M184" s="28"/>
+      <c r="N184" s="28"/>
+      <c r="O184" s="28"/>
+      <c r="P184" s="11"/>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A185" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B185" s="21"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="35"/>
+      <c r="E185" s="28"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="28"/>
+      <c r="H185" s="28"/>
+      <c r="I185" s="28"/>
+      <c r="J185" s="28"/>
+      <c r="K185" s="39"/>
+      <c r="L185" s="40"/>
+      <c r="M185" s="28"/>
+      <c r="N185" s="28"/>
+      <c r="O185" s="28"/>
+      <c r="P185" s="11"/>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A186" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B186" s="21"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="35"/>
+      <c r="E186" s="28"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="28"/>
+      <c r="H186" s="28"/>
+      <c r="I186" s="28"/>
+      <c r="J186" s="28"/>
+      <c r="K186" s="39"/>
+      <c r="L186" s="40"/>
+      <c r="M186" s="28"/>
+      <c r="N186" s="28"/>
+      <c r="O186" s="28"/>
+      <c r="P186" s="11"/>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A187" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B187" s="21"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="35"/>
+      <c r="E187" s="28"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="28"/>
+      <c r="H187" s="28"/>
+      <c r="I187" s="28"/>
+      <c r="J187" s="28"/>
+      <c r="K187" s="39"/>
+      <c r="L187" s="40"/>
+      <c r="M187" s="28"/>
+      <c r="N187" s="28"/>
+      <c r="O187" s="28"/>
+      <c r="P187" s="11"/>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A188" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B188" s="21"/>
+      <c r="C188" s="21"/>
+      <c r="D188" s="35"/>
+      <c r="E188" s="28"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="28"/>
+      <c r="H188" s="28"/>
+      <c r="I188" s="28"/>
+      <c r="J188" s="28"/>
+      <c r="K188" s="39"/>
+      <c r="L188" s="40"/>
+      <c r="M188" s="28"/>
+      <c r="N188" s="28"/>
+      <c r="O188" s="28"/>
+      <c r="P188" s="11"/>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A189" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B189" s="21"/>
+      <c r="C189" s="87"/>
+      <c r="D189" s="35"/>
+      <c r="E189" s="28"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="28"/>
+      <c r="H189" s="28"/>
+      <c r="I189" s="28"/>
+      <c r="J189" s="28"/>
+      <c r="K189" s="39"/>
+      <c r="L189" s="40"/>
+      <c r="M189" s="28"/>
+      <c r="N189" s="28"/>
+      <c r="O189" s="28"/>
+      <c r="P189" s="11"/>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A190" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B190" s="21"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="35"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="28"/>
+      <c r="H190" s="28"/>
+      <c r="I190" s="28"/>
+      <c r="J190" s="28"/>
+      <c r="K190" s="41"/>
+      <c r="L190" s="42"/>
+      <c r="M190" s="28"/>
+      <c r="N190" s="28"/>
+      <c r="O190" s="28"/>
+      <c r="P190" s="11"/>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A191" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="B191" s="21"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="35"/>
+      <c r="E191" s="28"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="28"/>
+      <c r="H191" s="28"/>
+      <c r="I191" s="28"/>
+      <c r="J191" s="28"/>
+      <c r="K191" s="39"/>
+      <c r="L191" s="40"/>
+      <c r="M191" s="28"/>
+      <c r="N191" s="28"/>
+      <c r="O191" s="28"/>
+      <c r="P191" s="11"/>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A192" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B192" s="21"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="35"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="28"/>
+      <c r="G192" s="28"/>
+      <c r="H192" s="28"/>
+      <c r="I192" s="28"/>
+      <c r="J192" s="28"/>
+      <c r="K192" s="39"/>
+      <c r="L192" s="40"/>
+      <c r="M192" s="28"/>
+      <c r="N192" s="28"/>
+      <c r="O192" s="28"/>
+      <c r="P192" s="11"/>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A193" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B193" s="21"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="35"/>
+      <c r="E193" s="28"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="28"/>
+      <c r="H193" s="28"/>
+      <c r="I193" s="28"/>
+      <c r="J193" s="28"/>
+      <c r="K193" s="39"/>
+      <c r="L193" s="40"/>
+      <c r="M193" s="28"/>
+      <c r="N193" s="28"/>
+      <c r="O193" s="28"/>
+      <c r="P193" s="11"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="153">
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M132:M134"/>
-    <mergeCell ref="N132:N134"/>
-    <mergeCell ref="O132:O134"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="A132:D134"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:J133"/>
-    <mergeCell ref="K132:L134"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="K153:L153"/>
-    <mergeCell ref="K154:L154"/>
-    <mergeCell ref="K155:L155"/>
-    <mergeCell ref="K156:L156"/>
-    <mergeCell ref="K157:L157"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="K149:L149"/>
-    <mergeCell ref="K150:L150"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="K152:L152"/>
-    <mergeCell ref="K142:L142"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="K144:L144"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="K146:L146"/>
-    <mergeCell ref="K147:L147"/>
-    <mergeCell ref="K135:L135"/>
-    <mergeCell ref="K136:L136"/>
-    <mergeCell ref="K137:L137"/>
-    <mergeCell ref="K138:L138"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="K140:L140"/>
-    <mergeCell ref="K141:L141"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="K119:L119"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="O99:O101"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="F99:J100"/>
-    <mergeCell ref="K99:L101"/>
-    <mergeCell ref="M99:M101"/>
-    <mergeCell ref="N99:N101"/>
-    <mergeCell ref="A99:D101"/>
+  <mergeCells count="187">
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="K191:L191"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="P165:P167"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="K181:L181"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="K171:L171"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="A165:D167"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="F165:J166"/>
+    <mergeCell ref="K165:L167"/>
+    <mergeCell ref="M165:M167"/>
+    <mergeCell ref="N165:N167"/>
+    <mergeCell ref="O165:O167"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="N52:N54"/>
     <mergeCell ref="O52:O54"/>
     <mergeCell ref="A52:D54"/>
@@ -5497,23 +6398,118 @@
     <mergeCell ref="A15:A35"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="O99:O101"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="F99:J100"/>
+    <mergeCell ref="K99:L101"/>
+    <mergeCell ref="M99:M101"/>
+    <mergeCell ref="N99:N101"/>
+    <mergeCell ref="A99:D101"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A132:D134"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:J133"/>
+    <mergeCell ref="K132:L134"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="K149:L149"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="K142:L142"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="K144:L144"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="K146:L146"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="K136:L136"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M132:M134"/>
+    <mergeCell ref="N132:N134"/>
+    <mergeCell ref="O132:O134"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K84:L84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
+++ b/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seonj\CWNU19SE_2B\3rd_homework\테스트 결과 보고서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigae/CWNU19SE_2B/3rd_homework/테스트 결과 보고서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D590BE69-274D-4854-AFE8-70B529B9C2B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B332C43D-1731-5348-9997-659E5A9D9326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="50380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="339">
   <si>
     <t>RQ-001</t>
   </si>
@@ -1019,10 +1019,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>텍스트 오타 검색 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>텍스트 자음 검색 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1056,10 +1052,6 @@
   </si>
   <si>
     <t>경로 안내 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트 입력 중 오타가 생겼을 경우, 검색 결과 페이지에서 그에 맞는 결과값을 정상적으로 로드하는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1264,9 +1256,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1737,11 +1729,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1839,157 +1831,187 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -2307,74 +2329,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="140" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="107.09765625" customWidth="1"/>
-    <col min="5" max="5" width="23.09765625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="107.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="8.8984375" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="46" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="51" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+    <row r="2" spans="1:15">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="16" t="s">
         <v>85</v>
       </c>
@@ -2390,17 +2412,17 @@
       <c r="J3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="91" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -2421,9 +2443,9 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="82"/>
-      <c r="B5" s="41"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="85" t="s">
         <v>34</v>
       </c>
@@ -2442,10 +2464,10 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="A6" s="82"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="13" t="s">
         <v>1</v>
       </c>
@@ -2461,9 +2483,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="A7" s="82"/>
-      <c r="B7" s="41"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="19" t="s">
         <v>35</v>
       </c>
@@ -2482,10 +2504,10 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="A8" s="82"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="48" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="87" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -2503,10 +2525,10 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="A9" s="83"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="49"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="13" t="s">
         <v>37</v>
       </c>
@@ -2522,14 +2544,14 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="A10" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="87" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2547,10 +2569,10 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="A11" s="82"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="13" t="s">
         <v>28</v>
       </c>
@@ -2566,12 +2588,12 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="A12" s="82"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="88" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -2589,10 +2611,10 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15">
       <c r="A13" s="82"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="51"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="13" t="s">
         <v>42</v>
       </c>
@@ -2608,10 +2630,10 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15">
       <c r="A14" s="82"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="52"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="13" t="s">
         <v>43</v>
       </c>
@@ -2627,14 +2649,14 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="53" t="s">
+    <row r="15" spans="1:15">
+      <c r="A15" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="88" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -2652,10 +2674,10 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="52"/>
+    <row r="16" spans="1:15">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="13" t="s">
         <v>4</v>
       </c>
@@ -2671,10 +2693,10 @@
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="50" t="s">
+    <row r="17" spans="1:15">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="88" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -2692,10 +2714,10 @@
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="52"/>
+    <row r="18" spans="1:15">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="13" t="s">
         <v>48</v>
       </c>
@@ -2711,9 +2733,9 @@
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
+    <row r="19" spans="1:15">
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="7" t="s">
         <v>50</v>
       </c>
@@ -2732,9 +2754,9 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="54"/>
-      <c r="B20" s="53" t="s">
+    <row r="20" spans="1:15">
+      <c r="A20" s="45"/>
+      <c r="B20" s="44" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -2755,9 +2777,9 @@
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
+    <row r="21" spans="1:15">
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="7" t="s">
         <v>53</v>
       </c>
@@ -2776,9 +2798,9 @@
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -2799,9 +2821,9 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
+    <row r="23" spans="1:15">
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
@@ -2820,9 +2842,9 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="54"/>
-      <c r="B24" s="53" t="s">
+    <row r="24" spans="1:15">
+      <c r="A24" s="45"/>
+      <c r="B24" s="44" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2843,9 +2865,9 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
+    <row r="25" spans="1:15">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="7" t="s">
         <v>22</v>
       </c>
@@ -2864,12 +2886,12 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="54"/>
-      <c r="B26" s="53" t="s">
+    <row r="26" spans="1:15">
+      <c r="A26" s="45"/>
+      <c r="B26" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="88" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -2887,10 +2909,10 @@
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="51"/>
+    <row r="27" spans="1:15">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="13" t="s">
         <v>66</v>
       </c>
@@ -2906,10 +2928,10 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="51"/>
+    <row r="28" spans="1:15">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="13" t="s">
         <v>68</v>
       </c>
@@ -2925,10 +2947,10 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="52"/>
+    <row r="29" spans="1:15">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="13" t="s">
         <v>69</v>
       </c>
@@ -2944,9 +2966,9 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
+    <row r="30" spans="1:15">
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="7" t="s">
         <v>59</v>
       </c>
@@ -2965,12 +2987,12 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="54"/>
-      <c r="B31" s="53" t="s">
+    <row r="31" spans="1:15">
+      <c r="A31" s="45"/>
+      <c r="B31" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="88" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -2988,10 +3010,10 @@
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="52"/>
+    <row r="32" spans="1:15">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="13" t="s">
         <v>74</v>
       </c>
@@ -3007,9 +3029,9 @@
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
+    <row r="33" spans="1:15">
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="9" t="s">
         <v>59</v>
       </c>
@@ -3028,9 +3050,9 @@
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A34" s="54"/>
-      <c r="B34" s="53" t="s">
+    <row r="34" spans="1:15">
+      <c r="A34" s="45"/>
+      <c r="B34" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -3051,9 +3073,9 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
+    <row r="35" spans="1:15">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="10" t="s">
         <v>59</v>
       </c>
@@ -3072,11 +3094,11 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A36" s="54" t="s">
+    <row r="36" spans="1:15">
+      <c r="A36" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="44" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -3097,9 +3119,9 @@
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
+    <row r="37" spans="1:15">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="7" t="s">
         <v>80</v>
       </c>
@@ -3118,10 +3140,10 @@
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="50" t="s">
+    <row r="38" spans="1:15">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="88" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -3139,10 +3161,10 @@
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A39" s="54"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="51"/>
+    <row r="39" spans="1:15">
+      <c r="A39" s="45"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="13" t="s">
         <v>63</v>
       </c>
@@ -3158,12 +3180,12 @@
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54" t="s">
+    <row r="40" spans="1:15">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="13" t="s">
         <v>6</v>
       </c>
@@ -3179,10 +3201,10 @@
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="52"/>
+    <row r="41" spans="1:15">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="13" t="s">
         <v>9</v>
       </c>
@@ -3198,9 +3220,9 @@
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
+    <row r="42" spans="1:15">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="7" t="s">
         <v>82</v>
       </c>
@@ -3219,23 +3241,23 @@
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="4"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15">
       <c r="C45" s="4"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15">
       <c r="A46" s="5" t="s">
         <v>10</v>
       </c>
@@ -3246,7 +3268,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -3260,7 +3282,7 @@
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15">
       <c r="A47" s="80" t="s">
         <v>32</v>
       </c>
@@ -3285,7 +3307,7 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15">
       <c r="A48" s="81"/>
       <c r="B48" s="79"/>
       <c r="C48" s="5" t="s">
@@ -3306,7 +3328,7 @@
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15">
       <c r="A49" s="5" t="s">
         <v>18</v>
       </c>
@@ -3331,7 +3353,7 @@
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
     </row>
-    <row r="52" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" ht="16.5" customHeight="1">
       <c r="A52" s="59" t="s">
         <v>94</v>
       </c>
@@ -3362,7 +3384,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" ht="16.5" customHeight="1">
       <c r="A53" s="62"/>
       <c r="B53" s="63"/>
       <c r="C53" s="63"/>
@@ -3379,7 +3401,7 @@
       <c r="N53" s="57"/>
       <c r="O53" s="57"/>
     </row>
-    <row r="54" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" ht="16.5" customHeight="1">
       <c r="A54" s="65"/>
       <c r="B54" s="66"/>
       <c r="C54" s="66"/>
@@ -3406,18 +3428,18 @@
       <c r="N54" s="58"/>
       <c r="O54" s="58"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15">
       <c r="A55" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B55" s="53" t="s">
-        <v>315</v>
+      <c r="B55" s="44" t="s">
+        <v>313</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="D55" s="86" t="s">
-        <v>314</v>
+        <v>311</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>312</v>
       </c>
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
@@ -3425,22 +3447,22 @@
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="38"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="48"/>
       <c r="M55" s="27"/>
       <c r="N55" s="27"/>
       <c r="O55" s="27"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15">
       <c r="A56" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="B56" s="54"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="D56" s="87" t="s">
         <v>316</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>314</v>
       </c>
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
@@ -3448,22 +3470,22 @@
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
       <c r="J56" s="27"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="38"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="48"/>
       <c r="M56" s="27"/>
       <c r="N56" s="27"/>
       <c r="O56" s="27"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15">
       <c r="A57" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="B57" s="55"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D57" s="41" t="s">
         <v>317</v>
-      </c>
-      <c r="D57" s="87" t="s">
-        <v>319</v>
       </c>
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
@@ -3471,24 +3493,24 @@
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
       <c r="J57" s="27"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="38"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="48"/>
       <c r="M57" s="27"/>
       <c r="N57" s="27"/>
       <c r="O57" s="27"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15">
       <c r="A58" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="D58" s="86" t="s">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>305</v>
       </c>
       <c r="E58" s="27"/>
       <c r="F58" s="27"/>
@@ -3496,22 +3518,22 @@
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
       <c r="J58" s="27"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="38"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="48"/>
       <c r="M58" s="27"/>
       <c r="N58" s="27"/>
       <c r="O58" s="27"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15">
       <c r="A59" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="B59" s="54"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="D59" s="87" t="s">
-        <v>332</v>
+        <v>309</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>330</v>
       </c>
       <c r="E59" s="27"/>
       <c r="F59" s="27"/>
@@ -3519,22 +3541,22 @@
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="38"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="48"/>
       <c r="M59" s="27"/>
       <c r="N59" s="27"/>
       <c r="O59" s="27"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15">
       <c r="A60" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B60" s="55"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="D60" s="41" t="s">
         <v>310</v>
-      </c>
-      <c r="D60" s="87" t="s">
-        <v>312</v>
       </c>
       <c r="E60" s="27"/>
       <c r="F60" s="27"/>
@@ -3542,24 +3564,24 @@
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
       <c r="J60" s="27"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="38"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="48"/>
       <c r="M60" s="27"/>
       <c r="N60" s="27"/>
       <c r="O60" s="27"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15">
       <c r="A61" s="27" t="s">
         <v>213</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="D61" s="87" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>319</v>
       </c>
       <c r="E61" s="27"/>
       <c r="F61" s="27"/>
@@ -3567,24 +3589,24 @@
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
       <c r="J61" s="27"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="38"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="48"/>
       <c r="M61" s="27"/>
       <c r="N61" s="27"/>
       <c r="O61" s="27"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15">
       <c r="A62" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D62" s="41" t="s">
         <v>322</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="D62" s="87" t="s">
-        <v>324</v>
       </c>
       <c r="E62" s="27"/>
       <c r="F62" s="27"/>
@@ -3592,22 +3614,22 @@
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
       <c r="J62" s="27"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="40"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="50"/>
       <c r="M62" s="27"/>
       <c r="N62" s="27"/>
       <c r="O62" s="27"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15">
       <c r="A63" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="B63" s="54"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="D63" s="87" t="s">
-        <v>326</v>
+        <v>323</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>324</v>
       </c>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
@@ -3615,22 +3637,22 @@
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
       <c r="J63" s="27"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="38"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="48"/>
       <c r="M63" s="27"/>
       <c r="N63" s="27"/>
       <c r="O63" s="27"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15">
       <c r="A64" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="B64" s="54"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="D64" s="87" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>326</v>
       </c>
       <c r="E64" s="27"/>
       <c r="F64" s="27"/>
@@ -3638,22 +3660,22 @@
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
       <c r="J64" s="27"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="38"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="48"/>
       <c r="M64" s="27"/>
       <c r="N64" s="27"/>
       <c r="O64" s="27"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15">
       <c r="A65" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="B65" s="54"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D65" s="87" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>328</v>
       </c>
       <c r="E65" s="27"/>
       <c r="F65" s="27"/>
@@ -3661,22 +3683,22 @@
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
       <c r="J65" s="27"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="38"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="48"/>
       <c r="M65" s="27"/>
       <c r="N65" s="27"/>
       <c r="O65" s="27"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15">
       <c r="A66" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="B66" s="54"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="D66" s="41" t="s">
         <v>331</v>
-      </c>
-      <c r="D66" s="87" t="s">
-        <v>333</v>
       </c>
       <c r="E66" s="27"/>
       <c r="F66" s="27"/>
@@ -3684,22 +3706,22 @@
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
       <c r="J66" s="27"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="38"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="48"/>
       <c r="M66" s="27"/>
       <c r="N66" s="27"/>
       <c r="O66" s="27"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15">
       <c r="A67" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="B67" s="54"/>
-      <c r="C67" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="D67" s="87" t="s">
-        <v>335</v>
+      <c r="B67" s="45"/>
+      <c r="C67" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>333</v>
       </c>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
@@ -3707,20 +3729,20 @@
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
       <c r="J67" s="27"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="40"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="50"/>
       <c r="M67" s="27"/>
       <c r="N67" s="27"/>
       <c r="O67" s="27"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15">
       <c r="A68" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="B68" s="54"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="87" t="s">
-        <v>336</v>
+      <c r="B68" s="45"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="41" t="s">
+        <v>334</v>
       </c>
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
@@ -3728,22 +3750,22 @@
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
       <c r="J68" s="27"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="38"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="48"/>
       <c r="M68" s="27"/>
       <c r="N68" s="27"/>
       <c r="O68" s="27"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15">
       <c r="A69" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B69" s="54"/>
+      <c r="B69" s="45"/>
       <c r="C69" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="D69" s="87" t="s">
-        <v>338</v>
+        <v>335</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>336</v>
       </c>
       <c r="E69" s="27"/>
       <c r="F69" s="27"/>
@@ -3751,22 +3773,22 @@
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
       <c r="J69" s="27"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="38"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="48"/>
       <c r="M69" s="27"/>
       <c r="N69" s="27"/>
       <c r="O69" s="27"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15">
       <c r="A70" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="B70" s="55"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="D70" s="87" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>338</v>
       </c>
       <c r="E70" s="27"/>
       <c r="F70" s="27"/>
@@ -3774,450 +3796,450 @@
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
       <c r="J70" s="27"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="38"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="48"/>
       <c r="M70" s="27"/>
       <c r="N70" s="27"/>
       <c r="O70" s="27"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15">
       <c r="A71" s="27" t="s">
         <v>223</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
-      <c r="D71" s="88"/>
+      <c r="D71" s="42"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
       <c r="J71" s="27"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="38"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="48"/>
       <c r="M71" s="27"/>
       <c r="N71" s="27"/>
       <c r="O71" s="27"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15">
       <c r="A72" s="27" t="s">
         <v>224</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
-      <c r="D72" s="87"/>
+      <c r="D72" s="41"/>
       <c r="E72" s="27"/>
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
       <c r="J72" s="27"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="38"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="48"/>
       <c r="M72" s="27"/>
       <c r="N72" s="27"/>
       <c r="O72" s="27"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15">
       <c r="A73" s="27" t="s">
         <v>225</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
-      <c r="D73" s="87"/>
+      <c r="D73" s="41"/>
       <c r="E73" s="27"/>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
       <c r="J73" s="27"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="38"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="48"/>
       <c r="M73" s="27"/>
       <c r="N73" s="27"/>
       <c r="O73" s="27"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15">
       <c r="A74" s="27" t="s">
         <v>226</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
-      <c r="D74" s="87"/>
+      <c r="D74" s="41"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
       <c r="J74" s="27"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="38"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="48"/>
       <c r="M74" s="27"/>
       <c r="N74" s="27"/>
       <c r="O74" s="27"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15">
       <c r="A75" s="27" t="s">
         <v>227</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
-      <c r="D75" s="87"/>
+      <c r="D75" s="41"/>
       <c r="E75" s="27"/>
       <c r="F75" s="27"/>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
       <c r="J75" s="27"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="38"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="48"/>
       <c r="M75" s="27"/>
       <c r="N75" s="27"/>
       <c r="O75" s="27"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15">
       <c r="A76" s="27" t="s">
         <v>228</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
-      <c r="D76" s="87"/>
+      <c r="D76" s="41"/>
       <c r="E76" s="27"/>
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
       <c r="J76" s="27"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="38"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="48"/>
       <c r="M76" s="27"/>
       <c r="N76" s="27"/>
       <c r="O76" s="27"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15">
       <c r="A77" s="27" t="s">
         <v>229</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
-      <c r="D77" s="87"/>
+      <c r="D77" s="41"/>
       <c r="E77" s="27"/>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
       <c r="J77" s="27"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="38"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="48"/>
       <c r="M77" s="27"/>
       <c r="N77" s="27"/>
       <c r="O77" s="27"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15">
       <c r="A78" s="27" t="s">
         <v>230</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
-      <c r="D78" s="87"/>
+      <c r="D78" s="41"/>
       <c r="E78" s="27"/>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
       <c r="J78" s="27"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="38"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="48"/>
       <c r="M78" s="27"/>
       <c r="N78" s="27"/>
       <c r="O78" s="27"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15">
       <c r="A79" s="27" t="s">
         <v>231</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
-      <c r="D79" s="87"/>
+      <c r="D79" s="41"/>
       <c r="E79" s="27"/>
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
       <c r="J79" s="27"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="38"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="48"/>
       <c r="M79" s="27"/>
       <c r="N79" s="27"/>
       <c r="O79" s="27"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15">
       <c r="A80" s="27" t="s">
         <v>232</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
-      <c r="D80" s="87"/>
+      <c r="D80" s="41"/>
       <c r="E80" s="27"/>
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
       <c r="J80" s="27"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="38"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="48"/>
       <c r="M80" s="27"/>
       <c r="N80" s="27"/>
       <c r="O80" s="27"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15">
       <c r="A81" s="27" t="s">
         <v>233</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
-      <c r="D81" s="87"/>
+      <c r="D81" s="41"/>
       <c r="E81" s="27"/>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
       <c r="J81" s="27"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="38"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="48"/>
       <c r="M81" s="27"/>
       <c r="N81" s="27"/>
       <c r="O81" s="27"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15">
       <c r="A82" s="27" t="s">
         <v>234</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
-      <c r="D82" s="87"/>
+      <c r="D82" s="41"/>
       <c r="E82" s="27"/>
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
       <c r="J82" s="27"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="38"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="48"/>
       <c r="M82" s="27"/>
       <c r="N82" s="27"/>
       <c r="O82" s="27"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15">
       <c r="A83" s="27" t="s">
         <v>235</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
-      <c r="D83" s="87"/>
+      <c r="D83" s="41"/>
       <c r="E83" s="27"/>
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
       <c r="J83" s="27"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="38"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="48"/>
       <c r="M83" s="27"/>
       <c r="N83" s="27"/>
       <c r="O83" s="27"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15">
       <c r="A84" s="27" t="s">
         <v>236</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
-      <c r="D84" s="87"/>
+      <c r="D84" s="41"/>
       <c r="E84" s="27"/>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
       <c r="J84" s="27"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="38"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="48"/>
       <c r="M84" s="27"/>
       <c r="N84" s="27"/>
       <c r="O84" s="27"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15">
       <c r="A85" s="27" t="s">
         <v>237</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
-      <c r="D85" s="87"/>
+      <c r="D85" s="41"/>
       <c r="E85" s="27"/>
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
       <c r="J85" s="27"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="38"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="48"/>
       <c r="M85" s="27"/>
       <c r="N85" s="27"/>
       <c r="O85" s="27"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15">
       <c r="A86" s="27" t="s">
         <v>238</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="26"/>
-      <c r="D86" s="87"/>
+      <c r="D86" s="41"/>
       <c r="E86" s="27"/>
       <c r="F86" s="27"/>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
       <c r="J86" s="27"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="38"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="48"/>
       <c r="M86" s="27"/>
       <c r="N86" s="27"/>
       <c r="O86" s="27"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15">
       <c r="A87" s="27" t="s">
         <v>239</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
-      <c r="D87" s="87"/>
+      <c r="D87" s="41"/>
       <c r="E87" s="27"/>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
       <c r="J87" s="27"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="38"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="48"/>
       <c r="M87" s="27"/>
       <c r="N87" s="27"/>
       <c r="O87" s="27"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15">
       <c r="A88" s="27" t="s">
         <v>240</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
-      <c r="D88" s="89"/>
+      <c r="D88" s="43"/>
       <c r="E88" s="27"/>
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
       <c r="J88" s="27"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="38"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="48"/>
       <c r="M88" s="27"/>
       <c r="N88" s="27"/>
       <c r="O88" s="27"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15">
       <c r="A89" s="27" t="s">
         <v>241</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
-      <c r="D89" s="87"/>
+      <c r="D89" s="41"/>
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
       <c r="J89" s="27"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="38"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="48"/>
       <c r="M89" s="27"/>
       <c r="N89" s="27"/>
       <c r="O89" s="27"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15">
       <c r="A90" s="27" t="s">
         <v>242</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
-      <c r="D90" s="87"/>
+      <c r="D90" s="41"/>
       <c r="E90" s="27"/>
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
       <c r="J90" s="27"/>
-      <c r="K90" s="37"/>
-      <c r="L90" s="38"/>
+      <c r="K90" s="47"/>
+      <c r="L90" s="48"/>
       <c r="M90" s="27"/>
       <c r="N90" s="27"/>
       <c r="O90" s="27"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15">
       <c r="A91" s="27" t="s">
         <v>243</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
-      <c r="D91" s="87"/>
+      <c r="D91" s="41"/>
       <c r="E91" s="27"/>
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
       <c r="J91" s="27"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="38"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="48"/>
       <c r="M91" s="27"/>
       <c r="N91" s="27"/>
       <c r="O91" s="27"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15">
       <c r="A92" s="27" t="s">
         <v>244</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
-      <c r="D92" s="87"/>
+      <c r="D92" s="41"/>
       <c r="E92" s="27"/>
       <c r="F92" s="27"/>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
       <c r="J92" s="27"/>
-      <c r="K92" s="37"/>
-      <c r="L92" s="38"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="48"/>
       <c r="M92" s="27"/>
       <c r="N92" s="27"/>
       <c r="O92" s="27"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15">
       <c r="A93" s="27" t="s">
         <v>245</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
-      <c r="D93" s="88"/>
+      <c r="D93" s="42"/>
       <c r="E93" s="27"/>
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
       <c r="J93" s="27"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="38"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="48"/>
       <c r="M93" s="27"/>
       <c r="N93" s="27"/>
       <c r="O93" s="27"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -4234,7 +4256,7 @@
       <c r="N94" s="28"/>
       <c r="O94" s="28"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -4251,7 +4273,7 @@
       <c r="N95" s="28"/>
       <c r="O95" s="28"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -4268,7 +4290,7 @@
       <c r="N96" s="28"/>
       <c r="O96" s="28"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15">
       <c r="A97" s="28"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -4285,7 +4307,7 @@
       <c r="N97" s="28"/>
       <c r="O97" s="28"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15">
       <c r="A98" s="28"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
@@ -4302,60 +4324,60 @@
       <c r="N98" s="28"/>
       <c r="O98" s="28"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A99" s="44" t="s">
+    <row r="99" spans="1:15">
+      <c r="A99" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="45" t="s">
+      <c r="B99" s="54"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="F99" s="45" t="s">
+      <c r="F99" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G99" s="45"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="45"/>
-      <c r="K99" s="45" t="s">
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="L99" s="45"/>
-      <c r="M99" s="46" t="s">
+      <c r="L99" s="55"/>
+      <c r="M99" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="N99" s="46" t="s">
+      <c r="N99" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="O99" s="46" t="s">
+      <c r="O99" s="51" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="45"/>
-      <c r="K100" s="45"/>
-      <c r="L100" s="45"/>
-      <c r="M100" s="46"/>
-      <c r="N100" s="46"/>
-      <c r="O100" s="46"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A101" s="44"/>
-      <c r="B101" s="44"/>
-      <c r="C101" s="44"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="45"/>
+    <row r="100" spans="1:15">
+      <c r="A100" s="54"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="55"/>
+      <c r="K100" s="55"/>
+      <c r="L100" s="55"/>
+      <c r="M100" s="51"/>
+      <c r="N100" s="51"/>
+      <c r="O100" s="51"/>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="54"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="55"/>
       <c r="F101" s="17" t="s">
         <v>85</v>
       </c>
@@ -4371,17 +4393,17 @@
       <c r="J101" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="K101" s="45"/>
-      <c r="L101" s="45"/>
-      <c r="M101" s="46"/>
-      <c r="N101" s="46"/>
-      <c r="O101" s="46"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K101" s="55"/>
+      <c r="L101" s="55"/>
+      <c r="M101" s="51"/>
+      <c r="N101" s="51"/>
+      <c r="O101" s="51"/>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="B102" s="53" t="s">
+      <c r="B102" s="44" t="s">
         <v>99</v>
       </c>
       <c r="C102" s="20" t="s">
@@ -4398,8 +4420,8 @@
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
       <c r="J102" s="27"/>
-      <c r="K102" s="37"/>
-      <c r="L102" s="38"/>
+      <c r="K102" s="47"/>
+      <c r="L102" s="48"/>
       <c r="M102" s="27"/>
       <c r="N102" s="27" t="s">
         <v>153</v>
@@ -4408,11 +4430,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:15">
       <c r="A103" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B103" s="54"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="20" t="s">
         <v>100</v>
       </c>
@@ -4427,8 +4449,8 @@
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
       <c r="J103" s="27"/>
-      <c r="K103" s="37"/>
-      <c r="L103" s="38"/>
+      <c r="K103" s="47"/>
+      <c r="L103" s="48"/>
       <c r="M103" s="27"/>
       <c r="N103" s="27" t="s">
         <v>150</v>
@@ -4437,11 +4459,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:15">
       <c r="A104" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="B104" s="54"/>
+      <c r="B104" s="45"/>
       <c r="C104" s="20" t="s">
         <v>104</v>
       </c>
@@ -4456,8 +4478,8 @@
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
       <c r="J104" s="27"/>
-      <c r="K104" s="37"/>
-      <c r="L104" s="38"/>
+      <c r="K104" s="47"/>
+      <c r="L104" s="48"/>
       <c r="M104" s="27"/>
       <c r="N104" s="27" t="s">
         <v>151</v>
@@ -4466,11 +4488,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15">
       <c r="A105" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B105" s="54"/>
+      <c r="B105" s="45"/>
       <c r="C105" s="20" t="s">
         <v>101</v>
       </c>
@@ -4485,8 +4507,8 @@
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
       <c r="J105" s="27"/>
-      <c r="K105" s="37"/>
-      <c r="L105" s="38"/>
+      <c r="K105" s="47"/>
+      <c r="L105" s="48"/>
       <c r="M105" s="27"/>
       <c r="N105" s="27" t="s">
         <v>152</v>
@@ -4495,11 +4517,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15">
       <c r="A106" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B106" s="54"/>
+      <c r="B106" s="45"/>
       <c r="C106" s="20" t="s">
         <v>105</v>
       </c>
@@ -4514,8 +4536,8 @@
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
       <c r="J106" s="27"/>
-      <c r="K106" s="37"/>
-      <c r="L106" s="38"/>
+      <c r="K106" s="47"/>
+      <c r="L106" s="48"/>
       <c r="M106" s="27"/>
       <c r="N106" s="27" t="s">
         <v>153</v>
@@ -4524,11 +4546,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15">
       <c r="A107" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B107" s="55"/>
+      <c r="B107" s="46"/>
       <c r="C107" s="20" t="s">
         <v>102</v>
       </c>
@@ -4543,8 +4565,8 @@
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
       <c r="J107" s="27"/>
-      <c r="K107" s="42"/>
-      <c r="L107" s="43"/>
+      <c r="K107" s="52"/>
+      <c r="L107" s="53"/>
       <c r="M107" s="27"/>
       <c r="N107" s="27" t="s">
         <v>152</v>
@@ -4553,11 +4575,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15">
       <c r="A108" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B108" s="53" t="s">
+      <c r="B108" s="44" t="s">
         <v>107</v>
       </c>
       <c r="C108" s="20" t="s">
@@ -4574,8 +4596,8 @@
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
       <c r="J108" s="27"/>
-      <c r="K108" s="37"/>
-      <c r="L108" s="38"/>
+      <c r="K108" s="47"/>
+      <c r="L108" s="48"/>
       <c r="M108" s="27"/>
       <c r="N108" s="27" t="s">
         <v>149</v>
@@ -4584,11 +4606,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:15">
       <c r="A109" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B109" s="54"/>
+      <c r="B109" s="45"/>
       <c r="C109" s="20" t="s">
         <v>116</v>
       </c>
@@ -4603,8 +4625,8 @@
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
       <c r="J109" s="27"/>
-      <c r="K109" s="37"/>
-      <c r="L109" s="38"/>
+      <c r="K109" s="47"/>
+      <c r="L109" s="48"/>
       <c r="M109" s="27"/>
       <c r="N109" s="27" t="s">
         <v>152</v>
@@ -4613,11 +4635,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:15">
       <c r="A110" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="B110" s="54"/>
+      <c r="B110" s="45"/>
       <c r="C110" s="20" t="s">
         <v>113</v>
       </c>
@@ -4632,8 +4654,8 @@
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
       <c r="J110" s="27"/>
-      <c r="K110" s="37"/>
-      <c r="L110" s="38"/>
+      <c r="K110" s="47"/>
+      <c r="L110" s="48"/>
       <c r="M110" s="27"/>
       <c r="N110" s="27" t="s">
         <v>153</v>
@@ -4642,11 +4664,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:15">
       <c r="A111" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B111" s="54"/>
+      <c r="B111" s="45"/>
       <c r="C111" s="20" t="s">
         <v>109</v>
       </c>
@@ -4661,8 +4683,8 @@
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
       <c r="J111" s="27"/>
-      <c r="K111" s="37"/>
-      <c r="L111" s="38"/>
+      <c r="K111" s="47"/>
+      <c r="L111" s="48"/>
       <c r="M111" s="27"/>
       <c r="N111" s="27" t="s">
         <v>150</v>
@@ -4671,11 +4693,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:15">
       <c r="A112" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="B112" s="54"/>
+      <c r="B112" s="45"/>
       <c r="C112" s="29" t="s">
         <v>112</v>
       </c>
@@ -4690,8 +4712,8 @@
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
       <c r="J112" s="27"/>
-      <c r="K112" s="37"/>
-      <c r="L112" s="38"/>
+      <c r="K112" s="47"/>
+      <c r="L112" s="48"/>
       <c r="M112" s="27"/>
       <c r="N112" s="27" t="s">
         <v>150</v>
@@ -4700,11 +4722,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:15">
       <c r="A113" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="B113" s="55"/>
+      <c r="B113" s="46"/>
       <c r="C113" s="20" t="s">
         <v>110</v>
       </c>
@@ -4719,8 +4741,8 @@
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
       <c r="J113" s="27"/>
-      <c r="K113" s="37"/>
-      <c r="L113" s="38"/>
+      <c r="K113" s="47"/>
+      <c r="L113" s="48"/>
       <c r="M113" s="27"/>
       <c r="N113" s="27" t="s">
         <v>153</v>
@@ -4729,11 +4751,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:15">
       <c r="A114" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="B114" s="53" t="s">
+      <c r="B114" s="44" t="s">
         <v>111</v>
       </c>
       <c r="C114" s="20" t="s">
@@ -4750,8 +4772,8 @@
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
       <c r="J114" s="27"/>
-      <c r="K114" s="37"/>
-      <c r="L114" s="38"/>
+      <c r="K114" s="47"/>
+      <c r="L114" s="48"/>
       <c r="M114" s="27"/>
       <c r="N114" s="27" t="s">
         <v>153</v>
@@ -4760,11 +4782,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:15">
       <c r="A115" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="B115" s="54"/>
+      <c r="B115" s="45"/>
       <c r="C115" s="20" t="s">
         <v>116</v>
       </c>
@@ -4779,8 +4801,8 @@
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
       <c r="J115" s="27"/>
-      <c r="K115" s="37"/>
-      <c r="L115" s="38"/>
+      <c r="K115" s="47"/>
+      <c r="L115" s="48"/>
       <c r="M115" s="27"/>
       <c r="N115" s="27" t="s">
         <v>152</v>
@@ -4789,11 +4811,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:15">
       <c r="A116" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="B116" s="54"/>
+      <c r="B116" s="45"/>
       <c r="C116" s="20" t="s">
         <v>114</v>
       </c>
@@ -4808,8 +4830,8 @@
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
       <c r="J116" s="27"/>
-      <c r="K116" s="37"/>
-      <c r="L116" s="38"/>
+      <c r="K116" s="47"/>
+      <c r="L116" s="48"/>
       <c r="M116" s="27"/>
       <c r="N116" s="27" t="s">
         <v>153</v>
@@ -4818,11 +4840,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:15">
       <c r="A117" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B117" s="54"/>
+      <c r="B117" s="45"/>
       <c r="C117" s="20" t="s">
         <v>112</v>
       </c>
@@ -4837,8 +4859,8 @@
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
       <c r="J117" s="27"/>
-      <c r="K117" s="37"/>
-      <c r="L117" s="38"/>
+      <c r="K117" s="47"/>
+      <c r="L117" s="48"/>
       <c r="M117" s="27"/>
       <c r="N117" s="27" t="s">
         <v>153</v>
@@ -4847,11 +4869,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:15">
       <c r="A118" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="B118" s="55"/>
+      <c r="B118" s="46"/>
       <c r="C118" s="20" t="s">
         <v>115</v>
       </c>
@@ -4866,8 +4888,8 @@
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
       <c r="J118" s="27"/>
-      <c r="K118" s="37"/>
-      <c r="L118" s="38"/>
+      <c r="K118" s="47"/>
+      <c r="L118" s="48"/>
       <c r="M118" s="27"/>
       <c r="N118" s="27" t="s">
         <v>151</v>
@@ -4876,11 +4898,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:15">
       <c r="A119" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B119" s="53" t="s">
+      <c r="B119" s="44" t="s">
         <v>116</v>
       </c>
       <c r="C119" s="20" t="s">
@@ -4897,8 +4919,8 @@
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
       <c r="J119" s="27"/>
-      <c r="K119" s="37"/>
-      <c r="L119" s="38"/>
+      <c r="K119" s="47"/>
+      <c r="L119" s="48"/>
       <c r="M119" s="27"/>
       <c r="N119" s="27" t="s">
         <v>151</v>
@@ -4907,11 +4929,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:15">
       <c r="A120" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="B120" s="54"/>
+      <c r="B120" s="45"/>
       <c r="C120" s="20" t="s">
         <v>138</v>
       </c>
@@ -4926,8 +4948,8 @@
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
       <c r="J120" s="27"/>
-      <c r="K120" s="37"/>
-      <c r="L120" s="38"/>
+      <c r="K120" s="47"/>
+      <c r="L120" s="48"/>
       <c r="M120" s="27"/>
       <c r="N120" s="27" t="s">
         <v>152</v>
@@ -4936,11 +4958,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:15">
       <c r="A121" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="B121" s="55"/>
+      <c r="B121" s="46"/>
       <c r="C121" s="20" t="s">
         <v>117</v>
       </c>
@@ -4955,8 +4977,8 @@
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
       <c r="J121" s="27"/>
-      <c r="K121" s="37"/>
-      <c r="L121" s="38"/>
+      <c r="K121" s="47"/>
+      <c r="L121" s="48"/>
       <c r="M121" s="27"/>
       <c r="N121" s="27" t="s">
         <v>150</v>
@@ -4965,11 +4987,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:15">
       <c r="A122" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="B122" s="53" t="s">
+      <c r="B122" s="44" t="s">
         <v>125</v>
       </c>
       <c r="C122" s="20" t="s">
@@ -4986,8 +5008,8 @@
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
       <c r="J122" s="27"/>
-      <c r="K122" s="37"/>
-      <c r="L122" s="38"/>
+      <c r="K122" s="47"/>
+      <c r="L122" s="48"/>
       <c r="M122" s="27"/>
       <c r="N122" s="27" t="s">
         <v>153</v>
@@ -4996,12 +5018,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:15">
       <c r="A123" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="B123" s="54"/>
-      <c r="C123" s="53" t="s">
+      <c r="B123" s="45"/>
+      <c r="C123" s="44" t="s">
         <v>125</v>
       </c>
       <c r="D123" s="31" t="s">
@@ -5015,8 +5037,8 @@
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
       <c r="J123" s="27"/>
-      <c r="K123" s="37"/>
-      <c r="L123" s="38"/>
+      <c r="K123" s="47"/>
+      <c r="L123" s="48"/>
       <c r="M123" s="27"/>
       <c r="N123" s="27" t="s">
         <v>150</v>
@@ -5025,12 +5047,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:15">
       <c r="A124" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B124" s="54"/>
-      <c r="C124" s="55"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="46"/>
       <c r="D124" s="31" t="s">
         <v>128</v>
       </c>
@@ -5042,8 +5064,8 @@
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
       <c r="J124" s="27"/>
-      <c r="K124" s="39"/>
-      <c r="L124" s="40"/>
+      <c r="K124" s="49"/>
+      <c r="L124" s="50"/>
       <c r="M124" s="27"/>
       <c r="N124" s="27" t="s">
         <v>150</v>
@@ -5052,11 +5074,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:15">
       <c r="A125" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B125" s="55"/>
+      <c r="B125" s="46"/>
       <c r="C125" s="20" t="s">
         <v>108</v>
       </c>
@@ -5071,8 +5093,8 @@
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
       <c r="J125" s="27"/>
-      <c r="K125" s="37"/>
-      <c r="L125" s="38"/>
+      <c r="K125" s="47"/>
+      <c r="L125" s="48"/>
       <c r="M125" s="27"/>
       <c r="N125" s="27" t="s">
         <v>153</v>
@@ -5081,11 +5103,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:15">
       <c r="A126" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="B126" s="53" t="s">
+      <c r="B126" s="44" t="s">
         <v>142</v>
       </c>
       <c r="C126" s="20" t="s">
@@ -5102,8 +5124,8 @@
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
       <c r="J126" s="27"/>
-      <c r="K126" s="37"/>
-      <c r="L126" s="38"/>
+      <c r="K126" s="47"/>
+      <c r="L126" s="48"/>
       <c r="M126" s="27"/>
       <c r="N126" s="27" t="s">
         <v>153</v>
@@ -5112,11 +5134,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:15">
       <c r="A127" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B127" s="55"/>
+      <c r="B127" s="46"/>
       <c r="C127" s="20" t="s">
         <v>145</v>
       </c>
@@ -5131,8 +5153,8 @@
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
       <c r="J127" s="27"/>
-      <c r="K127" s="37"/>
-      <c r="L127" s="38"/>
+      <c r="K127" s="47"/>
+      <c r="L127" s="48"/>
       <c r="M127" s="27"/>
       <c r="N127" s="27" t="s">
         <v>152</v>
@@ -5141,7 +5163,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:15">
       <c r="A128" s="28"/>
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
@@ -5158,7 +5180,7 @@
       <c r="N128" s="28"/>
       <c r="O128" s="28"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:15">
       <c r="A129" s="28"/>
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
@@ -5175,7 +5197,7 @@
       <c r="N129" s="28"/>
       <c r="O129" s="28"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:15">
       <c r="A130" s="28"/>
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
@@ -5192,7 +5214,7 @@
       <c r="N130" s="28"/>
       <c r="O130" s="28"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:15">
       <c r="A131" s="28"/>
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
@@ -5209,60 +5231,60 @@
       <c r="N131" s="28"/>
       <c r="O131" s="28"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A132" s="44" t="s">
+    <row r="132" spans="1:15">
+      <c r="A132" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="B132" s="44"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="45" t="s">
+      <c r="B132" s="54"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="F132" s="45" t="s">
+      <c r="F132" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G132" s="45"/>
-      <c r="H132" s="45"/>
-      <c r="I132" s="45"/>
-      <c r="J132" s="45"/>
-      <c r="K132" s="45" t="s">
+      <c r="G132" s="55"/>
+      <c r="H132" s="55"/>
+      <c r="I132" s="55"/>
+      <c r="J132" s="55"/>
+      <c r="K132" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="L132" s="45"/>
-      <c r="M132" s="46" t="s">
+      <c r="L132" s="55"/>
+      <c r="M132" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="N132" s="46" t="s">
+      <c r="N132" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="O132" s="46" t="s">
+      <c r="O132" s="51" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A133" s="44"/>
-      <c r="B133" s="44"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="45"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="45"/>
-      <c r="H133" s="45"/>
-      <c r="I133" s="45"/>
-      <c r="J133" s="45"/>
-      <c r="K133" s="45"/>
-      <c r="L133" s="45"/>
-      <c r="M133" s="46"/>
-      <c r="N133" s="46"/>
-      <c r="O133" s="46"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A134" s="44"/>
-      <c r="B134" s="44"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="45"/>
+    <row r="133" spans="1:15">
+      <c r="A133" s="54"/>
+      <c r="B133" s="54"/>
+      <c r="C133" s="54"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="55"/>
+      <c r="F133" s="55"/>
+      <c r="G133" s="55"/>
+      <c r="H133" s="55"/>
+      <c r="I133" s="55"/>
+      <c r="J133" s="55"/>
+      <c r="K133" s="55"/>
+      <c r="L133" s="55"/>
+      <c r="M133" s="51"/>
+      <c r="N133" s="51"/>
+      <c r="O133" s="51"/>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="54"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="55"/>
       <c r="F134" s="17" t="s">
         <v>85</v>
       </c>
@@ -5278,13 +5300,13 @@
       <c r="J134" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="K134" s="45"/>
-      <c r="L134" s="45"/>
-      <c r="M134" s="46"/>
-      <c r="N134" s="46"/>
-      <c r="O134" s="46"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K134" s="55"/>
+      <c r="L134" s="55"/>
+      <c r="M134" s="51"/>
+      <c r="N134" s="51"/>
+      <c r="O134" s="51"/>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="27" t="s">
         <v>155</v>
       </c>
@@ -5297,13 +5319,13 @@
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
       <c r="J135" s="27"/>
-      <c r="K135" s="37"/>
-      <c r="L135" s="38"/>
+      <c r="K135" s="47"/>
+      <c r="L135" s="48"/>
       <c r="M135" s="27"/>
       <c r="N135" s="27"/>
       <c r="O135" s="27"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:15">
       <c r="A136" s="27" t="s">
         <v>156</v>
       </c>
@@ -5316,13 +5338,13 @@
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
       <c r="J136" s="27"/>
-      <c r="K136" s="37"/>
-      <c r="L136" s="38"/>
+      <c r="K136" s="47"/>
+      <c r="L136" s="48"/>
       <c r="M136" s="27"/>
       <c r="N136" s="27"/>
       <c r="O136" s="27"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:15">
       <c r="A137" s="27" t="s">
         <v>157</v>
       </c>
@@ -5335,13 +5357,13 @@
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
       <c r="J137" s="27"/>
-      <c r="K137" s="37"/>
-      <c r="L137" s="38"/>
+      <c r="K137" s="47"/>
+      <c r="L137" s="48"/>
       <c r="M137" s="27"/>
       <c r="N137" s="27"/>
       <c r="O137" s="27"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:15">
       <c r="A138" s="27" t="s">
         <v>158</v>
       </c>
@@ -5354,13 +5376,13 @@
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
       <c r="J138" s="27"/>
-      <c r="K138" s="37"/>
-      <c r="L138" s="38"/>
+      <c r="K138" s="47"/>
+      <c r="L138" s="48"/>
       <c r="M138" s="27"/>
       <c r="N138" s="27"/>
       <c r="O138" s="27"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:15">
       <c r="A139" s="27" t="s">
         <v>159</v>
       </c>
@@ -5373,13 +5395,13 @@
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
       <c r="J139" s="27"/>
-      <c r="K139" s="37"/>
-      <c r="L139" s="38"/>
+      <c r="K139" s="47"/>
+      <c r="L139" s="48"/>
       <c r="M139" s="27"/>
       <c r="N139" s="27"/>
       <c r="O139" s="27"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:15">
       <c r="A140" s="27" t="s">
         <v>160</v>
       </c>
@@ -5392,13 +5414,13 @@
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
       <c r="J140" s="27"/>
-      <c r="K140" s="42"/>
-      <c r="L140" s="43"/>
+      <c r="K140" s="52"/>
+      <c r="L140" s="53"/>
       <c r="M140" s="27"/>
       <c r="N140" s="27"/>
       <c r="O140" s="27"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:15">
       <c r="A141" s="27" t="s">
         <v>161</v>
       </c>
@@ -5411,13 +5433,13 @@
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
       <c r="J141" s="27"/>
-      <c r="K141" s="37"/>
-      <c r="L141" s="38"/>
+      <c r="K141" s="47"/>
+      <c r="L141" s="48"/>
       <c r="M141" s="27"/>
       <c r="N141" s="27"/>
       <c r="O141" s="27"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:15">
       <c r="A142" s="27" t="s">
         <v>162</v>
       </c>
@@ -5430,13 +5452,13 @@
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
       <c r="J142" s="27"/>
-      <c r="K142" s="37"/>
-      <c r="L142" s="38"/>
+      <c r="K142" s="47"/>
+      <c r="L142" s="48"/>
       <c r="M142" s="27"/>
       <c r="N142" s="27"/>
       <c r="O142" s="27"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:15">
       <c r="A143" s="27" t="s">
         <v>163</v>
       </c>
@@ -5449,13 +5471,13 @@
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
       <c r="J143" s="27"/>
-      <c r="K143" s="37"/>
-      <c r="L143" s="38"/>
+      <c r="K143" s="47"/>
+      <c r="L143" s="48"/>
       <c r="M143" s="27"/>
       <c r="N143" s="27"/>
       <c r="O143" s="27"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:15">
       <c r="A144" s="27" t="s">
         <v>164</v>
       </c>
@@ -5468,13 +5490,13 @@
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
       <c r="J144" s="27"/>
-      <c r="K144" s="37"/>
-      <c r="L144" s="38"/>
+      <c r="K144" s="47"/>
+      <c r="L144" s="48"/>
       <c r="M144" s="27"/>
       <c r="N144" s="27"/>
       <c r="O144" s="27"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:15">
       <c r="A145" s="27" t="s">
         <v>165</v>
       </c>
@@ -5487,13 +5509,13 @@
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
       <c r="J145" s="27"/>
-      <c r="K145" s="37"/>
-      <c r="L145" s="38"/>
+      <c r="K145" s="47"/>
+      <c r="L145" s="48"/>
       <c r="M145" s="27"/>
       <c r="N145" s="27"/>
       <c r="O145" s="27"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:15">
       <c r="A146" s="27" t="s">
         <v>166</v>
       </c>
@@ -5506,13 +5528,13 @@
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
       <c r="J146" s="27"/>
-      <c r="K146" s="37"/>
-      <c r="L146" s="38"/>
+      <c r="K146" s="47"/>
+      <c r="L146" s="48"/>
       <c r="M146" s="27"/>
       <c r="N146" s="27"/>
       <c r="O146" s="27"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:15">
       <c r="A147" s="27" t="s">
         <v>167</v>
       </c>
@@ -5525,13 +5547,13 @@
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
       <c r="J147" s="27"/>
-      <c r="K147" s="37"/>
-      <c r="L147" s="38"/>
+      <c r="K147" s="47"/>
+      <c r="L147" s="48"/>
       <c r="M147" s="27"/>
       <c r="N147" s="27"/>
       <c r="O147" s="27"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:15">
       <c r="A148" s="27" t="s">
         <v>168</v>
       </c>
@@ -5544,13 +5566,13 @@
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
       <c r="J148" s="27"/>
-      <c r="K148" s="37"/>
-      <c r="L148" s="38"/>
+      <c r="K148" s="47"/>
+      <c r="L148" s="48"/>
       <c r="M148" s="27"/>
       <c r="N148" s="27"/>
       <c r="O148" s="27"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:15">
       <c r="A149" s="27" t="s">
         <v>169</v>
       </c>
@@ -5563,13 +5585,13 @@
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
       <c r="J149" s="27"/>
-      <c r="K149" s="37"/>
-      <c r="L149" s="38"/>
+      <c r="K149" s="47"/>
+      <c r="L149" s="48"/>
       <c r="M149" s="27"/>
       <c r="N149" s="27"/>
       <c r="O149" s="27"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:15">
       <c r="A150" s="27" t="s">
         <v>170</v>
       </c>
@@ -5582,13 +5604,13 @@
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
       <c r="J150" s="27"/>
-      <c r="K150" s="37"/>
-      <c r="L150" s="38"/>
+      <c r="K150" s="47"/>
+      <c r="L150" s="48"/>
       <c r="M150" s="27"/>
       <c r="N150" s="27"/>
       <c r="O150" s="27"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:15">
       <c r="A151" s="27" t="s">
         <v>171</v>
       </c>
@@ -5601,13 +5623,13 @@
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
       <c r="J151" s="27"/>
-      <c r="K151" s="37"/>
-      <c r="L151" s="38"/>
+      <c r="K151" s="47"/>
+      <c r="L151" s="48"/>
       <c r="M151" s="27"/>
       <c r="N151" s="27"/>
       <c r="O151" s="27"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:15">
       <c r="A152" s="27" t="s">
         <v>172</v>
       </c>
@@ -5620,13 +5642,13 @@
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
       <c r="J152" s="27"/>
-      <c r="K152" s="37"/>
-      <c r="L152" s="38"/>
+      <c r="K152" s="47"/>
+      <c r="L152" s="48"/>
       <c r="M152" s="27"/>
       <c r="N152" s="27"/>
       <c r="O152" s="27"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:15">
       <c r="A153" s="27" t="s">
         <v>173</v>
       </c>
@@ -5639,13 +5661,13 @@
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
       <c r="J153" s="27"/>
-      <c r="K153" s="37"/>
-      <c r="L153" s="38"/>
+      <c r="K153" s="47"/>
+      <c r="L153" s="48"/>
       <c r="M153" s="27"/>
       <c r="N153" s="27"/>
       <c r="O153" s="27"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:15">
       <c r="A154" s="27" t="s">
         <v>174</v>
       </c>
@@ -5658,13 +5680,13 @@
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
       <c r="J154" s="27"/>
-      <c r="K154" s="37"/>
-      <c r="L154" s="38"/>
+      <c r="K154" s="47"/>
+      <c r="L154" s="48"/>
       <c r="M154" s="27"/>
       <c r="N154" s="27"/>
       <c r="O154" s="27"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:15">
       <c r="A155" s="27" t="s">
         <v>175</v>
       </c>
@@ -5677,13 +5699,13 @@
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
       <c r="J155" s="27"/>
-      <c r="K155" s="37"/>
-      <c r="L155" s="38"/>
+      <c r="K155" s="47"/>
+      <c r="L155" s="48"/>
       <c r="M155" s="27"/>
       <c r="N155" s="27"/>
       <c r="O155" s="27"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:15">
       <c r="A156" s="27" t="s">
         <v>176</v>
       </c>
@@ -5696,13 +5718,13 @@
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
       <c r="J156" s="27"/>
-      <c r="K156" s="37"/>
-      <c r="L156" s="38"/>
+      <c r="K156" s="47"/>
+      <c r="L156" s="48"/>
       <c r="M156" s="27"/>
       <c r="N156" s="27"/>
       <c r="O156" s="27"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:15">
       <c r="A157" s="27" t="s">
         <v>177</v>
       </c>
@@ -5715,13 +5737,13 @@
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
       <c r="J157" s="27"/>
-      <c r="K157" s="39"/>
-      <c r="L157" s="40"/>
+      <c r="K157" s="49"/>
+      <c r="L157" s="50"/>
       <c r="M157" s="27"/>
       <c r="N157" s="27"/>
       <c r="O157" s="27"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:15">
       <c r="A158" s="27" t="s">
         <v>178</v>
       </c>
@@ -5734,13 +5756,13 @@
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
       <c r="J158" s="27"/>
-      <c r="K158" s="37"/>
-      <c r="L158" s="38"/>
+      <c r="K158" s="47"/>
+      <c r="L158" s="48"/>
       <c r="M158" s="27"/>
       <c r="N158" s="27"/>
       <c r="O158" s="27"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:15">
       <c r="A159" s="27" t="s">
         <v>179</v>
       </c>
@@ -5753,13 +5775,13 @@
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
       <c r="J159" s="27"/>
-      <c r="K159" s="37"/>
-      <c r="L159" s="38"/>
+      <c r="K159" s="47"/>
+      <c r="L159" s="48"/>
       <c r="M159" s="27"/>
       <c r="N159" s="27"/>
       <c r="O159" s="27"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:15">
       <c r="A160" s="27" t="s">
         <v>180</v>
       </c>
@@ -5772,70 +5794,70 @@
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
       <c r="J160" s="27"/>
-      <c r="K160" s="37"/>
-      <c r="L160" s="38"/>
+      <c r="K160" s="47"/>
+      <c r="L160" s="48"/>
       <c r="M160" s="27"/>
       <c r="N160" s="27"/>
       <c r="O160" s="27"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A165" s="44" t="s">
+    <row r="165" spans="1:16">
+      <c r="A165" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="B165" s="44"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="44"/>
-      <c r="E165" s="45" t="s">
+      <c r="B165" s="54"/>
+      <c r="C165" s="54"/>
+      <c r="D165" s="54"/>
+      <c r="E165" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="F165" s="45" t="s">
+      <c r="F165" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G165" s="45"/>
-      <c r="H165" s="45"/>
-      <c r="I165" s="45"/>
-      <c r="J165" s="45"/>
-      <c r="K165" s="45" t="s">
+      <c r="G165" s="55"/>
+      <c r="H165" s="55"/>
+      <c r="I165" s="55"/>
+      <c r="J165" s="55"/>
+      <c r="K165" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="L165" s="45"/>
-      <c r="M165" s="46" t="s">
+      <c r="L165" s="55"/>
+      <c r="M165" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="N165" s="46" t="s">
+      <c r="N165" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="O165" s="46" t="s">
+      <c r="O165" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="P165" s="41" t="s">
+      <c r="P165" s="91" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A166" s="44"/>
-      <c r="B166" s="44"/>
-      <c r="C166" s="44"/>
-      <c r="D166" s="44"/>
-      <c r="E166" s="45"/>
-      <c r="F166" s="45"/>
-      <c r="G166" s="45"/>
-      <c r="H166" s="45"/>
-      <c r="I166" s="45"/>
-      <c r="J166" s="45"/>
-      <c r="K166" s="45"/>
-      <c r="L166" s="45"/>
-      <c r="M166" s="46"/>
-      <c r="N166" s="46"/>
-      <c r="O166" s="46"/>
-      <c r="P166" s="41"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A167" s="44"/>
-      <c r="B167" s="44"/>
-      <c r="C167" s="44"/>
-      <c r="D167" s="44"/>
-      <c r="E167" s="45"/>
+    <row r="166" spans="1:16">
+      <c r="A166" s="54"/>
+      <c r="B166" s="54"/>
+      <c r="C166" s="54"/>
+      <c r="D166" s="54"/>
+      <c r="E166" s="55"/>
+      <c r="F166" s="55"/>
+      <c r="G166" s="55"/>
+      <c r="H166" s="55"/>
+      <c r="I166" s="55"/>
+      <c r="J166" s="55"/>
+      <c r="K166" s="55"/>
+      <c r="L166" s="55"/>
+      <c r="M166" s="51"/>
+      <c r="N166" s="51"/>
+      <c r="O166" s="51"/>
+      <c r="P166" s="91"/>
+    </row>
+    <row r="167" spans="1:16">
+      <c r="A167" s="54"/>
+      <c r="B167" s="54"/>
+      <c r="C167" s="54"/>
+      <c r="D167" s="54"/>
+      <c r="E167" s="55"/>
       <c r="F167" s="23" t="s">
         <v>85</v>
       </c>
@@ -5851,28 +5873,28 @@
       <c r="J167" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="K167" s="45"/>
-      <c r="L167" s="45"/>
-      <c r="M167" s="46"/>
-      <c r="N167" s="46"/>
-      <c r="O167" s="46"/>
-      <c r="P167" s="41"/>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K167" s="55"/>
+      <c r="L167" s="55"/>
+      <c r="M167" s="51"/>
+      <c r="N167" s="51"/>
+      <c r="O167" s="51"/>
+      <c r="P167" s="91"/>
+    </row>
+    <row r="168" spans="1:16">
       <c r="A168" s="27" t="s">
         <v>250</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C168" s="21" t="s">
         <v>276</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E168" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F168" s="27">
         <v>17</v>
@@ -5883,201 +5905,269 @@
       <c r="H168" s="27">
         <v>6</v>
       </c>
-      <c r="I168" s="27"/>
-      <c r="J168" s="27"/>
-      <c r="K168" s="47">
+      <c r="I168" s="27">
+        <v>0</v>
+      </c>
+      <c r="J168" s="27">
+        <v>0</v>
+      </c>
+      <c r="K168" s="92">
         <v>0.33329999999999999</v>
       </c>
-      <c r="L168" s="38"/>
+      <c r="L168" s="48"/>
       <c r="M168" s="27"/>
       <c r="N168" s="27" t="s">
         <v>279</v>
       </c>
       <c r="O168" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P168" s="11"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:16">
       <c r="A169" s="27" t="s">
         <v>251</v>
       </c>
       <c r="B169" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C169" s="21" t="s">
         <v>280</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E169" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="F169" s="27"/>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="27"/>
-      <c r="J169" s="27"/>
-      <c r="K169" s="37"/>
-      <c r="L169" s="38"/>
+        <v>282</v>
+      </c>
+      <c r="F169" s="27">
+        <v>14</v>
+      </c>
+      <c r="G169" s="27">
+        <v>0</v>
+      </c>
+      <c r="H169" s="27">
+        <v>14</v>
+      </c>
+      <c r="I169" s="27">
+        <v>0</v>
+      </c>
+      <c r="J169" s="27">
+        <v>0</v>
+      </c>
+      <c r="K169" s="52">
+        <v>1</v>
+      </c>
+      <c r="L169" s="53"/>
       <c r="M169" s="27"/>
       <c r="N169" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="O169" s="27"/>
+      <c r="O169" s="27" t="s">
+        <v>149</v>
+      </c>
       <c r="P169" s="11"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:16">
       <c r="A170" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="B170" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="C170" s="21" t="s">
+      <c r="B170" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C170" s="37" t="s">
         <v>281</v>
       </c>
       <c r="D170" s="31" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E170" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="F170" s="27"/>
-      <c r="G170" s="27"/>
-      <c r="H170" s="27"/>
-      <c r="I170" s="27"/>
-      <c r="J170" s="27"/>
-      <c r="K170" s="37"/>
-      <c r="L170" s="38"/>
+        <v>277</v>
+      </c>
+      <c r="F170" s="27">
+        <v>13</v>
+      </c>
+      <c r="G170" s="27">
+        <v>0</v>
+      </c>
+      <c r="H170" s="27">
+        <v>13</v>
+      </c>
+      <c r="I170" s="27">
+        <v>0</v>
+      </c>
+      <c r="J170" s="27">
+        <v>0</v>
+      </c>
+      <c r="K170" s="52">
+        <v>1</v>
+      </c>
+      <c r="L170" s="53"/>
       <c r="M170" s="27"/>
       <c r="N170" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="O170" s="27"/>
+        <v>297</v>
+      </c>
+      <c r="O170" s="27" t="s">
+        <v>296</v>
+      </c>
       <c r="P170" s="11"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:16">
       <c r="A171" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="B171" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="C171" s="21" t="s">
+      <c r="B171" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="C171" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="D171" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="E171" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D171" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="E171" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="F171" s="27"/>
-      <c r="G171" s="27"/>
-      <c r="H171" s="27"/>
-      <c r="I171" s="27"/>
-      <c r="J171" s="27"/>
-      <c r="K171" s="37"/>
-      <c r="L171" s="38"/>
+      <c r="F171" s="27">
+        <v>16</v>
+      </c>
+      <c r="G171" s="27">
+        <v>0</v>
+      </c>
+      <c r="H171" s="27">
+        <v>16</v>
+      </c>
+      <c r="I171" s="27">
+        <v>0</v>
+      </c>
+      <c r="J171" s="27">
+        <v>0</v>
+      </c>
+      <c r="K171" s="52">
+        <v>1</v>
+      </c>
+      <c r="L171" s="53"/>
       <c r="M171" s="27"/>
       <c r="N171" s="27" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="O171" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P171" s="11"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:16">
       <c r="A172" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="B172" s="21" t="s">
+      <c r="B172" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="C172" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D172" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="C172" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="D172" s="31" t="s">
-        <v>288</v>
-      </c>
       <c r="E172" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="F172" s="27"/>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="27"/>
-      <c r="K172" s="37"/>
-      <c r="L172" s="38"/>
+        <v>282</v>
+      </c>
+      <c r="F172" s="27">
+        <v>12</v>
+      </c>
+      <c r="G172" s="27">
+        <v>0</v>
+      </c>
+      <c r="H172" s="27">
+        <v>12</v>
+      </c>
+      <c r="I172" s="27">
+        <v>0</v>
+      </c>
+      <c r="J172" s="27">
+        <v>0</v>
+      </c>
+      <c r="K172" s="52">
+        <v>1</v>
+      </c>
+      <c r="L172" s="53"/>
       <c r="M172" s="27"/>
       <c r="N172" s="27" t="s">
         <v>279</v>
       </c>
       <c r="O172" s="27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P172" s="11"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:16">
       <c r="A173" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="B173" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="C173" s="21" t="s">
+      <c r="B173" s="37" t="s">
         <v>294</v>
       </c>
+      <c r="C173" s="37" t="s">
+        <v>295</v>
+      </c>
       <c r="D173" s="31" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="E173" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="27"/>
-      <c r="K173" s="42"/>
-      <c r="L173" s="43"/>
+        <v>282</v>
+      </c>
+      <c r="F173" s="27">
+        <v>14</v>
+      </c>
+      <c r="G173" s="27">
+        <v>0</v>
+      </c>
+      <c r="H173" s="27">
+        <v>14</v>
+      </c>
+      <c r="I173" s="27">
+        <v>0</v>
+      </c>
+      <c r="J173" s="27">
+        <v>0</v>
+      </c>
+      <c r="K173" s="52">
+        <v>1</v>
+      </c>
+      <c r="L173" s="53"/>
       <c r="M173" s="27"/>
       <c r="N173" s="27" t="s">
         <v>279</v>
       </c>
       <c r="O173" s="27" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P173" s="11"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:16">
       <c r="A174" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="B174" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="C174" s="21" t="s">
-        <v>297</v>
+      <c r="B174" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C174" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="D174" s="31" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E174" s="27" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="F174" s="27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G174" s="27">
         <v>0</v>
       </c>
       <c r="H174" s="27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I174" s="27">
         <v>0</v>
@@ -6085,124 +6175,104 @@
       <c r="J174" s="27">
         <v>0</v>
       </c>
-      <c r="K174" s="42">
+      <c r="K174" s="52">
         <v>1</v>
       </c>
-      <c r="L174" s="38"/>
+      <c r="L174" s="53"/>
       <c r="M174" s="27"/>
       <c r="N174" s="27" t="s">
         <v>279</v>
       </c>
       <c r="O174" s="27" t="s">
-        <v>298</v>
+        <v>149</v>
       </c>
       <c r="P174" s="11"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:16">
       <c r="A175" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="B175" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="C175" s="21" t="s">
+      <c r="B175" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C175" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="D175" s="93" t="s">
+        <v>302</v>
+      </c>
+      <c r="E175" s="94" t="s">
         <v>300</v>
       </c>
-      <c r="D175" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="E175" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="F175" s="27">
-        <v>13</v>
-      </c>
-      <c r="G175" s="27">
+      <c r="F175" s="94">
+        <v>17</v>
+      </c>
+      <c r="G175" s="94">
         <v>0</v>
       </c>
-      <c r="H175" s="27">
-        <v>13</v>
-      </c>
-      <c r="I175" s="27">
+      <c r="H175" s="94">
+        <v>17</v>
+      </c>
+      <c r="I175" s="94">
         <v>0</v>
       </c>
-      <c r="J175" s="27">
+      <c r="J175" s="94">
         <v>0</v>
       </c>
-      <c r="K175" s="42">
+      <c r="K175" s="95">
         <v>1</v>
       </c>
-      <c r="L175" s="38"/>
-      <c r="M175" s="27"/>
-      <c r="N175" s="27" t="s">
+      <c r="L175" s="96"/>
+      <c r="M175" s="94"/>
+      <c r="N175" s="94" t="s">
         <v>279</v>
       </c>
-      <c r="O175" s="27"/>
+      <c r="O175" s="27" t="s">
+        <v>149</v>
+      </c>
       <c r="P175" s="11"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:16">
       <c r="A176" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="B176" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="C176" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D176" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="E176" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="F176" s="27">
-        <v>17</v>
-      </c>
-      <c r="G176" s="27">
-        <v>0</v>
-      </c>
-      <c r="H176" s="27">
-        <v>17</v>
-      </c>
-      <c r="I176" s="27">
-        <v>0</v>
-      </c>
-      <c r="J176" s="27">
-        <v>0</v>
-      </c>
-      <c r="K176" s="42">
-        <v>1</v>
-      </c>
-      <c r="L176" s="38"/>
-      <c r="M176" s="27"/>
-      <c r="N176" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="O176" s="27"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="47"/>
+      <c r="L176" s="48"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
+      <c r="O176" s="11"/>
       <c r="P176" s="11"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:16">
       <c r="A177" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="B177" s="21"/>
-      <c r="C177" s="21"/>
-      <c r="D177" s="31"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="27"/>
-      <c r="K177" s="37"/>
-      <c r="L177" s="38"/>
-      <c r="M177" s="27"/>
-      <c r="N177" s="27"/>
-      <c r="O177" s="27"/>
+      <c r="B177" s="39"/>
+      <c r="C177" s="39"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="97"/>
+      <c r="F177" s="97"/>
+      <c r="G177" s="97"/>
+      <c r="H177" s="97"/>
+      <c r="I177" s="97"/>
+      <c r="J177" s="97"/>
+      <c r="K177" s="98"/>
+      <c r="L177" s="99"/>
+      <c r="M177" s="97"/>
+      <c r="N177" s="97"/>
+      <c r="O177" s="97"/>
       <c r="P177" s="11"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:16">
       <c r="A178" s="27" t="s">
         <v>260</v>
       </c>
@@ -6215,14 +6285,14 @@
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
       <c r="J178" s="27"/>
-      <c r="K178" s="37"/>
-      <c r="L178" s="38"/>
+      <c r="K178" s="47"/>
+      <c r="L178" s="48"/>
       <c r="M178" s="27"/>
       <c r="N178" s="27"/>
       <c r="O178" s="27"/>
       <c r="P178" s="11"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:16">
       <c r="A179" s="27" t="s">
         <v>261</v>
       </c>
@@ -6235,14 +6305,14 @@
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
       <c r="J179" s="27"/>
-      <c r="K179" s="37"/>
-      <c r="L179" s="38"/>
+      <c r="K179" s="47"/>
+      <c r="L179" s="48"/>
       <c r="M179" s="27"/>
       <c r="N179" s="27"/>
       <c r="O179" s="27"/>
       <c r="P179" s="11"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:16">
       <c r="A180" s="27" t="s">
         <v>262</v>
       </c>
@@ -6255,14 +6325,14 @@
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
       <c r="J180" s="27"/>
-      <c r="K180" s="37"/>
-      <c r="L180" s="38"/>
+      <c r="K180" s="47"/>
+      <c r="L180" s="48"/>
       <c r="M180" s="27"/>
       <c r="N180" s="27"/>
       <c r="O180" s="27"/>
       <c r="P180" s="11"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:16">
       <c r="A181" s="27" t="s">
         <v>263</v>
       </c>
@@ -6275,14 +6345,14 @@
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
       <c r="J181" s="27"/>
-      <c r="K181" s="37"/>
-      <c r="L181" s="38"/>
+      <c r="K181" s="47"/>
+      <c r="L181" s="48"/>
       <c r="M181" s="27"/>
       <c r="N181" s="27"/>
       <c r="O181" s="27"/>
       <c r="P181" s="11"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:16">
       <c r="A182" s="27" t="s">
         <v>264</v>
       </c>
@@ -6295,14 +6365,14 @@
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
       <c r="J182" s="27"/>
-      <c r="K182" s="37"/>
-      <c r="L182" s="38"/>
+      <c r="K182" s="47"/>
+      <c r="L182" s="48"/>
       <c r="M182" s="27"/>
       <c r="N182" s="27"/>
       <c r="O182" s="27"/>
       <c r="P182" s="11"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:16">
       <c r="A183" s="27" t="s">
         <v>265</v>
       </c>
@@ -6315,14 +6385,14 @@
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
       <c r="J183" s="27"/>
-      <c r="K183" s="37"/>
-      <c r="L183" s="38"/>
+      <c r="K183" s="47"/>
+      <c r="L183" s="48"/>
       <c r="M183" s="27"/>
       <c r="N183" s="27"/>
       <c r="O183" s="27"/>
       <c r="P183" s="11"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:16">
       <c r="A184" s="27" t="s">
         <v>266</v>
       </c>
@@ -6335,14 +6405,14 @@
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
       <c r="J184" s="27"/>
-      <c r="K184" s="37"/>
-      <c r="L184" s="38"/>
+      <c r="K184" s="47"/>
+      <c r="L184" s="48"/>
       <c r="M184" s="27"/>
       <c r="N184" s="27"/>
       <c r="O184" s="27"/>
       <c r="P184" s="11"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:16">
       <c r="A185" s="27" t="s">
         <v>267</v>
       </c>
@@ -6355,14 +6425,14 @@
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
       <c r="J185" s="27"/>
-      <c r="K185" s="37"/>
-      <c r="L185" s="38"/>
+      <c r="K185" s="47"/>
+      <c r="L185" s="48"/>
       <c r="M185" s="27"/>
       <c r="N185" s="27"/>
       <c r="O185" s="27"/>
       <c r="P185" s="11"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:16">
       <c r="A186" s="27" t="s">
         <v>268</v>
       </c>
@@ -6375,14 +6445,14 @@
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
       <c r="J186" s="27"/>
-      <c r="K186" s="37"/>
-      <c r="L186" s="38"/>
+      <c r="K186" s="47"/>
+      <c r="L186" s="48"/>
       <c r="M186" s="27"/>
       <c r="N186" s="27"/>
       <c r="O186" s="27"/>
       <c r="P186" s="11"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:16">
       <c r="A187" s="27" t="s">
         <v>269</v>
       </c>
@@ -6395,14 +6465,14 @@
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
       <c r="J187" s="27"/>
-      <c r="K187" s="37"/>
-      <c r="L187" s="38"/>
+      <c r="K187" s="47"/>
+      <c r="L187" s="48"/>
       <c r="M187" s="27"/>
       <c r="N187" s="27"/>
       <c r="O187" s="27"/>
       <c r="P187" s="11"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:16">
       <c r="A188" s="27" t="s">
         <v>270</v>
       </c>
@@ -6415,14 +6485,14 @@
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
       <c r="J188" s="27"/>
-      <c r="K188" s="37"/>
-      <c r="L188" s="38"/>
+      <c r="K188" s="47"/>
+      <c r="L188" s="48"/>
       <c r="M188" s="27"/>
       <c r="N188" s="27"/>
       <c r="O188" s="27"/>
       <c r="P188" s="11"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:16">
       <c r="A189" s="27" t="s">
         <v>271</v>
       </c>
@@ -6435,14 +6505,14 @@
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
       <c r="J189" s="27"/>
-      <c r="K189" s="37"/>
-      <c r="L189" s="38"/>
+      <c r="K189" s="47"/>
+      <c r="L189" s="48"/>
       <c r="M189" s="27"/>
       <c r="N189" s="27"/>
       <c r="O189" s="27"/>
       <c r="P189" s="11"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:16">
       <c r="A190" s="27" t="s">
         <v>272</v>
       </c>
@@ -6455,14 +6525,14 @@
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
       <c r="J190" s="27"/>
-      <c r="K190" s="39"/>
-      <c r="L190" s="40"/>
+      <c r="K190" s="49"/>
+      <c r="L190" s="50"/>
       <c r="M190" s="27"/>
       <c r="N190" s="27"/>
       <c r="O190" s="27"/>
       <c r="P190" s="11"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:16">
       <c r="A191" s="27" t="s">
         <v>273</v>
       </c>
@@ -6475,14 +6545,14 @@
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
       <c r="J191" s="27"/>
-      <c r="K191" s="37"/>
-      <c r="L191" s="38"/>
+      <c r="K191" s="47"/>
+      <c r="L191" s="48"/>
       <c r="M191" s="27"/>
       <c r="N191" s="27"/>
       <c r="O191" s="27"/>
       <c r="P191" s="11"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:16">
       <c r="A192" s="27" t="s">
         <v>274</v>
       </c>
@@ -6495,14 +6565,14 @@
       <c r="H192" s="27"/>
       <c r="I192" s="27"/>
       <c r="J192" s="27"/>
-      <c r="K192" s="37"/>
-      <c r="L192" s="38"/>
+      <c r="K192" s="47"/>
+      <c r="L192" s="48"/>
       <c r="M192" s="27"/>
       <c r="N192" s="27"/>
       <c r="O192" s="27"/>
       <c r="P192" s="11"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:16">
       <c r="A193" s="27" t="s">
         <v>275</v>
       </c>
@@ -6515,8 +6585,8 @@
       <c r="H193" s="27"/>
       <c r="I193" s="27"/>
       <c r="J193" s="27"/>
-      <c r="K193" s="37"/>
-      <c r="L193" s="38"/>
+      <c r="K193" s="47"/>
+      <c r="L193" s="48"/>
       <c r="M193" s="27"/>
       <c r="N193" s="27"/>
       <c r="O193" s="27"/>
@@ -6525,6 +6595,173 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="191">
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="K191:L191"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="P165:P167"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="K181:L181"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="K171:L171"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="A165:D167"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="F165:J166"/>
+    <mergeCell ref="K165:L167"/>
+    <mergeCell ref="M165:M167"/>
+    <mergeCell ref="N165:N167"/>
+    <mergeCell ref="O165:O167"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="N52:N54"/>
+    <mergeCell ref="O52:O54"/>
+    <mergeCell ref="A52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:J53"/>
+    <mergeCell ref="K52:L54"/>
+    <mergeCell ref="M52:M54"/>
+    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="F1:J2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A35"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="O99:O101"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="F99:J100"/>
+    <mergeCell ref="K99:L101"/>
+    <mergeCell ref="M99:M101"/>
+    <mergeCell ref="N99:N101"/>
+    <mergeCell ref="A99:D101"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A132:D134"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:J133"/>
+    <mergeCell ref="K132:L134"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="K149:L149"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="K142:L142"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="K144:L144"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="K146:L146"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="K136:L136"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M132:M134"/>
+    <mergeCell ref="N132:N134"/>
+    <mergeCell ref="O132:O134"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="C67:C68"/>
@@ -6549,173 +6786,6 @@
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="K72:L72"/>
     <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M132:M134"/>
-    <mergeCell ref="N132:N134"/>
-    <mergeCell ref="O132:O134"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="K155:L155"/>
-    <mergeCell ref="K156:L156"/>
-    <mergeCell ref="K157:L157"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="K140:L140"/>
-    <mergeCell ref="K141:L141"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="K119:L119"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="A132:D134"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:J133"/>
-    <mergeCell ref="K132:L134"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="K153:L153"/>
-    <mergeCell ref="K154:L154"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="K149:L149"/>
-    <mergeCell ref="K150:L150"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="K152:L152"/>
-    <mergeCell ref="K142:L142"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="K144:L144"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="K146:L146"/>
-    <mergeCell ref="K147:L147"/>
-    <mergeCell ref="K135:L135"/>
-    <mergeCell ref="K136:L136"/>
-    <mergeCell ref="K137:L137"/>
-    <mergeCell ref="K138:L138"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="O99:O101"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="F99:J100"/>
-    <mergeCell ref="K99:L101"/>
-    <mergeCell ref="M99:M101"/>
-    <mergeCell ref="N99:N101"/>
-    <mergeCell ref="A99:D101"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="N52:N54"/>
-    <mergeCell ref="O52:O54"/>
-    <mergeCell ref="A52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:J53"/>
-    <mergeCell ref="K52:L54"/>
-    <mergeCell ref="M52:M54"/>
-    <mergeCell ref="K1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="F1:J2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A35"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="K178:L178"/>
-    <mergeCell ref="A165:D167"/>
-    <mergeCell ref="E165:E167"/>
-    <mergeCell ref="F165:J166"/>
-    <mergeCell ref="K165:L167"/>
-    <mergeCell ref="M165:M167"/>
-    <mergeCell ref="N165:N167"/>
-    <mergeCell ref="O165:O167"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="K189:L189"/>
-    <mergeCell ref="K190:L190"/>
-    <mergeCell ref="K191:L191"/>
-    <mergeCell ref="K192:L192"/>
-    <mergeCell ref="K193:L193"/>
-    <mergeCell ref="P165:P167"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="K180:L180"/>
-    <mergeCell ref="K181:L181"/>
-    <mergeCell ref="K182:L182"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="K171:L171"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="K177:L177"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
+++ b/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigae/CWNU19SE_2B/3rd_homework/테스트 결과 보고서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seonj\CWNU19SE_2B\3rd_homework\테스트 결과 보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B332C43D-1731-5348-9997-659E5A9D9326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE1D492-1509-4C59-9A88-9F519B93A5F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="50380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="362">
   <si>
     <t>RQ-001</t>
   </si>
@@ -1171,10 +1171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기상정보와 기상 아이콘이 정상적으로 호출되는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경로 탐색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1183,10 +1179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재 한국 시간을 정수로 출력하는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>checkServiceTime()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1248,6 +1240,106 @@
   </si>
   <si>
     <t>입력된 위치에서 가장 가까운 누비자 터미널 3개를 출력하였는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookmarkSet:setLocationAsBM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 장소가 출발지 또는 목적지로 설정되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookmarSet:setLocationAsR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recent:loadRecentPlaceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 기록이 정상적으로 호출되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bookmark:loadBookmarkPlaceLIst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크 기록이 정상적으로 호출되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bookmark:manageBookmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 값이 북마크 기록에 정상적으로 추가되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 값이 북마크 기록에 정상적으로 삭제되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-05~2019-11-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-03~2019-11-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-01~2019-11-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-06~2019-11-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-05~2019-11-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-12~2019-11-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-10~2019-11-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-15~2019-11-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-17~2019-11-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상정보와 기상 아이콘이 정상적으로 반환되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 한국 시간을 정수로 반환하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-15~2019-11-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-13~2019-11-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-10~2019-11-11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1256,9 +1348,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1729,11 +1821,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1844,6 +1936,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1853,33 +2014,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1970,46 +2104,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2329,74 +2427,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="140" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" topLeftCell="E52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="107.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="107.19921875" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="51" t="s">
+      <c r="L1" s="59"/>
+      <c r="M1" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="60" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="16" t="s">
         <v>85</v>
       </c>
@@ -2412,17 +2510,17 @@
       <c r="J3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="82" t="s">
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="51" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -2443,10 +2541,10 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="82"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="85" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="96"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="99" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -2464,10 +2562,10 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="86"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="96"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="13" t="s">
         <v>1</v>
       </c>
@@ -2483,9 +2581,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="91"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="96"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="19" t="s">
         <v>35</v>
       </c>
@@ -2504,10 +2602,10 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="87" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="96"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="62" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -2525,10 +2623,10 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="83"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="86"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="97"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="13" t="s">
         <v>37</v>
       </c>
@@ -2544,14 +2642,14 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="84" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2569,10 +2667,10 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="82"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="86"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="96"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="13" t="s">
         <v>28</v>
       </c>
@@ -2588,12 +2686,12 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="82"/>
-      <c r="B12" s="44" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="96"/>
+      <c r="B12" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="64" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -2611,10 +2709,10 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="82"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="89"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="96"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="13" t="s">
         <v>42</v>
       </c>
@@ -2630,10 +2728,10 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="82"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="90"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="96"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="13" t="s">
         <v>43</v>
       </c>
@@ -2649,14 +2747,14 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="64" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -2674,10 +2772,10 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="90"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="13" t="s">
         <v>4</v>
       </c>
@@ -2693,10 +2791,10 @@
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="88" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="64" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -2714,10 +2812,10 @@
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="90"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="13" t="s">
         <v>48</v>
       </c>
@@ -2733,9 +2831,9 @@
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="7" t="s">
         <v>50</v>
       </c>
@@ -2754,9 +2852,9 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="44" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="68"/>
+      <c r="B20" s="67" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -2777,9 +2875,9 @@
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="68"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="7" t="s">
         <v>53</v>
       </c>
@@ -2798,9 +2896,9 @@
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="68"/>
+      <c r="B22" s="68" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -2821,9 +2919,9 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="68"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
@@ -2842,9 +2940,9 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="45"/>
-      <c r="B24" s="44" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="68"/>
+      <c r="B24" s="67" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2865,9 +2963,9 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="68"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="7" t="s">
         <v>22</v>
       </c>
@@ -2886,12 +2984,12 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="45"/>
-      <c r="B26" s="44" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="68"/>
+      <c r="B26" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="64" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -2909,10 +3007,10 @@
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="89"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="13" t="s">
         <v>66</v>
       </c>
@@ -2928,10 +3026,10 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="89"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="13" t="s">
         <v>68</v>
       </c>
@@ -2947,10 +3045,10 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="90"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="13" t="s">
         <v>69</v>
       </c>
@@ -2966,9 +3064,9 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="68"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="7" t="s">
         <v>59</v>
       </c>
@@ -2987,12 +3085,12 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="45"/>
-      <c r="B31" s="44" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="68"/>
+      <c r="B31" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="64" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -3010,10 +3108,10 @@
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="90"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="13" t="s">
         <v>74</v>
       </c>
@@ -3029,9 +3127,9 @@
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="68"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="9" t="s">
         <v>59</v>
       </c>
@@ -3050,9 +3148,9 @@
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="44" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A34" s="68"/>
+      <c r="B34" s="67" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -3073,9 +3171,9 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="10" t="s">
         <v>59</v>
       </c>
@@ -3094,11 +3192,11 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="45" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="67" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -3119,9 +3217,9 @@
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="7" t="s">
         <v>80</v>
       </c>
@@ -3140,10 +3238,10 @@
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="88" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A38" s="68"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="64" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -3161,10 +3259,10 @@
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="45"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="89"/>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39" s="68"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="13" t="s">
         <v>63</v>
       </c>
@@ -3180,12 +3278,12 @@
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A40" s="68"/>
+      <c r="B40" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="89"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="13" t="s">
         <v>6</v>
       </c>
@@ -3201,10 +3299,10 @@
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="90"/>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="13" t="s">
         <v>9</v>
       </c>
@@ -3220,9 +3318,9 @@
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="7" t="s">
         <v>82</v>
       </c>
@@ -3241,23 +3339,23 @@
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="4"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C45" s="4"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>10</v>
       </c>
@@ -3282,11 +3380,11 @@
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="80" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A47" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -3307,9 +3405,9 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="81"/>
-      <c r="B48" s="79"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A48" s="95"/>
+      <c r="B48" s="93"/>
       <c r="C48" s="5" t="s">
         <v>16</v>
       </c>
@@ -3328,7 +3426,7 @@
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>18</v>
       </c>
@@ -3353,60 +3451,60 @@
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
     </row>
-    <row r="52" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A52" s="59" t="s">
+    <row r="52" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="68" t="s">
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="71" t="s">
+      <c r="F52" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="71" t="s">
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="L52" s="73"/>
-      <c r="M52" s="56" t="s">
+      <c r="L52" s="87"/>
+      <c r="M52" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="N52" s="56" t="s">
+      <c r="N52" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="O52" s="56" t="s">
+      <c r="O52" s="70" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-    </row>
-    <row r="54" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A54" s="65"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="70"/>
+    <row r="53" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="76"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="92"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+    </row>
+    <row r="54" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="79"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="84"/>
       <c r="F54" s="17" t="s">
         <v>85</v>
       </c>
@@ -3422,17 +3520,17 @@
       <c r="J54" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="K54" s="74"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="58"/>
-      <c r="O54" s="58"/>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="K54" s="88"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="67" t="s">
         <v>313</v>
       </c>
       <c r="C55" s="20" t="s">
@@ -3441,7 +3539,9 @@
       <c r="D55" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="E55" s="27"/>
+      <c r="E55" s="100" t="s">
+        <v>351</v>
+      </c>
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
@@ -3450,21 +3550,27 @@
       <c r="K55" s="47"/>
       <c r="L55" s="48"/>
       <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="N55" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="O55" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="B56" s="45"/>
+      <c r="B56" s="68"/>
       <c r="C56" s="20" t="s">
         <v>316</v>
       </c>
       <c r="D56" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E56" s="27"/>
+      <c r="E56" s="101" t="s">
+        <v>348</v>
+      </c>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
@@ -3473,21 +3579,27 @@
       <c r="K56" s="47"/>
       <c r="L56" s="48"/>
       <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="N56" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="O56" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="B57" s="46"/>
+      <c r="B57" s="69"/>
       <c r="C57" s="20" t="s">
         <v>315</v>
       </c>
       <c r="D57" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="E57" s="27"/>
+      <c r="E57" s="27" t="s">
+        <v>349</v>
+      </c>
       <c r="F57" s="27"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
@@ -3496,14 +3608,18 @@
       <c r="K57" s="47"/>
       <c r="L57" s="48"/>
       <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="N57" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="O57" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="67" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="35" t="s">
@@ -3512,7 +3628,9 @@
       <c r="D58" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="E58" s="27"/>
+      <c r="E58" s="27" t="s">
+        <v>350</v>
+      </c>
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
@@ -3521,21 +3639,27 @@
       <c r="K58" s="47"/>
       <c r="L58" s="48"/>
       <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="N58" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="O58" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A59" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="B59" s="45"/>
+      <c r="B59" s="68"/>
       <c r="C59" s="35" t="s">
         <v>309</v>
       </c>
       <c r="D59" s="41" t="s">
-        <v>330</v>
-      </c>
-      <c r="E59" s="27"/>
+        <v>328</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>349</v>
+      </c>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
@@ -3544,21 +3668,27 @@
       <c r="K59" s="47"/>
       <c r="L59" s="48"/>
       <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="N59" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="O59" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B60" s="46"/>
+      <c r="B60" s="69"/>
       <c r="C60" s="35" t="s">
         <v>308</v>
       </c>
       <c r="D60" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="E60" s="27"/>
+      <c r="E60" s="27" t="s">
+        <v>352</v>
+      </c>
       <c r="F60" s="27"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
@@ -3567,10 +3697,14 @@
       <c r="K60" s="47"/>
       <c r="L60" s="48"/>
       <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="N60" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="O60" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="27" t="s">
         <v>213</v>
       </c>
@@ -3581,9 +3715,11 @@
         <v>318</v>
       </c>
       <c r="D61" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="E61" s="27"/>
+        <v>357</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>349</v>
+      </c>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
@@ -3592,23 +3728,29 @@
       <c r="K61" s="47"/>
       <c r="L61" s="48"/>
       <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="N61" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="O61" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="67" t="s">
+        <v>319</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="C62" s="20" t="s">
-        <v>321</v>
-      </c>
       <c r="D62" s="41" t="s">
-        <v>322</v>
-      </c>
-      <c r="E62" s="27"/>
+        <v>358</v>
+      </c>
+      <c r="E62" s="100">
+        <v>43779</v>
+      </c>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
@@ -3617,21 +3759,27 @@
       <c r="K62" s="49"/>
       <c r="L62" s="50"/>
       <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="N62" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="O62" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="B63" s="45"/>
+      <c r="B63" s="68"/>
       <c r="C63" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D63" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="E63" s="27"/>
+        <v>322</v>
+      </c>
+      <c r="E63" s="100">
+        <v>43779</v>
+      </c>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
@@ -3640,21 +3788,27 @@
       <c r="K63" s="47"/>
       <c r="L63" s="48"/>
       <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="N63" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="O63" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="B64" s="45"/>
+      <c r="B64" s="68"/>
       <c r="C64" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="E64" s="27"/>
+        <v>324</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>353</v>
+      </c>
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
@@ -3663,21 +3817,27 @@
       <c r="K64" s="47"/>
       <c r="L64" s="48"/>
       <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-    </row>
-    <row r="65" spans="1:15">
+      <c r="N64" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="O64" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="B65" s="45"/>
+      <c r="B65" s="68"/>
       <c r="C65" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="E65" s="27"/>
+        <v>326</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>354</v>
+      </c>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
@@ -3686,21 +3846,27 @@
       <c r="K65" s="47"/>
       <c r="L65" s="48"/>
       <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="N65" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="O65" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="B66" s="45"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="D66" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="E66" s="27"/>
+      <c r="E66" s="27" t="s">
+        <v>353</v>
+      </c>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
@@ -3709,21 +3875,27 @@
       <c r="K66" s="47"/>
       <c r="L66" s="48"/>
       <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="N66" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="O66" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="B67" s="45"/>
-      <c r="C67" s="44" t="s">
-        <v>332</v>
+      <c r="B67" s="68"/>
+      <c r="C67" s="67" t="s">
+        <v>330</v>
       </c>
       <c r="D67" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="E67" s="27"/>
+        <v>331</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>355</v>
+      </c>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
@@ -3732,19 +3904,25 @@
       <c r="K67" s="49"/>
       <c r="L67" s="50"/>
       <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="N67" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="O67" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="B68" s="45"/>
-      <c r="C68" s="46"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="69"/>
       <c r="D68" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="E68" s="27"/>
+        <v>332</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>356</v>
+      </c>
       <c r="F68" s="27"/>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
@@ -3753,21 +3931,27 @@
       <c r="K68" s="47"/>
       <c r="L68" s="48"/>
       <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="N68" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="O68" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B69" s="45"/>
+      <c r="B69" s="68"/>
       <c r="C69" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D69" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="E69" s="27"/>
+        <v>334</v>
+      </c>
+      <c r="E69" s="100">
+        <v>43774</v>
+      </c>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
@@ -3776,21 +3960,27 @@
       <c r="K69" s="47"/>
       <c r="L69" s="48"/>
       <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="N69" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="O69" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="B70" s="46"/>
+      <c r="B70" s="68"/>
       <c r="C70" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D70" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="E70" s="27"/>
+        <v>336</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>359</v>
+      </c>
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
@@ -3799,17 +3989,27 @@
       <c r="K70" s="47"/>
       <c r="L70" s="48"/>
       <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="N70" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="O70" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A71" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="27"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>360</v>
+      </c>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
@@ -3818,17 +4018,27 @@
       <c r="K71" s="47"/>
       <c r="L71" s="48"/>
       <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="N71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="O71" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="27"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>360</v>
+      </c>
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
@@ -3837,17 +4047,29 @@
       <c r="K72" s="47"/>
       <c r="L72" s="48"/>
       <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="N72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="O72" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A73" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="27"/>
+      <c r="B73" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>353</v>
+      </c>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
@@ -3856,17 +4078,27 @@
       <c r="K73" s="47"/>
       <c r="L73" s="48"/>
       <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27"/>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="N73" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="O73" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A74" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="27"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>353</v>
+      </c>
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
@@ -3875,17 +4107,27 @@
       <c r="K74" s="47"/>
       <c r="L74" s="48"/>
       <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="N74" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="O74" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="27"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="67" t="s">
+        <v>345</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>361</v>
+      </c>
       <c r="F75" s="27"/>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
@@ -3894,17 +4136,25 @@
       <c r="K75" s="47"/>
       <c r="L75" s="48"/>
       <c r="M75" s="27"/>
-      <c r="N75" s="27"/>
-      <c r="O75" s="27"/>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="N75" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="O75" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A76" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="27"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>361</v>
+      </c>
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
@@ -3913,10 +4163,14 @@
       <c r="K76" s="47"/>
       <c r="L76" s="48"/>
       <c r="M76" s="27"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="27"/>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="N76" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="O76" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A77" s="27" t="s">
         <v>229</v>
       </c>
@@ -3935,7 +4189,7 @@
       <c r="N77" s="27"/>
       <c r="O77" s="27"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A78" s="27" t="s">
         <v>230</v>
       </c>
@@ -3954,7 +4208,7 @@
       <c r="N78" s="27"/>
       <c r="O78" s="27"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A79" s="27" t="s">
         <v>231</v>
       </c>
@@ -3973,7 +4227,7 @@
       <c r="N79" s="27"/>
       <c r="O79" s="27"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A80" s="27" t="s">
         <v>232</v>
       </c>
@@ -3992,7 +4246,7 @@
       <c r="N80" s="27"/>
       <c r="O80" s="27"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A81" s="27" t="s">
         <v>233</v>
       </c>
@@ -4011,7 +4265,7 @@
       <c r="N81" s="27"/>
       <c r="O81" s="27"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A82" s="27" t="s">
         <v>234</v>
       </c>
@@ -4030,7 +4284,7 @@
       <c r="N82" s="27"/>
       <c r="O82" s="27"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A83" s="27" t="s">
         <v>235</v>
       </c>
@@ -4049,7 +4303,7 @@
       <c r="N83" s="27"/>
       <c r="O83" s="27"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A84" s="27" t="s">
         <v>236</v>
       </c>
@@ -4068,7 +4322,7 @@
       <c r="N84" s="27"/>
       <c r="O84" s="27"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A85" s="27" t="s">
         <v>237</v>
       </c>
@@ -4087,7 +4341,7 @@
       <c r="N85" s="27"/>
       <c r="O85" s="27"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A86" s="27" t="s">
         <v>238</v>
       </c>
@@ -4106,7 +4360,7 @@
       <c r="N86" s="27"/>
       <c r="O86" s="27"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A87" s="27" t="s">
         <v>239</v>
       </c>
@@ -4125,7 +4379,7 @@
       <c r="N87" s="27"/>
       <c r="O87" s="27"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A88" s="27" t="s">
         <v>240</v>
       </c>
@@ -4144,7 +4398,7 @@
       <c r="N88" s="27"/>
       <c r="O88" s="27"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A89" s="27" t="s">
         <v>241</v>
       </c>
@@ -4163,7 +4417,7 @@
       <c r="N89" s="27"/>
       <c r="O89" s="27"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A90" s="27" t="s">
         <v>242</v>
       </c>
@@ -4182,7 +4436,7 @@
       <c r="N90" s="27"/>
       <c r="O90" s="27"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A91" s="27" t="s">
         <v>243</v>
       </c>
@@ -4201,7 +4455,7 @@
       <c r="N91" s="27"/>
       <c r="O91" s="27"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A92" s="27" t="s">
         <v>244</v>
       </c>
@@ -4220,7 +4474,7 @@
       <c r="N92" s="27"/>
       <c r="O92" s="27"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93" s="27" t="s">
         <v>245</v>
       </c>
@@ -4239,7 +4493,7 @@
       <c r="N93" s="27"/>
       <c r="O93" s="27"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -4256,7 +4510,7 @@
       <c r="N94" s="28"/>
       <c r="O94" s="28"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -4273,7 +4527,7 @@
       <c r="N95" s="28"/>
       <c r="O95" s="28"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -4290,7 +4544,7 @@
       <c r="N96" s="28"/>
       <c r="O96" s="28"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97" s="28"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -4307,7 +4561,7 @@
       <c r="N97" s="28"/>
       <c r="O97" s="28"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A98" s="28"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
@@ -4324,60 +4578,60 @@
       <c r="N98" s="28"/>
       <c r="O98" s="28"/>
     </row>
-    <row r="99" spans="1:15">
-      <c r="A99" s="54" t="s">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A99" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="54"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="55" t="s">
+      <c r="B99" s="58"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="F99" s="55" t="s">
+      <c r="F99" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="G99" s="55"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="55"/>
-      <c r="J99" s="55"/>
-      <c r="K99" s="55" t="s">
+      <c r="G99" s="59"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="59"/>
+      <c r="K99" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="L99" s="55"/>
-      <c r="M99" s="51" t="s">
+      <c r="L99" s="59"/>
+      <c r="M99" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="N99" s="51" t="s">
+      <c r="N99" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="O99" s="51" t="s">
+      <c r="O99" s="60" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
-      <c r="A100" s="54"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="55"/>
-      <c r="J100" s="55"/>
-      <c r="K100" s="55"/>
-      <c r="L100" s="55"/>
-      <c r="M100" s="51"/>
-      <c r="N100" s="51"/>
-      <c r="O100" s="51"/>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="54"/>
-      <c r="B101" s="54"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="55"/>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A100" s="58"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="60"/>
+      <c r="N100" s="60"/>
+      <c r="O100" s="60"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A101" s="58"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="59"/>
       <c r="F101" s="17" t="s">
         <v>85</v>
       </c>
@@ -4393,17 +4647,17 @@
       <c r="J101" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="K101" s="55"/>
-      <c r="L101" s="55"/>
-      <c r="M101" s="51"/>
-      <c r="N101" s="51"/>
-      <c r="O101" s="51"/>
-    </row>
-    <row r="102" spans="1:15">
+      <c r="K101" s="59"/>
+      <c r="L101" s="59"/>
+      <c r="M101" s="60"/>
+      <c r="N101" s="60"/>
+      <c r="O101" s="60"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A102" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="B102" s="44" t="s">
+      <c r="B102" s="67" t="s">
         <v>99</v>
       </c>
       <c r="C102" s="20" t="s">
@@ -4430,11 +4684,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A103" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B103" s="45"/>
+      <c r="B103" s="68"/>
       <c r="C103" s="20" t="s">
         <v>100</v>
       </c>
@@ -4459,11 +4713,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A104" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="B104" s="45"/>
+      <c r="B104" s="68"/>
       <c r="C104" s="20" t="s">
         <v>104</v>
       </c>
@@ -4488,11 +4742,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A105" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B105" s="45"/>
+      <c r="B105" s="68"/>
       <c r="C105" s="20" t="s">
         <v>101</v>
       </c>
@@ -4517,11 +4771,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A106" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B106" s="45"/>
+      <c r="B106" s="68"/>
       <c r="C106" s="20" t="s">
         <v>105</v>
       </c>
@@ -4546,11 +4800,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A107" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B107" s="46"/>
+      <c r="B107" s="69"/>
       <c r="C107" s="20" t="s">
         <v>102</v>
       </c>
@@ -4575,11 +4829,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A108" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B108" s="44" t="s">
+      <c r="B108" s="67" t="s">
         <v>107</v>
       </c>
       <c r="C108" s="20" t="s">
@@ -4606,11 +4860,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A109" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B109" s="45"/>
+      <c r="B109" s="68"/>
       <c r="C109" s="20" t="s">
         <v>116</v>
       </c>
@@ -4635,11 +4889,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A110" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="B110" s="45"/>
+      <c r="B110" s="68"/>
       <c r="C110" s="20" t="s">
         <v>113</v>
       </c>
@@ -4664,11 +4918,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A111" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B111" s="45"/>
+      <c r="B111" s="68"/>
       <c r="C111" s="20" t="s">
         <v>109</v>
       </c>
@@ -4693,11 +4947,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A112" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="B112" s="45"/>
+      <c r="B112" s="68"/>
       <c r="C112" s="29" t="s">
         <v>112</v>
       </c>
@@ -4722,11 +4976,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A113" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="B113" s="46"/>
+      <c r="B113" s="69"/>
       <c r="C113" s="20" t="s">
         <v>110</v>
       </c>
@@ -4751,11 +5005,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A114" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="B114" s="44" t="s">
+      <c r="B114" s="67" t="s">
         <v>111</v>
       </c>
       <c r="C114" s="20" t="s">
@@ -4782,11 +5036,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A115" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="B115" s="45"/>
+      <c r="B115" s="68"/>
       <c r="C115" s="20" t="s">
         <v>116</v>
       </c>
@@ -4811,11 +5065,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A116" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="B116" s="45"/>
+      <c r="B116" s="68"/>
       <c r="C116" s="20" t="s">
         <v>114</v>
       </c>
@@ -4840,11 +5094,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A117" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B117" s="45"/>
+      <c r="B117" s="68"/>
       <c r="C117" s="20" t="s">
         <v>112</v>
       </c>
@@ -4869,11 +5123,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A118" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="B118" s="46"/>
+      <c r="B118" s="69"/>
       <c r="C118" s="20" t="s">
         <v>115</v>
       </c>
@@ -4898,11 +5152,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A119" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B119" s="44" t="s">
+      <c r="B119" s="67" t="s">
         <v>116</v>
       </c>
       <c r="C119" s="20" t="s">
@@ -4929,11 +5183,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A120" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="B120" s="45"/>
+      <c r="B120" s="68"/>
       <c r="C120" s="20" t="s">
         <v>138</v>
       </c>
@@ -4958,11 +5212,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A121" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="B121" s="46"/>
+      <c r="B121" s="69"/>
       <c r="C121" s="20" t="s">
         <v>117</v>
       </c>
@@ -4987,11 +5241,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A122" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="B122" s="44" t="s">
+      <c r="B122" s="67" t="s">
         <v>125</v>
       </c>
       <c r="C122" s="20" t="s">
@@ -5018,12 +5272,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A123" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="B123" s="45"/>
-      <c r="C123" s="44" t="s">
+      <c r="B123" s="68"/>
+      <c r="C123" s="67" t="s">
         <v>125</v>
       </c>
       <c r="D123" s="31" t="s">
@@ -5047,12 +5301,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A124" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B124" s="45"/>
-      <c r="C124" s="46"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="69"/>
       <c r="D124" s="31" t="s">
         <v>128</v>
       </c>
@@ -5074,11 +5328,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A125" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B125" s="46"/>
+      <c r="B125" s="69"/>
       <c r="C125" s="20" t="s">
         <v>108</v>
       </c>
@@ -5103,11 +5357,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A126" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="B126" s="44" t="s">
+      <c r="B126" s="67" t="s">
         <v>142</v>
       </c>
       <c r="C126" s="20" t="s">
@@ -5134,11 +5388,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A127" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B127" s="46"/>
+      <c r="B127" s="69"/>
       <c r="C127" s="20" t="s">
         <v>145</v>
       </c>
@@ -5163,7 +5417,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A128" s="28"/>
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
@@ -5180,7 +5434,7 @@
       <c r="N128" s="28"/>
       <c r="O128" s="28"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A129" s="28"/>
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
@@ -5197,7 +5451,7 @@
       <c r="N129" s="28"/>
       <c r="O129" s="28"/>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A130" s="28"/>
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
@@ -5214,7 +5468,7 @@
       <c r="N130" s="28"/>
       <c r="O130" s="28"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A131" s="28"/>
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
@@ -5231,60 +5485,60 @@
       <c r="N131" s="28"/>
       <c r="O131" s="28"/>
     </row>
-    <row r="132" spans="1:15">
-      <c r="A132" s="54" t="s">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A132" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B132" s="54"/>
-      <c r="C132" s="54"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="55" t="s">
+      <c r="B132" s="58"/>
+      <c r="C132" s="58"/>
+      <c r="D132" s="58"/>
+      <c r="E132" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="F132" s="55" t="s">
+      <c r="F132" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="G132" s="55"/>
-      <c r="H132" s="55"/>
-      <c r="I132" s="55"/>
-      <c r="J132" s="55"/>
-      <c r="K132" s="55" t="s">
+      <c r="G132" s="59"/>
+      <c r="H132" s="59"/>
+      <c r="I132" s="59"/>
+      <c r="J132" s="59"/>
+      <c r="K132" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="L132" s="55"/>
-      <c r="M132" s="51" t="s">
+      <c r="L132" s="59"/>
+      <c r="M132" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="N132" s="51" t="s">
+      <c r="N132" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="O132" s="51" t="s">
+      <c r="O132" s="60" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
-      <c r="A133" s="54"/>
-      <c r="B133" s="54"/>
-      <c r="C133" s="54"/>
-      <c r="D133" s="54"/>
-      <c r="E133" s="55"/>
-      <c r="F133" s="55"/>
-      <c r="G133" s="55"/>
-      <c r="H133" s="55"/>
-      <c r="I133" s="55"/>
-      <c r="J133" s="55"/>
-      <c r="K133" s="55"/>
-      <c r="L133" s="55"/>
-      <c r="M133" s="51"/>
-      <c r="N133" s="51"/>
-      <c r="O133" s="51"/>
-    </row>
-    <row r="134" spans="1:15">
-      <c r="A134" s="54"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="54"/>
-      <c r="D134" s="54"/>
-      <c r="E134" s="55"/>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A133" s="58"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="58"/>
+      <c r="D133" s="58"/>
+      <c r="E133" s="59"/>
+      <c r="F133" s="59"/>
+      <c r="G133" s="59"/>
+      <c r="H133" s="59"/>
+      <c r="I133" s="59"/>
+      <c r="J133" s="59"/>
+      <c r="K133" s="59"/>
+      <c r="L133" s="59"/>
+      <c r="M133" s="60"/>
+      <c r="N133" s="60"/>
+      <c r="O133" s="60"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A134" s="58"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="59"/>
       <c r="F134" s="17" t="s">
         <v>85</v>
       </c>
@@ -5300,13 +5554,13 @@
       <c r="J134" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="K134" s="55"/>
-      <c r="L134" s="55"/>
-      <c r="M134" s="51"/>
-      <c r="N134" s="51"/>
-      <c r="O134" s="51"/>
-    </row>
-    <row r="135" spans="1:15">
+      <c r="K134" s="59"/>
+      <c r="L134" s="59"/>
+      <c r="M134" s="60"/>
+      <c r="N134" s="60"/>
+      <c r="O134" s="60"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A135" s="27" t="s">
         <v>155</v>
       </c>
@@ -5325,7 +5579,7 @@
       <c r="N135" s="27"/>
       <c r="O135" s="27"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A136" s="27" t="s">
         <v>156</v>
       </c>
@@ -5344,7 +5598,7 @@
       <c r="N136" s="27"/>
       <c r="O136" s="27"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A137" s="27" t="s">
         <v>157</v>
       </c>
@@ -5363,7 +5617,7 @@
       <c r="N137" s="27"/>
       <c r="O137" s="27"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A138" s="27" t="s">
         <v>158</v>
       </c>
@@ -5382,7 +5636,7 @@
       <c r="N138" s="27"/>
       <c r="O138" s="27"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A139" s="27" t="s">
         <v>159</v>
       </c>
@@ -5401,7 +5655,7 @@
       <c r="N139" s="27"/>
       <c r="O139" s="27"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A140" s="27" t="s">
         <v>160</v>
       </c>
@@ -5420,7 +5674,7 @@
       <c r="N140" s="27"/>
       <c r="O140" s="27"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A141" s="27" t="s">
         <v>161</v>
       </c>
@@ -5439,7 +5693,7 @@
       <c r="N141" s="27"/>
       <c r="O141" s="27"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A142" s="27" t="s">
         <v>162</v>
       </c>
@@ -5458,7 +5712,7 @@
       <c r="N142" s="27"/>
       <c r="O142" s="27"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A143" s="27" t="s">
         <v>163</v>
       </c>
@@ -5477,7 +5731,7 @@
       <c r="N143" s="27"/>
       <c r="O143" s="27"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A144" s="27" t="s">
         <v>164</v>
       </c>
@@ -5496,7 +5750,7 @@
       <c r="N144" s="27"/>
       <c r="O144" s="27"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A145" s="27" t="s">
         <v>165</v>
       </c>
@@ -5515,7 +5769,7 @@
       <c r="N145" s="27"/>
       <c r="O145" s="27"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A146" s="27" t="s">
         <v>166</v>
       </c>
@@ -5534,7 +5788,7 @@
       <c r="N146" s="27"/>
       <c r="O146" s="27"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A147" s="27" t="s">
         <v>167</v>
       </c>
@@ -5553,7 +5807,7 @@
       <c r="N147" s="27"/>
       <c r="O147" s="27"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A148" s="27" t="s">
         <v>168</v>
       </c>
@@ -5572,7 +5826,7 @@
       <c r="N148" s="27"/>
       <c r="O148" s="27"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A149" s="27" t="s">
         <v>169</v>
       </c>
@@ -5591,7 +5845,7 @@
       <c r="N149" s="27"/>
       <c r="O149" s="27"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A150" s="27" t="s">
         <v>170</v>
       </c>
@@ -5610,7 +5864,7 @@
       <c r="N150" s="27"/>
       <c r="O150" s="27"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A151" s="27" t="s">
         <v>171</v>
       </c>
@@ -5629,7 +5883,7 @@
       <c r="N151" s="27"/>
       <c r="O151" s="27"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A152" s="27" t="s">
         <v>172</v>
       </c>
@@ -5648,7 +5902,7 @@
       <c r="N152" s="27"/>
       <c r="O152" s="27"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A153" s="27" t="s">
         <v>173</v>
       </c>
@@ -5667,7 +5921,7 @@
       <c r="N153" s="27"/>
       <c r="O153" s="27"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A154" s="27" t="s">
         <v>174</v>
       </c>
@@ -5686,7 +5940,7 @@
       <c r="N154" s="27"/>
       <c r="O154" s="27"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A155" s="27" t="s">
         <v>175</v>
       </c>
@@ -5705,7 +5959,7 @@
       <c r="N155" s="27"/>
       <c r="O155" s="27"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A156" s="27" t="s">
         <v>176</v>
       </c>
@@ -5724,7 +5978,7 @@
       <c r="N156" s="27"/>
       <c r="O156" s="27"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A157" s="27" t="s">
         <v>177</v>
       </c>
@@ -5743,7 +5997,7 @@
       <c r="N157" s="27"/>
       <c r="O157" s="27"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A158" s="27" t="s">
         <v>178</v>
       </c>
@@ -5762,7 +6016,7 @@
       <c r="N158" s="27"/>
       <c r="O158" s="27"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A159" s="27" t="s">
         <v>179</v>
       </c>
@@ -5781,7 +6035,7 @@
       <c r="N159" s="27"/>
       <c r="O159" s="27"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A160" s="27" t="s">
         <v>180</v>
       </c>
@@ -5800,64 +6054,64 @@
       <c r="N160" s="27"/>
       <c r="O160" s="27"/>
     </row>
-    <row r="165" spans="1:16">
-      <c r="A165" s="54" t="s">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A165" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="B165" s="54"/>
-      <c r="C165" s="54"/>
-      <c r="D165" s="54"/>
-      <c r="E165" s="55" t="s">
+      <c r="B165" s="58"/>
+      <c r="C165" s="58"/>
+      <c r="D165" s="58"/>
+      <c r="E165" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="F165" s="55" t="s">
+      <c r="F165" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="G165" s="55"/>
-      <c r="H165" s="55"/>
-      <c r="I165" s="55"/>
-      <c r="J165" s="55"/>
-      <c r="K165" s="55" t="s">
+      <c r="G165" s="59"/>
+      <c r="H165" s="59"/>
+      <c r="I165" s="59"/>
+      <c r="J165" s="59"/>
+      <c r="K165" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="L165" s="55"/>
-      <c r="M165" s="51" t="s">
+      <c r="L165" s="59"/>
+      <c r="M165" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="N165" s="51" t="s">
+      <c r="N165" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="O165" s="51" t="s">
+      <c r="O165" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="P165" s="91" t="s">
+      <c r="P165" s="51" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
-      <c r="A166" s="54"/>
-      <c r="B166" s="54"/>
-      <c r="C166" s="54"/>
-      <c r="D166" s="54"/>
-      <c r="E166" s="55"/>
-      <c r="F166" s="55"/>
-      <c r="G166" s="55"/>
-      <c r="H166" s="55"/>
-      <c r="I166" s="55"/>
-      <c r="J166" s="55"/>
-      <c r="K166" s="55"/>
-      <c r="L166" s="55"/>
-      <c r="M166" s="51"/>
-      <c r="N166" s="51"/>
-      <c r="O166" s="51"/>
-      <c r="P166" s="91"/>
-    </row>
-    <row r="167" spans="1:16">
-      <c r="A167" s="54"/>
-      <c r="B167" s="54"/>
-      <c r="C167" s="54"/>
-      <c r="D167" s="54"/>
-      <c r="E167" s="55"/>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A166" s="58"/>
+      <c r="B166" s="58"/>
+      <c r="C166" s="58"/>
+      <c r="D166" s="58"/>
+      <c r="E166" s="59"/>
+      <c r="F166" s="59"/>
+      <c r="G166" s="59"/>
+      <c r="H166" s="59"/>
+      <c r="I166" s="59"/>
+      <c r="J166" s="59"/>
+      <c r="K166" s="59"/>
+      <c r="L166" s="59"/>
+      <c r="M166" s="60"/>
+      <c r="N166" s="60"/>
+      <c r="O166" s="60"/>
+      <c r="P166" s="51"/>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A167" s="58"/>
+      <c r="B167" s="58"/>
+      <c r="C167" s="58"/>
+      <c r="D167" s="58"/>
+      <c r="E167" s="59"/>
       <c r="F167" s="23" t="s">
         <v>85</v>
       </c>
@@ -5873,14 +6127,14 @@
       <c r="J167" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="K167" s="55"/>
-      <c r="L167" s="55"/>
-      <c r="M167" s="51"/>
-      <c r="N167" s="51"/>
-      <c r="O167" s="51"/>
-      <c r="P167" s="91"/>
-    </row>
-    <row r="168" spans="1:16">
+      <c r="K167" s="59"/>
+      <c r="L167" s="59"/>
+      <c r="M167" s="60"/>
+      <c r="N167" s="60"/>
+      <c r="O167" s="60"/>
+      <c r="P167" s="51"/>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A168" s="27" t="s">
         <v>250</v>
       </c>
@@ -5911,7 +6165,7 @@
       <c r="J168" s="27">
         <v>0</v>
       </c>
-      <c r="K168" s="92">
+      <c r="K168" s="61">
         <v>0.33329999999999999</v>
       </c>
       <c r="L168" s="48"/>
@@ -5924,7 +6178,7 @@
       </c>
       <c r="P168" s="11"/>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A169" s="27" t="s">
         <v>251</v>
       </c>
@@ -5968,7 +6222,7 @@
       </c>
       <c r="P169" s="11"/>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A170" s="27" t="s">
         <v>252</v>
       </c>
@@ -6012,7 +6266,7 @@
       </c>
       <c r="P170" s="11"/>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A171" s="27" t="s">
         <v>253</v>
       </c>
@@ -6056,7 +6310,7 @@
       </c>
       <c r="P171" s="11"/>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A172" s="27" t="s">
         <v>254</v>
       </c>
@@ -6100,7 +6354,7 @@
       </c>
       <c r="P172" s="11"/>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A173" s="27" t="s">
         <v>255</v>
       </c>
@@ -6144,7 +6398,7 @@
       </c>
       <c r="P173" s="11"/>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A174" s="27" t="s">
         <v>256</v>
       </c>
@@ -6188,7 +6442,7 @@
       </c>
       <c r="P174" s="11"/>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A175" s="27" t="s">
         <v>257</v>
       </c>
@@ -6198,33 +6452,33 @@
       <c r="C175" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="D175" s="93" t="s">
+      <c r="D175" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="E175" s="94" t="s">
+      <c r="E175" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="F175" s="94">
+      <c r="F175" s="45">
         <v>17</v>
       </c>
-      <c r="G175" s="94">
+      <c r="G175" s="45">
         <v>0</v>
       </c>
-      <c r="H175" s="94">
+      <c r="H175" s="45">
         <v>17</v>
       </c>
-      <c r="I175" s="94">
+      <c r="I175" s="45">
         <v>0</v>
       </c>
-      <c r="J175" s="94">
+      <c r="J175" s="45">
         <v>0</v>
       </c>
-      <c r="K175" s="95">
+      <c r="K175" s="54">
         <v>1</v>
       </c>
-      <c r="L175" s="96"/>
-      <c r="M175" s="94"/>
-      <c r="N175" s="94" t="s">
+      <c r="L175" s="55"/>
+      <c r="M175" s="45"/>
+      <c r="N175" s="45" t="s">
         <v>279</v>
       </c>
       <c r="O175" s="27" t="s">
@@ -6232,7 +6486,7 @@
       </c>
       <c r="P175" s="11"/>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A176" s="27" t="s">
         <v>258</v>
       </c>
@@ -6252,27 +6506,27 @@
       <c r="O176" s="11"/>
       <c r="P176" s="11"/>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A177" s="27" t="s">
         <v>259</v>
       </c>
       <c r="B177" s="39"/>
       <c r="C177" s="39"/>
       <c r="D177" s="30"/>
-      <c r="E177" s="97"/>
-      <c r="F177" s="97"/>
-      <c r="G177" s="97"/>
-      <c r="H177" s="97"/>
-      <c r="I177" s="97"/>
-      <c r="J177" s="97"/>
-      <c r="K177" s="98"/>
-      <c r="L177" s="99"/>
-      <c r="M177" s="97"/>
-      <c r="N177" s="97"/>
-      <c r="O177" s="97"/>
+      <c r="E177" s="46"/>
+      <c r="F177" s="46"/>
+      <c r="G177" s="46"/>
+      <c r="H177" s="46"/>
+      <c r="I177" s="46"/>
+      <c r="J177" s="46"/>
+      <c r="K177" s="56"/>
+      <c r="L177" s="57"/>
+      <c r="M177" s="46"/>
+      <c r="N177" s="46"/>
+      <c r="O177" s="46"/>
       <c r="P177" s="11"/>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A178" s="27" t="s">
         <v>260</v>
       </c>
@@ -6292,7 +6546,7 @@
       <c r="O178" s="27"/>
       <c r="P178" s="11"/>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A179" s="27" t="s">
         <v>261</v>
       </c>
@@ -6312,7 +6566,7 @@
       <c r="O179" s="27"/>
       <c r="P179" s="11"/>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A180" s="27" t="s">
         <v>262</v>
       </c>
@@ -6332,7 +6586,7 @@
       <c r="O180" s="27"/>
       <c r="P180" s="11"/>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A181" s="27" t="s">
         <v>263</v>
       </c>
@@ -6352,7 +6606,7 @@
       <c r="O181" s="27"/>
       <c r="P181" s="11"/>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A182" s="27" t="s">
         <v>264</v>
       </c>
@@ -6372,7 +6626,7 @@
       <c r="O182" s="27"/>
       <c r="P182" s="11"/>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A183" s="27" t="s">
         <v>265</v>
       </c>
@@ -6392,7 +6646,7 @@
       <c r="O183" s="27"/>
       <c r="P183" s="11"/>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A184" s="27" t="s">
         <v>266</v>
       </c>
@@ -6412,7 +6666,7 @@
       <c r="O184" s="27"/>
       <c r="P184" s="11"/>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A185" s="27" t="s">
         <v>267</v>
       </c>
@@ -6432,7 +6686,7 @@
       <c r="O185" s="27"/>
       <c r="P185" s="11"/>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A186" s="27" t="s">
         <v>268</v>
       </c>
@@ -6452,7 +6706,7 @@
       <c r="O186" s="27"/>
       <c r="P186" s="11"/>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A187" s="27" t="s">
         <v>269</v>
       </c>
@@ -6472,7 +6726,7 @@
       <c r="O187" s="27"/>
       <c r="P187" s="11"/>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A188" s="27" t="s">
         <v>270</v>
       </c>
@@ -6492,7 +6746,7 @@
       <c r="O188" s="27"/>
       <c r="P188" s="11"/>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A189" s="27" t="s">
         <v>271</v>
       </c>
@@ -6512,7 +6766,7 @@
       <c r="O189" s="27"/>
       <c r="P189" s="11"/>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A190" s="27" t="s">
         <v>272</v>
       </c>
@@ -6532,7 +6786,7 @@
       <c r="O190" s="27"/>
       <c r="P190" s="11"/>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A191" s="27" t="s">
         <v>273</v>
       </c>
@@ -6552,7 +6806,7 @@
       <c r="O191" s="27"/>
       <c r="P191" s="11"/>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A192" s="27" t="s">
         <v>274</v>
       </c>
@@ -6572,7 +6826,7 @@
       <c r="O192" s="27"/>
       <c r="P192" s="11"/>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A193" s="27" t="s">
         <v>275</v>
       </c>
@@ -6594,7 +6848,176 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="191">
+  <mergeCells count="193">
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="B62:B72"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="M132:M134"/>
+    <mergeCell ref="N132:N134"/>
+    <mergeCell ref="O132:O134"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="K136:L136"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="K149:L149"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="K142:L142"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="K144:L144"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="K146:L146"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A132:D134"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:J133"/>
+    <mergeCell ref="K132:L134"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="O99:O101"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="F99:J100"/>
+    <mergeCell ref="K99:L101"/>
+    <mergeCell ref="M99:M101"/>
+    <mergeCell ref="N99:N101"/>
+    <mergeCell ref="A99:D101"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="N52:N54"/>
+    <mergeCell ref="O52:O54"/>
+    <mergeCell ref="A52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:J53"/>
+    <mergeCell ref="K52:L54"/>
+    <mergeCell ref="M52:M54"/>
+    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="F1:J2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A35"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="A165:D167"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="F165:J166"/>
+    <mergeCell ref="K165:L167"/>
+    <mergeCell ref="M165:M167"/>
+    <mergeCell ref="N165:N167"/>
+    <mergeCell ref="O165:O167"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="K169:L169"/>
     <mergeCell ref="K188:L188"/>
     <mergeCell ref="K189:L189"/>
     <mergeCell ref="K190:L190"/>
@@ -6619,173 +7042,6 @@
     <mergeCell ref="K175:L175"/>
     <mergeCell ref="K177:L177"/>
     <mergeCell ref="K178:L178"/>
-    <mergeCell ref="A165:D167"/>
-    <mergeCell ref="E165:E167"/>
-    <mergeCell ref="F165:J166"/>
-    <mergeCell ref="K165:L167"/>
-    <mergeCell ref="M165:M167"/>
-    <mergeCell ref="N165:N167"/>
-    <mergeCell ref="O165:O167"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="N52:N54"/>
-    <mergeCell ref="O52:O54"/>
-    <mergeCell ref="A52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:J53"/>
-    <mergeCell ref="K52:L54"/>
-    <mergeCell ref="M52:M54"/>
-    <mergeCell ref="K1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="F1:J2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A35"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="O99:O101"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="F99:J100"/>
-    <mergeCell ref="K99:L101"/>
-    <mergeCell ref="M99:M101"/>
-    <mergeCell ref="N99:N101"/>
-    <mergeCell ref="A99:D101"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="A132:D134"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:J133"/>
-    <mergeCell ref="K132:L134"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="K153:L153"/>
-    <mergeCell ref="K154:L154"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="K149:L149"/>
-    <mergeCell ref="K150:L150"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="K152:L152"/>
-    <mergeCell ref="K142:L142"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="K144:L144"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="K146:L146"/>
-    <mergeCell ref="K147:L147"/>
-    <mergeCell ref="K135:L135"/>
-    <mergeCell ref="K136:L136"/>
-    <mergeCell ref="K137:L137"/>
-    <mergeCell ref="K138:L138"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M132:M134"/>
-    <mergeCell ref="N132:N134"/>
-    <mergeCell ref="O132:O134"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="K155:L155"/>
-    <mergeCell ref="K156:L156"/>
-    <mergeCell ref="K157:L157"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="K140:L140"/>
-    <mergeCell ref="K141:L141"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="K119:L119"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B62:B70"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K73:L73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
+++ b/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seonj\CWNU19SE_2B\3rd_homework\테스트 결과 보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="351" documentId="13_ncr:1_{0AE1D492-1509-4C59-9A88-9F519B93A5F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE905423-64F6-4CAA-8EF8-74CA4A786132}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EB8F8-441B-479D-8960-8B8482996C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="2" r:id="rId1"/>
@@ -20,14 +20,12 @@
     <sheet name="시스템 테스트" sheetId="5" r:id="rId5"/>
     <sheet name="결함 테스트" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="444">
   <si>
     <t>뚜비 테스트 결과 보고서</t>
   </si>
@@ -1073,10 +1071,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-11-29~2019-12-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CPT-17</t>
   </si>
   <si>
@@ -1286,10 +1280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인터넷이 불안정 할 때 검색을 실행하였을 경우, 각 페이지를 정삭적으로 로드하는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019-12-01~2019-12-03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1447,6 +1437,193 @@
   </si>
   <si>
     <t>DT-26</t>
+  </si>
+  <si>
+    <t>메인 화면의 GUI가 정상적으로 출력되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 선택 화면의 GUI가 정상적으로 출력되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 기록 화면의 GUI가 정상적으로 출력되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크 화면의 GUI가 정상적으로 출력되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 안내 화면의 GUI가 정상적으로 출력되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누비자 터미널 선택 화면의 GUI가 정상적으로 출력되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상 화면의 GUI가 정상적으로 출력되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도를 드래그하여 이동한 뒤 내 위치 버튼을 눌러 되돌아올 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확대-축소 모션으로 지도의 축척을 변경할 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS 정보를 받아오지 못한 경우 창원 시청을 중심으로 지도를 출력하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도를 드래그하여 이동하였을 때 지도 속 누비자 터미널 위치에 마커 표시가 되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지와 도착지 모두 텍스트 검색으로 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지와 도착지 모두 GPS로 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지와 도착지 모두 최근 기록에서 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지와 도착지 모두 북마크에서 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지를 텍스트 검색, 도착지를 최근 기록에서 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지를 텍스트 검색, 도착지를 GPS로 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지를 텍스트 검색, 도착지를 북마크에서 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지를 최근 기록, 도착지를 텍스트 검색으로 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지를 최근 기록, 도착지를 GPS로 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지를 최근 기록, 도착지를 북마크에서 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷이 불안정 할 때 검색을 실행하였을 경우, 각 페이지를 정상적으로 로드하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지를 GPS, 도착지를 텍스트 검색으로 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지를 GPS, 도착지를 최근 기록에서 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지를 GPS, 도착지를 북마크에서 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYST-27</t>
+  </si>
+  <si>
+    <t>SYST-28</t>
+  </si>
+  <si>
+    <t>SYST-29</t>
+  </si>
+  <si>
+    <t>SYST-30</t>
+  </si>
+  <si>
+    <t>SYST-31</t>
+  </si>
+  <si>
+    <t>SYST-32</t>
+  </si>
+  <si>
+    <t>SYST-33</t>
+  </si>
+  <si>
+    <t>SYST-34</t>
+  </si>
+  <si>
+    <t>SYST-35</t>
+  </si>
+  <si>
+    <t>출발지를 북마크, 도착지를 텍스트 검색으로 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지를 북마크, 도착지를 GPS로 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지를 북마크, 도착지를 최근 기록에서 지정하였을 때, 경로를 정상적으로 안내 받을 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지를 지정한 후, 출발지와 목적지를 맞바꾸어 정상적으로 경로 검색을 이어갈 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착지를 지정한 후, 출발지와 목적지를 맞바꾸어 정상적으로 경로 검색을 이어갈 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 아이콘을 누르는 것으로 기상 화면에서 상세 기상 정보를 확인할 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-27~2019-11-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-29~2019-12-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-25~2019-11-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-28~2019-12-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 탐색 후, 출발지의 최근 기록 화면에서 이전에 안내받았던 경로의 출발지가 등록된 것을 확인할 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 탐색 후, 도착지의 최근 기록 화면에서 이전에 안내받았던 경로의 도착지가 등록된 것을 확인할 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 기록에 등록된 장소의 북마크 아이콘을 누른 후, 북마크 화면에서 장소가 등록된 것을 확인할 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크 화면에서 북마크 된 장소의 북마크 아이콘을 누른 후, 북마크에서 삭제된 것을 확인할 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 기록의 장소들 중 북마크에 등록된 장소들은 아이콘을 통해 북마크에 등록되었다는 사실을 알 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1456,7 +1633,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1978,7 +2155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1994,12 +2171,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2020,12 +2191,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2090,71 +2255,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2162,18 +2269,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2183,34 +2384,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2225,84 +2465,12 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2313,6 +2481,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2334,7 +2505,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2636,472 +2807,486 @@
       <selection activeCell="P5" sqref="P5:U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.69921875" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="6.625" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="7.875" customWidth="1"/>
+    <col min="12" max="12" width="8.59765625" customWidth="1"/>
+    <col min="13" max="13" width="7.8984375" customWidth="1"/>
     <col min="14" max="14" width="7.5" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.75" customWidth="1"/>
+    <col min="16" max="16" width="7.69921875" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="7.875" customWidth="1"/>
-    <col min="19" max="19" width="8.25" customWidth="1"/>
-    <col min="20" max="20" width="9.25" customWidth="1"/>
+    <col min="18" max="18" width="7.8984375" customWidth="1"/>
+    <col min="19" max="19" width="8.19921875" customWidth="1"/>
+    <col min="20" max="20" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-    </row>
-    <row r="4" spans="1:21" ht="27" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+    </row>
+    <row r="4" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="49" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="52" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="65" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="50"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="71" t="s">
+      <c r="O5" s="62"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="66"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="66" t="s">
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="67"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-    </row>
-    <row r="7" spans="1:21" ht="37.5" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="O6" s="69"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+    </row>
+    <row r="7" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-    </row>
-    <row r="8" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A8" s="49" t="s">
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+    </row>
+    <row r="8" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="47" t="s">
+      <c r="F8" s="47"/>
+      <c r="G8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="62" t="s">
+      <c r="I8" s="47"/>
+      <c r="J8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="48" t="s">
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="58" t="s">
+      <c r="P8" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="47" t="s">
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="U8" s="47" t="s">
+      <c r="U8" s="60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="57" t="s">
+    <row r="9" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="57" t="s">
+      <c r="M9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="57" t="s">
+      <c r="N9" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="48"/>
-      <c r="P9" s="33" t="s">
+      <c r="O9" s="61"/>
+      <c r="P9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="38" t="s">
+      <c r="S9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-    </row>
-    <row r="10" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="42" t="s">
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+    </row>
+    <row r="10" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="42" t="s">
+      <c r="Q10" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="42" t="s">
+      <c r="R10" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="42" t="s">
+      <c r="S10" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="53"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="44" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="40" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="53"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="I11" s="54"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="53"/>
-      <c r="D12" s="55"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="41" t="s">
+      <c r="F12" s="54"/>
+      <c r="G12" s="37" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="53"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="I12" s="54"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="53"/>
-      <c r="D13" s="55"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="41" t="s">
+      <c r="F13" s="54"/>
+      <c r="G13" s="37" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="53"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="I13" s="54"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="53"/>
-      <c r="D14" s="55"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="41" t="s">
+      <c r="F14" s="54"/>
+      <c r="G14" s="37" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="53"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="I14" s="54"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="53"/>
-      <c r="D15" s="55"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="41" t="s">
+      <c r="F15" s="54"/>
+      <c r="G15" s="37" t="s">
         <v>38</v>
       </c>
       <c r="H15" s="53"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A4:U4"/>
-    <mergeCell ref="A1:U3"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A7:U7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H8:I10"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
@@ -3114,38 +3299,26 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H8:I10"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="H11:I11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A7:U7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="A4:U4"/>
+    <mergeCell ref="A1:U3"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="G6:M6"/>
     <mergeCell ref="P5:U5"/>
     <mergeCell ref="P6:U6"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="P8:S8"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3153,103 +3326,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F42" sqref="F4:F42"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="107.25" customWidth="1"/>
-    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.09765625" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="8.75" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="81" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82" t="s">
+      <c r="L1" s="70"/>
+      <c r="M1" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="82" t="s">
+      <c r="N1" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="82" t="s">
+      <c r="O1" s="81" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="32" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="85" t="s">
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3267,10 +3440,10 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="85"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="87" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="76"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="78" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -3288,10 +3461,10 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="85"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="74"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="76"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="5" t="s">
         <v>57</v>
       </c>
@@ -3307,9 +3480,9 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="85"/>
-      <c r="B7" s="72"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="76"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="8" t="s">
         <v>58</v>
       </c>
@@ -3328,10 +3501,10 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="85"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="76"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="80" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -3349,10 +3522,10 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="58"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="74"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="66"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="5" t="s">
         <v>62</v>
       </c>
@@ -3368,14 +3541,14 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="86" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="80" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -3393,10 +3566,10 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="85"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="74"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="76"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="5" t="s">
         <v>66</v>
       </c>
@@ -3412,12 +3585,12 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="85"/>
-      <c r="B12" s="78" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="76"/>
+      <c r="B12" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="83" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -3435,10 +3608,10 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="85"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="76"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="76"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="5" t="s">
         <v>70</v>
       </c>
@@ -3454,10 +3627,10 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="85"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="77"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="76"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="5" t="s">
         <v>71</v>
       </c>
@@ -3473,14 +3646,14 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="78" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="83" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -3498,10 +3671,10 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="77"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="5" t="s">
         <v>75</v>
       </c>
@@ -3517,10 +3690,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="75" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="83" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -3538,10 +3711,10 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="77"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="5" t="s">
         <v>78</v>
       </c>
@@ -3557,9 +3730,9 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="79"/>
-      <c r="B19" s="80"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="1" t="s">
         <v>79</v>
       </c>
@@ -3578,12 +3751,12 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="79"/>
-      <c r="B20" s="78" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="71"/>
+      <c r="B20" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="31" t="s">
         <v>82</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -3601,9 +3774,9 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="79"/>
-      <c r="B21" s="80"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="1" t="s">
         <v>84</v>
       </c>
@@ -3622,9 +3795,9 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="79"/>
-      <c r="B22" s="79" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="71"/>
+      <c r="B22" s="71" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3645,9 +3818,9 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="79"/>
-      <c r="B23" s="80"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="1" t="s">
         <v>89</v>
       </c>
@@ -3666,9 +3839,9 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="79"/>
-      <c r="B24" s="78" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="71"/>
+      <c r="B24" s="74" t="s">
         <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3689,9 +3862,9 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="79"/>
-      <c r="B25" s="80"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="1" t="s">
         <v>89</v>
       </c>
@@ -3710,12 +3883,12 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="79"/>
-      <c r="B26" s="78" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="71"/>
+      <c r="B26" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="83" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -3733,10 +3906,10 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="79"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="76"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="5" t="s">
         <v>96</v>
       </c>
@@ -3752,10 +3925,10 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="76"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="5" t="s">
         <v>97</v>
       </c>
@@ -3771,10 +3944,10 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="77"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="71"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="5" t="s">
         <v>98</v>
       </c>
@@ -3790,9 +3963,9 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="79"/>
-      <c r="B30" s="80"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="1" t="s">
         <v>87</v>
       </c>
@@ -3811,12 +3984,12 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="79"/>
-      <c r="B31" s="78" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="71"/>
+      <c r="B31" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="83" t="s">
         <v>101</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -3834,10 +4007,10 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="77"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="71"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="5" t="s">
         <v>103</v>
       </c>
@@ -3853,10 +4026,10 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="79"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="36" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="71"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="32" t="s">
         <v>87</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -3874,9 +4047,9 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="79"/>
-      <c r="B34" s="78" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A34" s="71"/>
+      <c r="B34" s="74" t="s">
         <v>105</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3897,9 +4070,9 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="2" t="s">
         <v>87</v>
       </c>
@@ -3918,11 +4091,11 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="79" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="74" t="s">
         <v>86</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3943,9 +4116,9 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="79"/>
-      <c r="B37" s="79"/>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="1" t="s">
         <v>112</v>
       </c>
@@ -3964,10 +4137,10 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="75" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="83" t="s">
         <v>114</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -3985,10 +4158,10 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="79"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="76"/>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39" s="71"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="84"/>
       <c r="D39" s="5" t="s">
         <v>116</v>
       </c>
@@ -4004,12 +4177,12 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A40" s="71"/>
+      <c r="B40" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="76"/>
+      <c r="C40" s="84"/>
       <c r="D40" s="5" t="s">
         <v>117</v>
       </c>
@@ -4025,10 +4198,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="77"/>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A41" s="71"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="5" t="s">
         <v>118</v>
       </c>
@@ -4044,9 +4217,9 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="80"/>
-      <c r="B42" s="80"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="1" t="s">
         <v>119</v>
       </c>
@@ -4065,89 +4238,89 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="84" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A43" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="81" t="s">
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="81" t="s">
+      <c r="F43" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81" t="s">
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="L43" s="81"/>
-      <c r="M43" s="82" t="s">
+      <c r="L43" s="70"/>
+      <c r="M43" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N43" s="82" t="s">
+      <c r="N43" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="O43" s="82" t="s">
+      <c r="O43" s="81" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="84"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="84"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="32" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A44" s="75"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="81"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A45" s="75"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G45" s="32" t="s">
+      <c r="G45" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H45" s="32" t="s">
+      <c r="H45" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J45" s="32" t="s">
+      <c r="J45" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-    </row>
-    <row r="46" spans="1:15" ht="17.45">
-      <c r="A46" s="38" t="s">
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A46" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="35" t="s">
         <v>124</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -4165,14 +4338,14 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="17.45">
-      <c r="A47" s="47" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A47" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="34" t="s">
         <v>128</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -4190,10 +4363,10 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="17.45">
-      <c r="A48" s="49"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="38" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A48" s="47"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="34" t="s">
         <v>130</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -4211,14 +4384,14 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="17.45">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A49" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="35" t="s">
         <v>134</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -4236,251 +4409,277 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-    </row>
-    <row r="53" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-    </row>
-    <row r="54" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-    </row>
-    <row r="165" spans="16:16">
-      <c r="P165" s="72" t="s">
+    <row r="52" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+    </row>
+    <row r="53" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+    </row>
+    <row r="54" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+    </row>
+    <row r="165" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P165" s="82" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="166" spans="16:16">
-      <c r="P166" s="72"/>
-    </row>
-    <row r="167" spans="16:16">
-      <c r="P167" s="72"/>
-    </row>
-    <row r="168" spans="16:16">
+    <row r="166" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P166" s="82"/>
+    </row>
+    <row r="167" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P167" s="82"/>
+    </row>
+    <row r="168" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P168" s="3"/>
     </row>
-    <row r="169" spans="16:16">
+    <row r="169" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P169" s="3"/>
     </row>
-    <row r="170" spans="16:16">
+    <row r="170" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P170" s="3"/>
     </row>
-    <row r="171" spans="16:16">
+    <row r="171" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P171" s="3"/>
     </row>
-    <row r="172" spans="16:16">
+    <row r="172" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P172" s="3"/>
     </row>
-    <row r="173" spans="16:16">
+    <row r="173" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P173" s="3"/>
     </row>
-    <row r="174" spans="16:16">
+    <row r="174" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P174" s="3"/>
     </row>
-    <row r="175" spans="16:16">
+    <row r="175" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P175" s="3"/>
     </row>
-    <row r="176" spans="16:16">
+    <row r="176" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P176" s="3"/>
     </row>
-    <row r="177" spans="16:16">
+    <row r="177" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P177" s="3"/>
     </row>
-    <row r="178" spans="16:16">
+    <row r="178" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P178" s="3"/>
     </row>
-    <row r="179" spans="16:16">
+    <row r="179" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P179" s="3"/>
     </row>
-    <row r="180" spans="16:16">
+    <row r="180" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P180" s="3"/>
     </row>
-    <row r="181" spans="16:16">
+    <row r="181" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P181" s="3"/>
     </row>
-    <row r="182" spans="16:16">
+    <row r="182" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P182" s="3"/>
     </row>
-    <row r="183" spans="16:16">
+    <row r="183" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P183" s="3"/>
     </row>
-    <row r="184" spans="16:16">
+    <row r="184" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P184" s="3"/>
     </row>
-    <row r="185" spans="16:16">
+    <row r="185" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P185" s="3"/>
     </row>
-    <row r="186" spans="16:16">
+    <row r="186" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P186" s="3"/>
     </row>
-    <row r="187" spans="16:16">
+    <row r="187" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P187" s="3"/>
     </row>
-    <row r="188" spans="16:16">
+    <row r="188" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P188" s="3"/>
     </row>
-    <row r="189" spans="16:16">
+    <row r="189" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P189" s="3"/>
     </row>
-    <row r="190" spans="16:16">
+    <row r="190" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P190" s="3"/>
     </row>
-    <row r="191" spans="16:16">
+    <row r="191" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P191" s="3"/>
     </row>
-    <row r="192" spans="16:16">
+    <row r="192" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P192" s="3"/>
     </row>
-    <row r="193" spans="16:16">
+    <row r="193" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P193" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="42">
+    <mergeCell ref="P165:P167"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F43:J44"/>
+    <mergeCell ref="K43:L45"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="O43:O45"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="F1:J2"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="B47:B48"/>
@@ -4495,34 +4694,8 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="A43:D45"/>
     <mergeCell ref="E43:E45"/>
-    <mergeCell ref="K1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="F1:J2"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C38:C41"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="P165:P167"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F43:J44"/>
-    <mergeCell ref="K43:L45"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="O43:O45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4534,1077 +4707,1082 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80055BC-9E65-4368-973B-0AA15CB28CB6}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.296875" customWidth="1"/>
+    <col min="4" max="4" width="63.19921875" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="104" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="107" t="s">
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="92" t="s">
+      <c r="L1" s="103"/>
+      <c r="M1" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="92" t="s">
+      <c r="N1" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="92" t="s">
+      <c r="O1" s="86" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-    </row>
-    <row r="3" spans="1:15" ht="29.25" customHeight="1">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="32" t="s">
+    <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+    </row>
+    <row r="3" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="12" t="s">
+      <c r="K3" s="104"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="37" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="37" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="24">
         <v>43779</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="37" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <v>43779</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="O12" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="37" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="O13" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="37" t="s">
+      <c r="B15" s="71"/>
+      <c r="C15" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="O15" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="78" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="22" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="O17" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="24">
         <v>43774</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O18" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="37" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O19" s="12" t="s">
+      <c r="O19" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="37" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="O20" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="72"/>
+      <c r="C21" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="O21" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="37" t="s">
+      <c r="B23" s="71"/>
+      <c r="C23" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="78" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="O24" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="22" t="s">
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O25" s="12" t="s">
+      <c r="O25" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="12" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="12" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="12" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="12" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="12" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="12" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="12" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="12" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A34" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="12" t="s">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="12" t="s">
+      <c r="B35" s="33"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="12" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A37" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="12" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="109"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A38" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="12" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="109"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="12" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A40" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="12" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A41" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="12" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="109"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A42" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="109"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:J2"/>
-    <mergeCell ref="K1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B11:B21"/>
     <mergeCell ref="K40:L40"/>
@@ -5617,33 +5795,29 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="B22:B25"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:J2"/>
+    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="M1:M3"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5652,866 +5826,870 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A82648-BF54-47DA-9976-B60D11BAD0D7}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="121.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="113.19921875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="81" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82" t="s">
+      <c r="L1" s="70"/>
+      <c r="M1" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="82" t="s">
+      <c r="N1" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="82" t="s">
+      <c r="O1" s="81" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="32" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="12" t="s">
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="74" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="37" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="37" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="37" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="O12" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="37" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="O13" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="37" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="O15" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="74" t="s">
         <v>281</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="37" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="O17" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O18" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="37" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" s="71"/>
+      <c r="C22" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="O19" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="O24" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="74" t="s">
+        <v>300</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" s="71"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="O20" s="12" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="O26" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>312</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B29" s="72"/>
+      <c r="C29" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="O22" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B24" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="B28" s="78" t="s">
-        <v>313</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="O29" s="12" t="s">
+      <c r="O29" s="10" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="F1:J2"/>
+    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="N1:N3"/>
     <mergeCell ref="A1:D3"/>
@@ -6528,643 +6706,1082 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="F1:J2"/>
-    <mergeCell ref="K1:L3"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AECDFE8-F4EC-434E-984D-1D0982F4FE12}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:J2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" customWidth="1"/>
+    <col min="3" max="3" width="95.3984375" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="70"/>
+      <c r="L1" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="82" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="12" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="12" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="12" t="s">
+      <c r="B11" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="12" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="82"/>
+      <c r="C13" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="12" t="s">
+      <c r="B14" s="82"/>
+      <c r="C14" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="12" t="s">
+      <c r="B15" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="12" t="s">
+      <c r="B16" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="12" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="12" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="12" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="12" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="12" t="s">
+      <c r="B21" s="71"/>
+      <c r="C21" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="12" t="s">
+      <c r="B22" s="71"/>
+      <c r="C22" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="12" t="s">
+      <c r="B23" s="71"/>
+      <c r="C23" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="12" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="12" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="12" t="s">
+      <c r="B26" s="71"/>
+      <c r="C26" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="12" t="s">
+      <c r="B27" s="71"/>
+      <c r="C27" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="12" t="s">
+      <c r="B28" s="71"/>
+      <c r="C28" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B30" s="71"/>
+      <c r="C30" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A31" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31" s="71"/>
+      <c r="C31" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A32" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" s="71"/>
+      <c r="C32" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A33" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B33" s="72"/>
+      <c r="C33" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A34" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B34" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A35" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" s="71"/>
+      <c r="C35" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A36" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B36" s="71"/>
+      <c r="C36" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A37" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B37" s="71"/>
+      <c r="C37" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A38" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B38" s="72"/>
+      <c r="C38" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:J2"/>
-    <mergeCell ref="K1:L3"/>
+  <mergeCells count="46">
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="B16:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="L1:L3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:I2"/>
+    <mergeCell ref="J1:K3"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7173,438 +7790,440 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B55A9D9-CD09-4F3A-AA85-98958820D95D}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="102.625" customWidth="1"/>
-    <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102.59765625" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="70"/>
+      <c r="M1" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="82" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-    </row>
-    <row r="3" spans="1:15" ht="41.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="D4" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="F4" s="10">
+        <v>17</v>
+      </c>
+      <c r="G4" s="10">
+        <v>11</v>
+      </c>
+      <c r="H4" s="10">
+        <v>6</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="119">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="L4" s="110"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="F4" s="12">
+      <c r="C5" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F5" s="10">
+        <v>14</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>14</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="113">
+        <v>1</v>
+      </c>
+      <c r="L5" s="114"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F6" s="10">
+        <v>13</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>13</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="113">
+        <v>1</v>
+      </c>
+      <c r="L6" s="114"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" s="10">
+        <v>16</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>16</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="113">
+        <v>1</v>
+      </c>
+      <c r="L7" s="114"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="10">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>12</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="113">
+        <v>1</v>
+      </c>
+      <c r="L8" s="114"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="10">
+        <v>14</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>14</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="113">
+        <v>1</v>
+      </c>
+      <c r="L9" s="114"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" s="10">
+        <v>13</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>13</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="113">
+        <v>1</v>
+      </c>
+      <c r="L10" s="114"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="F11" s="22">
         <v>17</v>
       </c>
-      <c r="G4" s="12">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12">
-        <v>6</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="G11" s="22">
         <v>0</v>
       </c>
-      <c r="J4" s="12">
+      <c r="H11" s="22">
+        <v>17</v>
+      </c>
+      <c r="I11" s="22">
         <v>0</v>
       </c>
-      <c r="K4" s="117">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="K11" s="115">
+        <v>1</v>
+      </c>
+      <c r="L11" s="116"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="F5" s="12">
-        <v>14</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>14</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="115">
-        <v>1</v>
-      </c>
-      <c r="L5" s="116"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="O5" s="12" t="s">
+      <c r="O11" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="F6" s="12">
-        <v>13</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>13</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="115">
-        <v>1</v>
-      </c>
-      <c r="L6" s="116"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" s="12">
-        <v>16</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>16</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="115">
-        <v>1</v>
-      </c>
-      <c r="L7" s="116"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="F8" s="12">
-        <v>12</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>12</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="115">
-        <v>1</v>
-      </c>
-      <c r="L8" s="116"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>369</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="F9" s="12">
-        <v>14</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>14</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9" s="115">
-        <v>1</v>
-      </c>
-      <c r="L9" s="116"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="F10" s="12">
-        <v>13</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
-        <v>13</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10" s="115">
-        <v>1</v>
-      </c>
-      <c r="L10" s="116"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="C11" s="30" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
         <v>377</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="F11" s="26">
-        <v>17</v>
-      </c>
-      <c r="G11" s="26">
-        <v>0</v>
-      </c>
-      <c r="H11" s="26">
-        <v>17</v>
-      </c>
-      <c r="I11" s="26">
-        <v>0</v>
-      </c>
-      <c r="J11" s="26">
-        <v>0</v>
-      </c>
-      <c r="K11" s="118">
-        <v>1</v>
-      </c>
-      <c r="L11" s="119"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="12" t="s">
-        <v>379</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7615,343 +8234,348 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="110"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="12" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="12" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="12" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="12" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="12" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="12" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="12" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="12" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="12" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="12" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="12" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="12" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="12" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="12" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:J2"/>
+    <mergeCell ref="K1:L3"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
@@ -7968,18 +8592,14 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:J2"/>
-    <mergeCell ref="K1:L3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
+++ b/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seonj\CWNU19SE_2B\3rd_homework\테스트 결과 보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C0DB77-B634-495A-8A7A-9543F989DC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9E9A76-F85A-493C-A5A8-EC44DD1F3C7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="412">
   <si>
     <t>뚜비 테스트 결과 보고서</t>
   </si>
@@ -1498,6 +1498,30 @@
   </si>
   <si>
     <t>대여/반납 가능횟수가 남아있는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제사항 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임종원, 박태형, 이동현, 김민수, 조민선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1577,7 +1601,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1995,17 +2019,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -2058,6 +2071,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2065,7 +2108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2166,7 +2209,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2195,159 +2237,156 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2408,28 +2447,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2747,515 +2804,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3E5D10-E57D-4F89-B456-F33E2F639F16}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="17.69921875" customWidth="1"/>
-    <col min="7" max="7" width="6.69921875" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="6.69921875" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" customWidth="1"/>
+    <col min="5" max="5" width="13.296875" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" customWidth="1"/>
+    <col min="9" max="9" width="7.796875" customWidth="1"/>
     <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" customWidth="1"/>
-    <col min="12" max="12" width="7.796875" customWidth="1"/>
-    <col min="13" max="13" width="7.5" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.69921875" customWidth="1"/>
-    <col min="16" max="16" width="9.19921875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="13" width="31.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="45"/>
-    </row>
-    <row r="2" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="45"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="45"/>
-    </row>
-    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="46"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="59" t="s">
+    <row r="1" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="44"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="44"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="44"/>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="45"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65" t="s">
+      <c r="E5" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="64" t="s">
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="68"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="47"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61" t="s">
+      <c r="K5" s="76"/>
+      <c r="L5" s="137" t="s">
+        <v>408</v>
+      </c>
+      <c r="M5" s="50"/>
+      <c r="N5" s="46"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="66" t="s">
+      <c r="E6" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="62" t="s">
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="47"/>
-    </row>
-    <row r="7" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="79" t="s">
+      <c r="K6" s="78"/>
+      <c r="L6" s="136">
+        <v>43804</v>
+      </c>
+      <c r="M6" s="50"/>
+      <c r="N6" s="46"/>
+    </row>
+    <row r="7" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="46"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="59" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="45"/>
+    </row>
+    <row r="8" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59" t="s">
+      <c r="D8" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59" t="s">
+      <c r="E8" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="84" t="s">
+      <c r="F8" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="89" t="s">
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="90" t="s">
+      <c r="L8" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="88"/>
-    </row>
-    <row r="9" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="60" t="s">
+      <c r="M8" s="62"/>
+      <c r="N8" s="63"/>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="G9" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="H9" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="I9" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="J9" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="89"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="88"/>
-    </row>
-    <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="88"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="82" t="s">
+      <c r="K9" s="64"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="63"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="82" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="D11" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="25">
+      <c r="E11" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="F11" s="25">
         <f>SUM('요구사항 테스트'!F4:F42)</f>
         <v>570</v>
       </c>
-      <c r="J11" s="25">
+      <c r="G11" s="25">
         <f>SUM('요구사항 테스트'!G4:G42)</f>
         <v>26</v>
       </c>
-      <c r="K11" s="25">
+      <c r="H11" s="25">
         <f>SUM('요구사항 테스트'!H4:H42)</f>
         <v>544</v>
       </c>
-      <c r="L11" s="25">
+      <c r="I11" s="25">
         <f>SUM('요구사항 테스트'!I4:I42)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="25">
+      <c r="J11" s="25">
         <f>SUM('요구사항 테스트'!J4:J42)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="41">
+      <c r="K11" s="41">
         <f>AVERAGE('요구사항 테스트'!K4:K42)</f>
         <v>0.95556763343736406</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="48"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="82" t="s">
+      <c r="L11" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M11" s="51"/>
+      <c r="N11" s="47"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="82" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="24">
+      <c r="E12" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="F12" s="24">
         <f>SUM('단위 테스트'!F4:F25)</f>
         <v>335</v>
       </c>
-      <c r="J12" s="24">
+      <c r="G12" s="24">
         <f>SUM('단위 테스트'!G4:G25)</f>
         <v>26</v>
       </c>
-      <c r="K12" s="24">
+      <c r="H12" s="24">
         <f>SUM('단위 테스트'!H4:H25)</f>
         <v>309</v>
       </c>
-      <c r="L12" s="24">
+      <c r="I12" s="24">
         <f>SUM('단위 테스트'!I4:I25)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="24">
+      <c r="J12" s="24">
         <f>SUM('단위 테스트'!J4:J25)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="42">
+      <c r="K12" s="42">
         <f>AVERAGE('단위 테스트'!K4:K25)</f>
         <v>0.91712583141129433</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="48"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="82" t="s">
+      <c r="L12" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M12" s="51"/>
+      <c r="N12" s="47"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="82" t="s">
+      <c r="B13" s="74"/>
+      <c r="C13" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="D13" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="24">
+      <c r="E13" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="F13" s="24">
         <f>SUM('컴포넌트 테스트'!F4:F29)</f>
         <v>389</v>
       </c>
-      <c r="J13" s="24">
+      <c r="G13" s="24">
         <f>SUM('컴포넌트 테스트'!G4:G29)</f>
         <v>31</v>
       </c>
-      <c r="K13" s="24">
+      <c r="H13" s="24">
         <f>SUM('컴포넌트 테스트'!H4:H29)</f>
         <v>360</v>
       </c>
-      <c r="L13" s="24">
+      <c r="I13" s="24">
         <f>SUM('컴포넌트 테스트'!I4:I29)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="24">
+      <c r="J13" s="24">
         <f>SUM('컴포넌트 테스트'!J4:J29)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="42">
+      <c r="K13" s="42">
         <f>AVERAGE('컴포넌트 테스트'!K4:K29)</f>
         <v>0.9231006550011075</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="48"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="82" t="s">
+      <c r="L13" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M13" s="51"/>
+      <c r="N13" s="47"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="82" t="s">
+      <c r="B14" s="74"/>
+      <c r="C14" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="D14" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="24">
+      <c r="E14" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="F14" s="24">
         <f>SUM('시스템 테스트'!E4:E38)</f>
         <v>497</v>
       </c>
-      <c r="J14" s="24">
+      <c r="G14" s="24">
         <f>SUM('시스템 테스트'!F4:F38)</f>
         <v>44</v>
       </c>
-      <c r="K14" s="24">
+      <c r="H14" s="24">
         <f>SUM('시스템 테스트'!G4:G38)</f>
         <v>453</v>
       </c>
-      <c r="L14" s="24">
+      <c r="I14" s="24">
         <f>SUM('시스템 테스트'!H4:H38)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="24">
+      <c r="J14" s="24">
         <f>SUM('시스템 테스트'!I4:I38)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="42">
+      <c r="K14" s="42">
         <f>AVERAGE('시스템 테스트'!J4:J38)</f>
         <v>0.90771337733964907</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="48"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="82" t="s">
+      <c r="L14" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M14" s="51"/>
+      <c r="N14" s="47"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="82" t="s">
+      <c r="B15" s="74"/>
+      <c r="C15" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="D15" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="24">
+      <c r="E15" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="F15" s="24">
         <f>SUM('결함 테스트'!F4:F11)</f>
         <v>116</v>
       </c>
-      <c r="J15" s="24">
+      <c r="G15" s="24">
         <f>SUM('결함 테스트'!G4:G11)</f>
         <v>11</v>
       </c>
-      <c r="K15" s="24">
+      <c r="H15" s="24">
         <f>SUM('결함 테스트'!H4:H11)</f>
         <v>105</v>
       </c>
-      <c r="L15" s="24">
+      <c r="I15" s="24">
         <f>SUM('결함 테스트'!I4:I11)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="24">
+      <c r="J15" s="24">
         <f>SUM('결함 테스트'!J4:J11)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="42">
+      <c r="K15" s="42">
         <f>AVERAGE('결함 테스트'!K4:K11)</f>
         <v>0.91911764705882359</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="48"/>
+      <c r="L15" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M15" s="51"/>
+      <c r="N15" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="G8:H10"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A1:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
+  <mergeCells count="28">
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A4:L4"/>
     <mergeCell ref="A8:B10"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="E8:F10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3267,8 +3296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3278,62 +3307,63 @@
     <col min="4" max="4" width="63.19921875" customWidth="1"/>
     <col min="5" max="5" width="23.19921875" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.296875" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="93" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93" t="s">
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="M1" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="109" t="s">
+      <c r="N1" s="98" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="94"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="32" t="s">
         <v>36</v>
       </c>
@@ -3349,16 +3379,16 @@
       <c r="J3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="96" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="29" t="s">
@@ -3389,7 +3419,9 @@
         <f>H4/F4</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M4" s="9" t="s">
         <v>135</v>
       </c>
@@ -3398,9 +3430,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="91"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="101" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="106" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -3437,9 +3469,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="91"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="102"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="5" t="s">
         <v>47</v>
       </c>
@@ -3474,8 +3506,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="91"/>
-      <c r="B7" s="105"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="8" t="s">
         <v>48</v>
       </c>
@@ -3504,7 +3536,9 @@
         <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M7" s="9" t="s">
         <v>143</v>
       </c>
@@ -3513,9 +3547,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="91"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="103" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="91" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -3552,9 +3586,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="92"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="102"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="5" t="s">
         <v>52</v>
       </c>
@@ -3589,13 +3623,13 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="91" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -3623,7 +3657,9 @@
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M10" s="9" t="s">
         <v>139</v>
       </c>
@@ -3632,9 +3668,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="91"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="102"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="5" t="s">
         <v>56</v>
       </c>
@@ -3669,11 +3705,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="91"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="93" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -3701,7 +3737,9 @@
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M12" s="9" t="s">
         <v>135</v>
       </c>
@@ -3710,9 +3748,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="91"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="107"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="5" t="s">
         <v>60</v>
       </c>
@@ -3747,9 +3785,9 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="91"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="108"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="5" t="s">
         <v>61</v>
       </c>
@@ -3790,7 +3828,7 @@
       <c r="B15" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="93" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -3818,7 +3856,9 @@
         <f t="shared" si="0"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M15" s="9" t="s">
         <v>143</v>
       </c>
@@ -3827,9 +3867,9 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="95"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="108"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="5" t="s">
         <v>65</v>
       </c>
@@ -3855,7 +3895,9 @@
         <f t="shared" si="0"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M16" s="9" t="s">
         <v>139</v>
       </c>
@@ -3864,9 +3906,9 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="95"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="106" t="s">
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="93" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -3894,7 +3936,9 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M17" s="9" t="s">
         <v>135</v>
       </c>
@@ -3903,9 +3947,9 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="108"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="5" t="s">
         <v>68</v>
       </c>
@@ -3931,7 +3975,9 @@
         <f t="shared" si="0"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M18" s="9" t="s">
         <v>139</v>
       </c>
@@ -3940,8 +3986,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="95"/>
-      <c r="B19" s="96"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="1" t="s">
         <v>69</v>
       </c>
@@ -3970,7 +4016,9 @@
         <f t="shared" si="0"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M19" s="9" t="s">
         <v>139</v>
       </c>
@@ -3979,7 +4027,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="95"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="99" t="s">
         <v>71</v>
       </c>
@@ -4011,7 +4059,9 @@
         <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M20" s="9" t="s">
         <v>135</v>
       </c>
@@ -4020,8 +4070,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="95"/>
-      <c r="B21" s="96"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="1" t="s">
         <v>74</v>
       </c>
@@ -4050,7 +4100,9 @@
         <f t="shared" si="0"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M21" s="9" t="s">
         <v>130</v>
       </c>
@@ -4059,8 +4111,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95" t="s">
+      <c r="A22" s="101"/>
+      <c r="B22" s="101" t="s">
         <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -4100,8 +4152,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="95"/>
-      <c r="B23" s="96"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="1" t="s">
         <v>79</v>
       </c>
@@ -4130,7 +4182,9 @@
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M23" s="9" t="s">
         <v>143</v>
       </c>
@@ -4139,7 +4193,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="95"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="99" t="s">
         <v>81</v>
       </c>
@@ -4180,8 +4234,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="95"/>
-      <c r="B25" s="96"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
@@ -4210,7 +4264,9 @@
         <f t="shared" si="0"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M25" s="9" t="s">
         <v>135</v>
       </c>
@@ -4219,11 +4275,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="95"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="106" t="s">
+      <c r="C26" s="93" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -4251,7 +4307,9 @@
         <f t="shared" si="0"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M26" s="9" t="s">
         <v>139</v>
       </c>
@@ -4260,9 +4318,9 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="95"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="107"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="94"/>
       <c r="D27" s="5" t="s">
         <v>86</v>
       </c>
@@ -4288,7 +4346,9 @@
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M27" s="9" t="s">
         <v>139</v>
       </c>
@@ -4297,9 +4357,9 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="95"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="107"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="5" t="s">
         <v>87</v>
       </c>
@@ -4325,7 +4385,9 @@
         <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M28" s="9" t="s">
         <v>135</v>
       </c>
@@ -4334,9 +4396,9 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="95"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="108"/>
+      <c r="A29" s="101"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="95"/>
       <c r="D29" s="5" t="s">
         <v>88</v>
       </c>
@@ -4362,7 +4424,9 @@
         <f t="shared" si="0"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M29" s="9" t="s">
         <v>139</v>
       </c>
@@ -4371,8 +4435,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="95"/>
-      <c r="B30" s="96"/>
+      <c r="A30" s="101"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
@@ -4401,7 +4465,9 @@
         <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M30" s="9" t="s">
         <v>139</v>
       </c>
@@ -4410,11 +4476,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="95"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="106" t="s">
+      <c r="C31" s="93" t="s">
         <v>91</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -4451,9 +4517,9 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="95"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="108"/>
+      <c r="A32" s="101"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="95"/>
       <c r="D32" s="5" t="s">
         <v>93</v>
       </c>
@@ -4488,8 +4554,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
+      <c r="A33" s="101"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="31" t="s">
         <v>77</v>
       </c>
@@ -4518,7 +4584,9 @@
         <f t="shared" si="0"/>
         <v>0.94736842105263153</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M33" s="9" t="s">
         <v>130</v>
       </c>
@@ -4527,7 +4595,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="95"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="99" t="s">
         <v>95</v>
       </c>
@@ -4568,8 +4636,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="96"/>
-      <c r="B35" s="96"/>
+      <c r="A35" s="100"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="2" t="s">
         <v>77</v>
       </c>
@@ -4607,7 +4675,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="101" t="s">
         <v>99</v>
       </c>
       <c r="B36" s="99" t="s">
@@ -4650,8 +4718,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="95"/>
-      <c r="B37" s="95"/>
+      <c r="A37" s="101"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="1" t="s">
         <v>102</v>
       </c>
@@ -4680,7 +4748,9 @@
         <f t="shared" si="0"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M37" s="9" t="s">
         <v>139</v>
       </c>
@@ -4689,9 +4759,9 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="95"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="106" t="s">
+      <c r="A38" s="101"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="93" t="s">
         <v>104</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -4728,9 +4798,9 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="95"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="107"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="94"/>
       <c r="D39" s="5" t="s">
         <v>106</v>
       </c>
@@ -4765,11 +4835,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="95"/>
-      <c r="B40" s="95" t="s">
+      <c r="A40" s="101"/>
+      <c r="B40" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="107"/>
+      <c r="C40" s="94"/>
       <c r="D40" s="5" t="s">
         <v>107</v>
       </c>
@@ -4804,9 +4874,9 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41" s="95"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="108"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="95"/>
       <c r="D41" s="5" t="s">
         <v>108</v>
       </c>
@@ -4841,8 +4911,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" s="96"/>
-      <c r="B42" s="96"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="100"/>
       <c r="C42" s="1" t="s">
         <v>109</v>
       </c>
@@ -4871,7 +4941,9 @@
         <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="L42" s="3"/>
+      <c r="L42" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M42" s="9" t="s">
         <v>130</v>
       </c>
@@ -4880,57 +4952,57 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="104" t="s">
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="93" t="s">
+      <c r="F43" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93" t="s">
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="109" t="s">
+      <c r="L43" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="M43" s="109" t="s">
+      <c r="M43" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="N43" s="109" t="s">
+      <c r="N43" s="98" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A44" s="100"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="109"/>
-      <c r="M44" s="109"/>
-      <c r="N44" s="109"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="98"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A45" s="100"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="94"/>
+      <c r="A45" s="105"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="102"/>
       <c r="F45" s="32" t="s">
         <v>36</v>
       </c>
@@ -4946,10 +5018,10 @@
       <c r="J45" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K45" s="93"/>
-      <c r="L45" s="109"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="109"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="98"/>
+      <c r="N45" s="98"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="26" t="s">
@@ -4995,10 +5067,10 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="97" t="s">
+      <c r="B47" s="103" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="26" t="s">
@@ -5038,8 +5110,8 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A48" s="59"/>
-      <c r="B48" s="97"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="26" t="s">
         <v>119</v>
       </c>
@@ -5266,31 +5338,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="41">
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F43:J44"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="F1:J2"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="B47:B48"/>
@@ -5307,6 +5354,31 @@
     <mergeCell ref="E43:E45"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C38:C41"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="F1:J2"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F43:J44"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5319,7 +5391,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5330,60 +5402,61 @@
     <col min="5" max="5" width="23.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="94" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="123" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="110" t="s">
+      <c r="L1" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="110" t="s">
+      <c r="M1" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="110" t="s">
+      <c r="N1" s="108" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
     </row>
     <row r="3" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="119"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="104"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="32" t="s">
         <v>36</v>
       </c>
@@ -5399,10 +5472,10 @@
       <c r="J3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="126"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
     </row>
     <row r="4" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
@@ -5439,7 +5512,9 @@
         <f>H4/F4</f>
         <v>0.875</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M4" s="9" t="s">
         <v>130</v>
       </c>
@@ -5451,7 +5526,7 @@
       <c r="A5" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="28" t="s">
         <v>133</v>
       </c>
@@ -5480,7 +5555,9 @@
         <f t="shared" ref="K5:K25" si="0">H5/F5</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M5" s="9" t="s">
         <v>135</v>
       </c>
@@ -5492,7 +5569,7 @@
       <c r="A6" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="28" t="s">
         <v>137</v>
       </c>
@@ -5521,7 +5598,9 @@
         <f t="shared" si="0"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="L6" s="9"/>
+      <c r="L6" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M6" s="9" t="s">
         <v>139</v>
       </c>
@@ -5564,7 +5643,9 @@
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M7" s="9" t="s">
         <v>143</v>
       </c>
@@ -5576,7 +5657,7 @@
       <c r="A8" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="95"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="28" t="s">
         <v>145</v>
       </c>
@@ -5605,7 +5686,9 @@
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M8" s="9" t="s">
         <v>131</v>
       </c>
@@ -5617,7 +5700,7 @@
       <c r="A9" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="96"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="28" t="s">
         <v>148</v>
       </c>
@@ -5646,7 +5729,9 @@
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M9" s="9" t="s">
         <v>135</v>
       </c>
@@ -5689,7 +5774,9 @@
         <f t="shared" si="0"/>
         <v>0.94736842105263153</v>
       </c>
-      <c r="L10" s="9"/>
+      <c r="L10" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M10" s="9" t="s">
         <v>139</v>
       </c>
@@ -5732,7 +5819,9 @@
         <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="L11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M11" s="9" t="s">
         <v>131</v>
       </c>
@@ -5744,7 +5833,7 @@
       <c r="A12" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="95"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="28" t="s">
         <v>159</v>
       </c>
@@ -5773,7 +5862,9 @@
         <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="L12" s="9"/>
+      <c r="L12" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M12" s="9" t="s">
         <v>143</v>
       </c>
@@ -5785,7 +5876,7 @@
       <c r="A13" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="95"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="28" t="s">
         <v>162</v>
       </c>
@@ -5814,7 +5905,9 @@
         <f t="shared" si="0"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M13" s="9" t="s">
         <v>135</v>
       </c>
@@ -5826,7 +5919,7 @@
       <c r="A14" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="95"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="28" t="s">
         <v>165</v>
       </c>
@@ -5867,7 +5960,7 @@
       <c r="A15" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="95"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="28" t="s">
         <v>168</v>
       </c>
@@ -5896,7 +5989,9 @@
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M15" s="9" t="s">
         <v>135</v>
       </c>
@@ -5908,7 +6003,7 @@
       <c r="A16" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="95"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="99" t="s">
         <v>171</v>
       </c>
@@ -5937,7 +6032,9 @@
         <f t="shared" si="0"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="L16" s="9"/>
+      <c r="L16" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M16" s="9" t="s">
         <v>131</v>
       </c>
@@ -5949,8 +6046,8 @@
       <c r="A17" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="17" t="s">
         <v>174</v>
       </c>
@@ -5976,7 +6073,9 @@
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M17" s="9" t="s">
         <v>130</v>
       </c>
@@ -5988,7 +6087,7 @@
       <c r="A18" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="28" t="s">
         <v>176</v>
       </c>
@@ -6029,7 +6128,7 @@
       <c r="A19" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="95"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="28" t="s">
         <v>179</v>
       </c>
@@ -6070,7 +6169,7 @@
       <c r="A20" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="95"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="28" t="s">
         <v>182</v>
       </c>
@@ -6099,7 +6198,9 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="L20" s="9"/>
+      <c r="L20" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M20" s="9" t="s">
         <v>130</v>
       </c>
@@ -6111,7 +6212,7 @@
       <c r="A21" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="96"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="28" t="s">
         <v>185</v>
       </c>
@@ -6140,7 +6241,9 @@
         <f t="shared" si="0"/>
         <v>0.94736842105263153</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M21" s="9" t="s">
         <v>130</v>
       </c>
@@ -6183,7 +6286,9 @@
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="L22" s="9"/>
+      <c r="L22" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M22" s="9" t="s">
         <v>131</v>
       </c>
@@ -6195,7 +6300,7 @@
       <c r="A23" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="95"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="28" t="s">
         <v>191</v>
       </c>
@@ -6224,7 +6329,9 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="L23" s="9"/>
+      <c r="L23" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M23" s="9" t="s">
         <v>143</v>
       </c>
@@ -6236,7 +6343,7 @@
       <c r="A24" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="95"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="99" t="s">
         <v>194</v>
       </c>
@@ -6265,7 +6372,9 @@
         <f t="shared" si="0"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="L24" s="9"/>
+      <c r="L24" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M24" s="9" t="s">
         <v>139</v>
       </c>
@@ -6277,8 +6386,8 @@
       <c r="A25" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="19" t="s">
         <v>197</v>
       </c>
@@ -6300,11 +6409,13 @@
       <c r="J25" s="21">
         <v>0</v>
       </c>
-      <c r="K25" s="53">
+      <c r="K25" s="52">
         <f t="shared" si="0"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="L25" s="21"/>
+      <c r="L25" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M25" s="21" t="s">
         <v>131</v>
       </c>
@@ -6313,26 +6424,26 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="43"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="47"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="43"/>
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
@@ -6346,9 +6457,9 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="43"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="47"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
@@ -6362,9 +6473,9 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="43"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="47"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="43"/>
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
@@ -6378,9 +6489,9 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="43"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="47"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="43"/>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
@@ -6394,9 +6505,9 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="43"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="47"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="43"/>
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
@@ -6410,9 +6521,9 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="43"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="47"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="43"/>
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
@@ -6426,9 +6537,9 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="43"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="47"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="43"/>
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
@@ -6442,9 +6553,9 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="43"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="47"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="43"/>
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
@@ -6458,9 +6569,9 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="43"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="47"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="43"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
@@ -6474,9 +6585,9 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="43"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="47"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
@@ -6490,9 +6601,9 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="43"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="47"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
@@ -6506,9 +6617,9 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="43"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="47"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="43"/>
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
@@ -6522,9 +6633,9 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="43"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="47"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="43"/>
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
@@ -6538,9 +6649,9 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="43"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="47"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="43"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
@@ -6554,9 +6665,9 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="43"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="47"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="43"/>
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
@@ -6570,9 +6681,9 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="43"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="47"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="43"/>
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
@@ -6586,12 +6697,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B11:B21"/>
-    <mergeCell ref="C24:C25"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="N1:N3"/>
     <mergeCell ref="A1:D3"/>
@@ -6599,6 +6704,12 @@
     <mergeCell ref="F1:J2"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B11:B21"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6610,7 +6721,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6620,60 +6731,61 @@
     <col min="4" max="4" width="113.19921875" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="93" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93" t="s">
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="M1" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="109" t="s">
+      <c r="N1" s="98" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="97"/>
       <c r="F3" s="32" t="s">
         <v>36</v>
       </c>
@@ -6689,10 +6801,10 @@
       <c r="J3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
@@ -6729,7 +6841,9 @@
         <f>H4/F4</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M4" s="9" t="s">
         <v>135</v>
       </c>
@@ -6741,7 +6855,7 @@
       <c r="A5" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="28" t="s">
         <v>204</v>
       </c>
@@ -6770,7 +6884,9 @@
         <f t="shared" ref="K5:K29" si="0">H5/F5</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M5" s="9" t="s">
         <v>139</v>
       </c>
@@ -6782,7 +6898,7 @@
       <c r="A6" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="95"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="28" t="s">
         <v>207</v>
       </c>
@@ -6811,7 +6927,9 @@
         <f t="shared" si="0"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="L6" s="9"/>
+      <c r="L6" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M6" s="9" t="s">
         <v>130</v>
       </c>
@@ -6823,7 +6941,7 @@
       <c r="A7" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="95"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="28" t="s">
         <v>210</v>
       </c>
@@ -6852,7 +6970,9 @@
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M7" s="9" t="s">
         <v>143</v>
       </c>
@@ -6864,7 +6984,7 @@
       <c r="A8" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B8" s="95"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="28" t="s">
         <v>213</v>
       </c>
@@ -6893,7 +7013,9 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M8" s="9" t="s">
         <v>135</v>
       </c>
@@ -6905,7 +7027,7 @@
       <c r="A9" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="96"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="28" t="s">
         <v>216</v>
       </c>
@@ -6934,7 +7056,9 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M9" s="9" t="s">
         <v>143</v>
       </c>
@@ -6977,7 +7101,9 @@
         <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="L10" s="9"/>
+      <c r="L10" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M10" s="9" t="s">
         <v>131</v>
       </c>
@@ -6989,7 +7115,7 @@
       <c r="A11" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="28" t="s">
         <v>72</v>
       </c>
@@ -7018,7 +7144,9 @@
         <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
-      <c r="L11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M11" s="9" t="s">
         <v>143</v>
       </c>
@@ -7030,7 +7158,7 @@
       <c r="A12" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="95"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="28" t="s">
         <v>226</v>
       </c>
@@ -7059,7 +7187,9 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="L12" s="9"/>
+      <c r="L12" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M12" s="9" t="s">
         <v>135</v>
       </c>
@@ -7071,7 +7201,7 @@
       <c r="A13" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B13" s="95"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="28" t="s">
         <v>229</v>
       </c>
@@ -7100,7 +7230,9 @@
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M13" s="9" t="s">
         <v>139</v>
       </c>
@@ -7112,7 +7244,7 @@
       <c r="A14" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B14" s="95"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="11" t="s">
         <v>232</v>
       </c>
@@ -7141,7 +7273,9 @@
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="L14" s="9"/>
+      <c r="L14" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M14" s="9" t="s">
         <v>139</v>
       </c>
@@ -7153,7 +7287,7 @@
       <c r="A15" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="96"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="28" t="s">
         <v>235</v>
       </c>
@@ -7182,7 +7316,9 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M15" s="9" t="s">
         <v>135</v>
       </c>
@@ -7225,7 +7361,9 @@
         <f t="shared" si="0"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="L16" s="9"/>
+      <c r="L16" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M16" s="9" t="s">
         <v>135</v>
       </c>
@@ -7237,7 +7375,7 @@
       <c r="A17" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B17" s="95"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="28" t="s">
         <v>72</v>
       </c>
@@ -7266,7 +7404,9 @@
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M17" s="9" t="s">
         <v>143</v>
       </c>
@@ -7278,7 +7418,7 @@
       <c r="A18" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="28" t="s">
         <v>241</v>
       </c>
@@ -7307,7 +7447,9 @@
         <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
-      <c r="L18" s="9"/>
+      <c r="L18" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M18" s="9" t="s">
         <v>135</v>
       </c>
@@ -7319,7 +7461,7 @@
       <c r="A19" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="95"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="28" t="s">
         <v>232</v>
       </c>
@@ -7348,7 +7490,9 @@
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
-      <c r="L19" s="9"/>
+      <c r="L19" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M19" s="9" t="s">
         <v>135</v>
       </c>
@@ -7360,7 +7504,7 @@
       <c r="A20" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="96"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="28" t="s">
         <v>246</v>
       </c>
@@ -7432,7 +7576,9 @@
         <f t="shared" si="0"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M21" s="9" t="s">
         <v>130</v>
       </c>
@@ -7444,7 +7590,7 @@
       <c r="A22" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="95"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="28" t="s">
         <v>251</v>
       </c>
@@ -7473,7 +7619,9 @@
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="L22" s="9"/>
+      <c r="L22" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M22" s="9" t="s">
         <v>143</v>
       </c>
@@ -7485,7 +7633,7 @@
       <c r="A23" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B23" s="96"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="28" t="s">
         <v>254</v>
       </c>
@@ -7514,7 +7662,9 @@
         <f t="shared" si="0"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="L23" s="9"/>
+      <c r="L23" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M23" s="9" t="s">
         <v>139</v>
       </c>
@@ -7569,7 +7719,7 @@
       <c r="A25" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B25" s="95"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="99" t="s">
         <v>257</v>
       </c>
@@ -7610,8 +7760,8 @@
       <c r="A26" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="96"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="13" t="s">
         <v>262</v>
       </c>
@@ -7637,7 +7787,9 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="L26" s="9"/>
+      <c r="L26" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M26" s="9" t="s">
         <v>139</v>
       </c>
@@ -7649,7 +7801,7 @@
       <c r="A27" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B27" s="96"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="28" t="s">
         <v>264</v>
       </c>
@@ -7678,7 +7830,9 @@
         <f t="shared" si="0"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="L27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M27" s="9" t="s">
         <v>135</v>
       </c>
@@ -7733,7 +7887,7 @@
       <c r="A29" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B29" s="96"/>
+      <c r="B29" s="100"/>
       <c r="C29" s="28" t="s">
         <v>271</v>
       </c>
@@ -7762,7 +7916,9 @@
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="L29" s="9"/>
+      <c r="L29" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="M29" s="9" t="s">
         <v>143</v>
       </c>
@@ -7772,6 +7928,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="L1:L3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="N1:N3"/>
@@ -7781,11 +7942,6 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:J2"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="L1:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7798,7 +7954,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7807,57 +7963,58 @@
     <col min="3" max="3" width="95.296875" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="105" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="93" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="K1" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="M1" s="98" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="32" t="s">
         <v>36</v>
       </c>
@@ -7873,16 +8030,16 @@
       <c r="I3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="93"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
     </row>
     <row r="4" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="96" t="s">
         <v>127</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -7910,7 +8067,9 @@
         <f>G4/E4</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L4" s="9" t="s">
         <v>135</v>
       </c>
@@ -7922,7 +8081,7 @@
       <c r="A5" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B5" s="105"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="12" t="s">
         <v>278</v>
       </c>
@@ -7948,7 +8107,9 @@
         <f t="shared" ref="J5:J38" si="0">G5/E5</f>
         <v>0.9285714285714286</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L5" s="9" t="s">
         <v>135</v>
       </c>
@@ -7960,7 +8121,7 @@
       <c r="A6" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="12" t="s">
         <v>280</v>
       </c>
@@ -7986,7 +8147,9 @@
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L6" s="9" t="s">
         <v>135</v>
       </c>
@@ -7998,7 +8161,7 @@
       <c r="A7" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="12" t="s">
         <v>282</v>
       </c>
@@ -8024,7 +8187,9 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L7" s="9" t="s">
         <v>135</v>
       </c>
@@ -8036,7 +8201,7 @@
       <c r="A8" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="12" t="s">
         <v>284</v>
       </c>
@@ -8074,7 +8239,7 @@
       <c r="A9" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B9" s="105"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="13" t="s">
         <v>286</v>
       </c>
@@ -8100,7 +8265,9 @@
         <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L9" s="9" t="s">
         <v>135</v>
       </c>
@@ -8112,7 +8279,7 @@
       <c r="A10" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B10" s="105"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="13" t="s">
         <v>288</v>
       </c>
@@ -8138,7 +8305,9 @@
         <f t="shared" si="0"/>
         <v>0.94736842105263153</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L10" s="9" t="s">
         <v>135</v>
       </c>
@@ -8150,7 +8319,7 @@
       <c r="A11" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="96" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -8178,7 +8347,9 @@
         <f t="shared" si="0"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L11" s="9" t="s">
         <v>131</v>
       </c>
@@ -8190,7 +8361,7 @@
       <c r="A12" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="105"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="13" t="s">
         <v>293</v>
       </c>
@@ -8228,7 +8399,7 @@
       <c r="A13" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="B13" s="105"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="13" t="s">
         <v>295</v>
       </c>
@@ -8254,7 +8425,9 @@
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L13" s="9" t="s">
         <v>131</v>
       </c>
@@ -8266,7 +8439,7 @@
       <c r="A14" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="B14" s="105"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="13" t="s">
         <v>297</v>
       </c>
@@ -8292,7 +8465,9 @@
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L14" s="9" t="s">
         <v>131</v>
       </c>
@@ -8332,7 +8507,9 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L15" s="9" t="s">
         <v>135</v>
       </c>
@@ -8372,7 +8549,9 @@
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L16" s="9" t="s">
         <v>131</v>
       </c>
@@ -8384,7 +8563,7 @@
       <c r="A17" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B17" s="95"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="13" t="s">
         <v>304</v>
       </c>
@@ -8410,7 +8589,9 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="K17" s="9"/>
+      <c r="K17" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L17" s="9" t="s">
         <v>131</v>
       </c>
@@ -8422,7 +8603,7 @@
       <c r="A18" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="13" t="s">
         <v>306</v>
       </c>
@@ -8448,7 +8629,9 @@
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L18" s="9" t="s">
         <v>131</v>
       </c>
@@ -8460,7 +8643,7 @@
       <c r="A19" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B19" s="95"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="13" t="s">
         <v>308</v>
       </c>
@@ -8486,7 +8669,9 @@
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L19" s="9" t="s">
         <v>131</v>
       </c>
@@ -8498,7 +8683,7 @@
       <c r="A20" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="95"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="13" t="s">
         <v>310</v>
       </c>
@@ -8524,7 +8709,9 @@
         <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L20" s="9" t="s">
         <v>139</v>
       </c>
@@ -8536,7 +8723,7 @@
       <c r="A21" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B21" s="95"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="13" t="s">
         <v>312</v>
       </c>
@@ -8562,7 +8749,9 @@
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="K21" s="9"/>
+      <c r="K21" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L21" s="9" t="s">
         <v>139</v>
       </c>
@@ -8574,7 +8763,7 @@
       <c r="A22" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B22" s="95"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="13" t="s">
         <v>314</v>
       </c>
@@ -8600,7 +8789,9 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="K22" s="9"/>
+      <c r="K22" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L22" s="9" t="s">
         <v>139</v>
       </c>
@@ -8612,7 +8803,7 @@
       <c r="A23" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B23" s="95"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="13" t="s">
         <v>316</v>
       </c>
@@ -8638,7 +8829,9 @@
         <f t="shared" si="0"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="K23" s="9"/>
+      <c r="K23" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L23" s="9" t="s">
         <v>139</v>
       </c>
@@ -8650,7 +8843,7 @@
       <c r="A24" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B24" s="95"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="13" t="s">
         <v>318</v>
       </c>
@@ -8676,7 +8869,9 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="K24" s="9"/>
+      <c r="K24" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L24" s="9" t="s">
         <v>139</v>
       </c>
@@ -8688,7 +8883,7 @@
       <c r="A25" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B25" s="95"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="13" t="s">
         <v>320</v>
       </c>
@@ -8714,7 +8909,9 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="K25" s="9"/>
+      <c r="K25" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L25" s="9" t="s">
         <v>139</v>
       </c>
@@ -8726,7 +8923,7 @@
       <c r="A26" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B26" s="95"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="13" t="s">
         <v>322</v>
       </c>
@@ -8752,7 +8949,9 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="K26" s="9"/>
+      <c r="K26" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L26" s="9" t="s">
         <v>131</v>
       </c>
@@ -8764,7 +8963,7 @@
       <c r="A27" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="B27" s="95"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="13" t="s">
         <v>324</v>
       </c>
@@ -8790,7 +8989,9 @@
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L27" s="9" t="s">
         <v>131</v>
       </c>
@@ -8802,7 +9003,7 @@
       <c r="A28" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B28" s="95"/>
+      <c r="B28" s="101"/>
       <c r="C28" s="13" t="s">
         <v>326</v>
       </c>
@@ -8828,7 +9029,9 @@
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="K28" s="9"/>
+      <c r="K28" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L28" s="9" t="s">
         <v>131</v>
       </c>
@@ -8840,7 +9043,7 @@
       <c r="A29" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B29" s="95"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="13" t="s">
         <v>328</v>
       </c>
@@ -8866,7 +9069,9 @@
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="K29" s="9"/>
+      <c r="K29" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L29" s="9" t="s">
         <v>131</v>
       </c>
@@ -8878,7 +9083,7 @@
       <c r="A30" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B30" s="95"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="13" t="s">
         <v>330</v>
       </c>
@@ -8904,7 +9109,9 @@
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="K30" s="9"/>
+      <c r="K30" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L30" s="9" t="s">
         <v>131</v>
       </c>
@@ -8916,7 +9123,7 @@
       <c r="A31" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B31" s="95"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="13" t="s">
         <v>332</v>
       </c>
@@ -8942,7 +9149,9 @@
         <f t="shared" si="0"/>
         <v>0.88235294117647056</v>
       </c>
-      <c r="K31" s="9"/>
+      <c r="K31" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L31" s="9" t="s">
         <v>131</v>
       </c>
@@ -8954,7 +9163,7 @@
       <c r="A32" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B32" s="95"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="13" t="s">
         <v>334</v>
       </c>
@@ -8980,7 +9189,9 @@
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
-      <c r="K32" s="9"/>
+      <c r="K32" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L32" s="9" t="s">
         <v>139</v>
       </c>
@@ -8992,7 +9203,7 @@
       <c r="A33" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="B33" s="96"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="13" t="s">
         <v>336</v>
       </c>
@@ -9018,7 +9229,9 @@
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="K33" s="9"/>
+      <c r="K33" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L33" s="9" t="s">
         <v>139</v>
       </c>
@@ -9058,7 +9271,9 @@
         <f t="shared" si="0"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="K34" s="9"/>
+      <c r="K34" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L34" s="9" t="s">
         <v>130</v>
       </c>
@@ -9070,7 +9285,7 @@
       <c r="A35" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="B35" s="95"/>
+      <c r="B35" s="101"/>
       <c r="C35" s="13" t="s">
         <v>340</v>
       </c>
@@ -9096,7 +9311,9 @@
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="K35" s="9"/>
+      <c r="K35" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L35" s="9" t="s">
         <v>130</v>
       </c>
@@ -9108,7 +9325,7 @@
       <c r="A36" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="B36" s="95"/>
+      <c r="B36" s="101"/>
       <c r="C36" s="13" t="s">
         <v>342</v>
       </c>
@@ -9134,7 +9351,9 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="K36" s="9"/>
+      <c r="K36" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L36" s="9" t="s">
         <v>130</v>
       </c>
@@ -9146,7 +9365,7 @@
       <c r="A37" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B37" s="95"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="13" t="s">
         <v>344</v>
       </c>
@@ -9172,7 +9391,9 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="K37" s="9"/>
+      <c r="K37" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L37" s="9" t="s">
         <v>130</v>
       </c>
@@ -9184,7 +9405,7 @@
       <c r="A38" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B38" s="96"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="13" t="s">
         <v>346</v>
       </c>
@@ -9210,7 +9431,9 @@
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="K38" s="9"/>
+      <c r="K38" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="L38" s="9" t="s">
         <v>130</v>
       </c>
@@ -9220,17 +9443,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B16:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:I2"/>
     <mergeCell ref="J1:J3"/>
+    <mergeCell ref="B16:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="K1:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9241,8 +9464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B55A9D9-CD09-4F3A-AA85-98958820D95D}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9251,62 +9474,63 @@
     <col min="3" max="3" width="28.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="102.69921875" customWidth="1"/>
     <col min="5" max="5" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="105" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="93" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93" t="s">
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="93"/>
-      <c r="M1" s="109" t="s">
+      <c r="L1" s="97"/>
+      <c r="M1" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="109" t="s">
+      <c r="N1" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="109" t="s">
+      <c r="O1" s="98" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="97"/>
       <c r="F3" s="32" t="s">
         <v>36</v>
       </c>
@@ -9322,11 +9546,11 @@
       <c r="J3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
@@ -9359,12 +9583,14 @@
       <c r="J4" s="9">
         <v>0</v>
       </c>
-      <c r="K4" s="134">
+      <c r="K4" s="128">
         <f>H4/F4</f>
         <v>0.35294117647058826</v>
       </c>
-      <c r="L4" s="135"/>
-      <c r="M4" s="9"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>139</v>
       </c>
@@ -9403,11 +9629,11 @@
       <c r="J5" s="9">
         <v>0</v>
       </c>
-      <c r="K5" s="134">
+      <c r="K5" s="128">
         <f t="shared" ref="K5:K11" si="0">H5/F5</f>
         <v>1</v>
       </c>
-      <c r="L5" s="135"/>
+      <c r="L5" s="129"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9" t="s">
         <v>139</v>
@@ -9447,11 +9673,11 @@
       <c r="J6" s="9">
         <v>0</v>
       </c>
-      <c r="K6" s="134">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="135"/>
+      <c r="K6" s="128">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="129"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9" t="s">
         <v>131</v>
@@ -9491,11 +9717,11 @@
       <c r="J7" s="9">
         <v>0</v>
       </c>
-      <c r="K7" s="134">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L7" s="135"/>
+      <c r="K7" s="128">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="129"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9" t="s">
         <v>139</v>
@@ -9535,11 +9761,11 @@
       <c r="J8" s="9">
         <v>0</v>
       </c>
-      <c r="K8" s="134">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="135"/>
+      <c r="K8" s="128">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="129"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9" t="s">
         <v>139</v>
@@ -9579,11 +9805,11 @@
       <c r="J9" s="9">
         <v>0</v>
       </c>
-      <c r="K9" s="134">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="135"/>
+      <c r="K9" s="128">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="129"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9" t="s">
         <v>139</v>
@@ -9623,11 +9849,11 @@
       <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="K10" s="134">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="135"/>
+      <c r="K10" s="128">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="129"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
         <v>139</v>
@@ -9667,11 +9893,11 @@
       <c r="J11" s="21">
         <v>0</v>
       </c>
-      <c r="K11" s="134">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="135"/>
+      <c r="K11" s="128">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="129"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21" t="s">
         <v>139</v>
@@ -9712,8 +9938,8 @@
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="137"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="133"/>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
@@ -9959,8 +10185,8 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="133"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="135"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -10024,17 +10250,12 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:J2"/>
-    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
@@ -10051,12 +10272,17 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:J2"/>
+    <mergeCell ref="K1:L3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M1:M3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
+++ b/3rd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seonj\CWNU19SE_2B\3rd_homework\테스트 결과 보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9E9A76-F85A-493C-A5A8-EC44DD1F3C7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5359FCA5-814A-4576-82C7-9E54186BA107}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="417">
   <si>
     <t>뚜비 테스트 결과 보고서</t>
   </si>
@@ -495,10 +495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>main_page()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인 화면을 정상적으로 출력하는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,10 +510,6 @@
     <t>UNT-02</t>
   </si>
   <si>
-    <t>result_page()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출발지/도착지 입력 후에 띄워주는 화면을 정상적으로 출력하는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -529,10 +521,6 @@
     <t>UNT-03</t>
   </si>
   <si>
-    <t>weather_page()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>날씨 화면을 정상적으로 출력하는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,10 +532,6 @@
     <t>UNT-04</t>
   </si>
   <si>
-    <t>jse()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>누비자 터미널 정보가 정상적으로 호출되는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,10 +543,6 @@
     <t>UNT-05</t>
   </si>
   <si>
-    <t>mainpage:userloc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입력된 위치 정보를 정상적으로 읽어들여서 지도를 그리는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,10 +550,6 @@
     <t>UNT-06</t>
   </si>
   <si>
-    <t>mainpage:showAll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지도 속 누비자 터미널의 위치에 마커를 표시하는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,10 +576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>timeCheck()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 한국 시간을 정수로 반환하는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -611,10 +583,6 @@
     <t>UNT-09</t>
   </si>
   <si>
-    <t>checkServiceTime()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입력된 시간의 서비스 시간 여부를 정상적으로 판단하는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,10 +590,6 @@
     <t>UNT-10</t>
   </si>
   <si>
-    <t>swap()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출발지/도착지의 값이 맞바꾸어지는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -633,10 +597,6 @@
     <t>UNT-11</t>
   </si>
   <si>
-    <t>Search:__init__(self)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>초기화가 정상적으로 수행되는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -673,10 +633,6 @@
     <t>UNT-15</t>
   </si>
   <si>
-    <t>Nubija:getTerminalInfo(self)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>누비자 터미널 정보를 크롤링하는데 성공하였는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,10 +651,6 @@
     <t>UNT-17</t>
   </si>
   <si>
-    <t>bookmarkSet:setLocationAsBM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입력된 장소가 출발지 또는 목적지로 설정되는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,10 +658,6 @@
     <t>UNT-18</t>
   </si>
   <si>
-    <t>bookmarSet:setLocationAsR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UNT-19</t>
   </si>
   <si>
@@ -1522,6 +1470,77 @@
   </si>
   <si>
     <t>시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userloc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaSript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setLocationAsBM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setLocationAsR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNT-23</t>
+  </si>
+  <si>
+    <t>calcDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리 계산을 정상적으로 수행하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search:__init__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nubija:getTerminalInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main:checkServiceTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main:swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main:timeCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main:weather_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main:jse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main:result_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main:main_page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2108,7 +2127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2240,15 +2259,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2258,21 +2370,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2282,64 +2382,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2351,42 +2430,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2447,46 +2493,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2806,8 +2834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3E5D10-E57D-4F89-B456-F33E2F639F16}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2826,228 +2854,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="81"/>
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="80"/>
       <c r="M1" s="48"/>
       <c r="N1" s="44"/>
     </row>
     <row r="2" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="84"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="48"/>
       <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="48"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
+      <c r="A4" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="90"/>
       <c r="M4" s="49"/>
       <c r="N4" s="45"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="75" t="s">
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="76"/>
-      <c r="L5" s="137" t="s">
-        <v>408</v>
+      <c r="K5" s="75"/>
+      <c r="L5" s="63" t="s">
+        <v>395</v>
       </c>
       <c r="M5" s="50"/>
       <c r="N5" s="46"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="69"/>
-      <c r="D6" s="141" t="s">
+      <c r="D6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="77" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="136">
+      <c r="K6" s="77"/>
+      <c r="L6" s="62">
         <v>43804</v>
       </c>
       <c r="M6" s="50"/>
       <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="90"/>
       <c r="M7" s="49"/>
       <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="64" t="s">
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="67" t="s">
+      <c r="L8" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="63"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="94"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="66" t="s">
+      <c r="J9" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="63"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="94"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="65"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="66"/>
       <c r="L10" s="69"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="63"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="94"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="74"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="58" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="D11" s="58" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F11" s="25">
         <f>SUM('요구사항 테스트'!F4:F42)</f>
@@ -3074,68 +3102,68 @@
         <v>0.95556763343736406</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M11" s="51"/>
       <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="74"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="58" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D12" s="58" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F12" s="24">
-        <f>SUM('단위 테스트'!F4:F25)</f>
-        <v>335</v>
+        <f>SUM('단위 테스트'!G4:G26)</f>
+        <v>345</v>
       </c>
       <c r="G12" s="24">
-        <f>SUM('단위 테스트'!G4:G25)</f>
+        <f>SUM('단위 테스트'!H4:H26)</f>
         <v>26</v>
       </c>
       <c r="H12" s="24">
-        <f>SUM('단위 테스트'!H4:H25)</f>
-        <v>309</v>
+        <f>SUM('단위 테스트'!I4:I26)</f>
+        <v>319</v>
       </c>
       <c r="I12" s="24">
-        <f>SUM('단위 테스트'!I4:I25)</f>
+        <f>SUM('단위 테스트'!J4:J26)</f>
         <v>0</v>
       </c>
       <c r="J12" s="24">
-        <f>SUM('단위 테스트'!J4:J25)</f>
+        <f>SUM('단위 테스트'!K4:K26)</f>
         <v>0</v>
       </c>
       <c r="K12" s="42">
-        <f>AVERAGE('단위 테스트'!K4:K25)</f>
-        <v>0.91712583141129433</v>
+        <f>AVERAGE('단위 테스트'!L4:L26)</f>
+        <v>0.92072905613254241</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M12" s="51"/>
       <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="74"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="58" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D13" s="58" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F13" s="24">
         <f>SUM('컴포넌트 테스트'!F4:F29)</f>
@@ -3162,24 +3190,24 @@
         <v>0.9231006550011075</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M13" s="51"/>
       <c r="N13" s="47"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="74"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="58" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="D14" s="58" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F14" s="24">
         <f>SUM('시스템 테스트'!E4:E38)</f>
@@ -3206,24 +3234,24 @@
         <v>0.90771337733964907</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M14" s="51"/>
       <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="74"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="58" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="D15" s="58" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F15" s="24">
         <f>SUM('결함 테스트'!F4:F11)</f>
@@ -3250,30 +3278,13 @@
         <v>0.91911764705882359</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M15" s="51"/>
       <c r="N15" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A7:L7"/>
     <mergeCell ref="M8:M10"/>
     <mergeCell ref="N8:N10"/>
     <mergeCell ref="K8:K10"/>
@@ -3282,9 +3293,26 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="L8:L10"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A7:L7"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3313,57 +3341,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="97" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97" t="s">
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="98" t="s">
+      <c r="N1" s="116" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="102"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="32" t="s">
         <v>36</v>
       </c>
@@ -3379,16 +3407,16 @@
       <c r="J3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="97"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="112" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="29" t="s">
@@ -3398,7 +3426,7 @@
         <v>44</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F4" s="39">
         <v>18</v>
@@ -3420,26 +3448,26 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="68"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="106" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="108" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F5" s="39">
         <v>17</v>
@@ -3462,21 +3490,21 @@
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="N5" s="9" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="68"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="92"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F6" s="39">
         <v>14</v>
@@ -3499,15 +3527,15 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="68"/>
-      <c r="B7" s="96"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="8" t="s">
         <v>48</v>
       </c>
@@ -3515,7 +3543,7 @@
         <v>49</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F7" s="39">
         <v>12</v>
@@ -3537,26 +3565,26 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="68"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="91" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="110" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F8" s="39">
         <v>11</v>
@@ -3579,21 +3607,21 @@
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="69"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="92"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="109"/>
       <c r="D9" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F9" s="39">
         <v>11</v>
@@ -3616,27 +3644,27 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="110" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F10" s="39">
         <v>14</v>
@@ -3658,24 +3686,24 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="68"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="92"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F11" s="39">
         <v>14</v>
@@ -3698,25 +3726,25 @@
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="68"/>
-      <c r="B12" s="99" t="s">
+      <c r="A12" s="96"/>
+      <c r="B12" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="113" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F12" s="39">
         <v>13</v>
@@ -3738,24 +3766,24 @@
         <v>0.92307692307692313</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="68"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="94"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F13" s="39">
         <v>11</v>
@@ -3778,21 +3806,21 @@
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N13" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="N13" s="9" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="68"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="95"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F14" s="39">
         <v>12</v>
@@ -3815,27 +3843,27 @@
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="113" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F15" s="39">
         <v>17</v>
@@ -3857,24 +3885,24 @@
         <v>0.94117647058823528</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="101"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="95"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F16" s="39">
         <v>18</v>
@@ -3896,26 +3924,26 @@
         <v>0.94444444444444442</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="101"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="93" t="s">
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="113" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F17" s="39">
         <v>11</v>
@@ -3937,24 +3965,24 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="101"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="95"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F18" s="39">
         <v>17</v>
@@ -3976,18 +4004,18 @@
         <v>0.94117647058823528</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="101"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="1" t="s">
         <v>69</v>
       </c>
@@ -3995,7 +4023,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F19" s="39">
         <v>13</v>
@@ -4017,18 +4045,18 @@
         <v>0.84615384615384615</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="101"/>
-      <c r="B20" s="99" t="s">
+      <c r="A20" s="102"/>
+      <c r="B20" s="106" t="s">
         <v>71</v>
       </c>
       <c r="C20" s="30" t="s">
@@ -4038,7 +4066,7 @@
         <v>73</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F20" s="39">
         <v>12</v>
@@ -4060,18 +4088,18 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="101"/>
-      <c r="B21" s="100"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="1" t="s">
         <v>74</v>
       </c>
@@ -4079,7 +4107,7 @@
         <v>75</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F21" s="39">
         <v>18</v>
@@ -4101,18 +4129,18 @@
         <v>0.94444444444444442</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M21" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N21" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="N21" s="9" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101" t="s">
+      <c r="A22" s="102"/>
+      <c r="B22" s="102" t="s">
         <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -4122,7 +4150,7 @@
         <v>78</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F22" s="39">
         <v>13</v>
@@ -4145,15 +4173,15 @@
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="101"/>
-      <c r="B23" s="100"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="1" t="s">
         <v>79</v>
       </c>
@@ -4161,7 +4189,7 @@
         <v>80</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F23" s="39">
         <v>13</v>
@@ -4183,18 +4211,18 @@
         <v>0.92307692307692313</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="101"/>
-      <c r="B24" s="99" t="s">
+      <c r="A24" s="102"/>
+      <c r="B24" s="106" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -4204,7 +4232,7 @@
         <v>82</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F24" s="39">
         <v>10</v>
@@ -4227,15 +4255,15 @@
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="101"/>
-      <c r="B25" s="100"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
@@ -4243,7 +4271,7 @@
         <v>83</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F25" s="39">
         <v>14</v>
@@ -4265,28 +4293,28 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="101"/>
-      <c r="B26" s="99" t="s">
+      <c r="A26" s="102"/>
+      <c r="B26" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="113" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F26" s="39">
         <v>14</v>
@@ -4308,24 +4336,24 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="101"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="94"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F27" s="39">
         <v>18</v>
@@ -4347,24 +4375,24 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="101"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="94"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F28" s="39">
         <v>16</v>
@@ -4386,24 +4414,24 @@
         <v>0.9375</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="101"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="95"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F29" s="39">
         <v>17</v>
@@ -4425,18 +4453,18 @@
         <v>0.94117647058823528</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="101"/>
-      <c r="B30" s="100"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
@@ -4444,7 +4472,7 @@
         <v>89</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F30" s="39">
         <v>16</v>
@@ -4466,28 +4494,28 @@
         <v>0.9375</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="101"/>
-      <c r="B31" s="99" t="s">
+      <c r="A31" s="102"/>
+      <c r="B31" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="113" t="s">
         <v>91</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F31" s="39">
         <v>16</v>
@@ -4510,21 +4538,21 @@
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="101"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="95"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F32" s="39">
         <v>16</v>
@@ -4547,15 +4575,15 @@
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N32" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="N32" s="9" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="101"/>
-      <c r="B33" s="100"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="31" t="s">
         <v>77</v>
       </c>
@@ -4563,7 +4591,7 @@
         <v>94</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F33" s="39">
         <v>19</v>
@@ -4585,18 +4613,18 @@
         <v>0.94736842105263153</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="101"/>
-      <c r="B34" s="99" t="s">
+      <c r="A34" s="102"/>
+      <c r="B34" s="106" t="s">
         <v>95</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -4606,7 +4634,7 @@
         <v>97</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F34" s="39">
         <v>11</v>
@@ -4629,15 +4657,15 @@
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="100"/>
-      <c r="B35" s="100"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="2" t="s">
         <v>77</v>
       </c>
@@ -4645,7 +4673,7 @@
         <v>98</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F35" s="39">
         <v>19</v>
@@ -4668,17 +4696,17 @@
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="101" t="s">
+      <c r="A36" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="99" t="s">
+      <c r="B36" s="106" t="s">
         <v>76</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -4688,7 +4716,7 @@
         <v>101</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F36" s="39">
         <v>20</v>
@@ -4711,15 +4739,15 @@
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="101"/>
-      <c r="B37" s="101"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="1" t="s">
         <v>102</v>
       </c>
@@ -4727,7 +4755,7 @@
         <v>103</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F37" s="39">
         <v>18</v>
@@ -4749,26 +4777,26 @@
         <v>0.94444444444444442</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="101"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="93" t="s">
+      <c r="A38" s="102"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="113" t="s">
         <v>104</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F38" s="39">
         <v>15</v>
@@ -4791,21 +4819,21 @@
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="101"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="94"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="114"/>
       <c r="D39" s="5" t="s">
         <v>106</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F39" s="39">
         <v>15</v>
@@ -4828,23 +4856,23 @@
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N39" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="N39" s="9" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101" t="s">
+      <c r="A40" s="102"/>
+      <c r="B40" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="94"/>
+      <c r="C40" s="114"/>
       <c r="D40" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F40" s="39">
         <v>11</v>
@@ -4867,21 +4895,21 @@
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41" s="101"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="95"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="115"/>
       <c r="D41" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F41" s="39">
         <v>14</v>
@@ -4904,15 +4932,15 @@
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" s="100"/>
-      <c r="B42" s="100"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="1" t="s">
         <v>109</v>
       </c>
@@ -4920,7 +4948,7 @@
         <v>110</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F42" s="39">
         <v>12</v>
@@ -4942,67 +4970,67 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M42" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N42" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="N42" s="9" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="105" t="s">
+      <c r="A43" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="107" t="s">
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="97" t="s">
+      <c r="F43" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97" t="s">
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="98" t="s">
+      <c r="L43" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="M43" s="98" t="s">
+      <c r="M43" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="N43" s="98" t="s">
+      <c r="N43" s="116" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A44" s="105"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
-      <c r="N44" s="98"/>
+      <c r="A44" s="107"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="116"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A45" s="105"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="102"/>
+      <c r="A45" s="107"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="101"/>
       <c r="F45" s="32" t="s">
         <v>36</v>
       </c>
@@ -5018,10 +5046,10 @@
       <c r="J45" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K45" s="97"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="98"/>
-      <c r="N45" s="98"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="116"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="26" t="s">
@@ -5037,7 +5065,7 @@
         <v>115</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="F46" s="39">
         <v>17</v>
@@ -5060,27 +5088,27 @@
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A47" s="104" t="s">
+      <c r="A47" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="103" t="s">
+      <c r="B47" s="104" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="F47" s="39">
         <v>17</v>
@@ -5103,15 +5131,15 @@
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A48" s="65"/>
-      <c r="B48" s="103"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="104"/>
       <c r="C48" s="26" t="s">
         <v>119</v>
       </c>
@@ -5119,7 +5147,7 @@
         <v>120</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="F48" s="39">
         <v>11</v>
@@ -5142,10 +5170,10 @@
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
@@ -5162,7 +5190,7 @@
         <v>124</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="F49" s="39">
         <v>12</v>
@@ -5185,10 +5213,10 @@
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N49" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5338,6 +5366,31 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="41">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F43:J44"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="F1:J2"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="B47:B48"/>
@@ -5354,31 +5407,6 @@
     <mergeCell ref="E43:E45"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C38:C41"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="F1:J2"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F43:J44"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5388,1079 +5416,1178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80055BC-9E65-4368-973B-0AA15CB28CB6}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.19921875" customWidth="1"/>
-    <col min="4" max="4" width="63.19921875" customWidth="1"/>
-    <col min="5" max="5" width="23.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="31.19921875" customWidth="1"/>
+    <col min="5" max="5" width="63.19921875" customWidth="1"/>
+    <col min="6" max="6" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="102" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="121" t="s">
+      <c r="G1" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="121" t="s">
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="108" t="s">
+      <c r="M1" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="108" t="s">
+      <c r="N1" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="108" t="s">
+      <c r="O1" s="117" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-    </row>
-    <row r="3" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="32" t="s">
+    <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+    </row>
+    <row r="3" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="I3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="J3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="K3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="124"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L3" s="133"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+    </row>
+    <row r="4" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="F4" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="9">
+        <v>16</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9">
+        <v>14</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="37">
+        <f>I4/G4</f>
+        <v>0.875</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="O4" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="102"/>
+      <c r="C5" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="9">
+        <v>18</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>17</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="37">
+        <f t="shared" ref="L5:L26" si="0">I5/G5</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="103"/>
+      <c r="C6" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="G6" s="9">
+        <v>18</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>17</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="37">
+        <f t="shared" si="0"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="9">
         <v>16</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H7" s="9">
+        <v>3</v>
+      </c>
+      <c r="I7" s="9">
+        <v>13</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="102"/>
+      <c r="C8" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="9">
+        <v>14</v>
+      </c>
+      <c r="H8" s="9">
         <v>2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I8" s="9">
+        <v>12</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="37">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="103"/>
+      <c r="C9" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="9">
+        <v>15</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
         <v>14</v>
       </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="37">
-        <f>H4/F4</f>
-        <v>0.875</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="37">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="60" t="s">
         <v>407</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="D10" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="9">
+        <v>19</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
         <v>18</v>
       </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9">
-        <v>17</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="37">
-        <f t="shared" ref="K5:K25" si="0">H5/F5</f>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="L5" s="9" t="s">
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="37">
+        <f t="shared" si="0"/>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="60" t="s">
         <v>407</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F6" s="9">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9">
-        <v>17</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="37">
-        <f t="shared" si="0"/>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" s="9">
-        <v>16</v>
-      </c>
-      <c r="G7" s="9">
-        <v>3</v>
-      </c>
-      <c r="H7" s="9">
-        <v>13</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="37">
-        <f t="shared" si="0"/>
-        <v>0.8125</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" s="9">
-        <v>14</v>
-      </c>
-      <c r="G8" s="9">
-        <v>2</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="D11" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G11" s="9">
         <v>12</v>
       </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="37">
-        <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="9">
-        <v>15</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>14</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="37">
-        <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F10" s="9">
-        <v>19</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9">
-        <v>18</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="37">
-        <f t="shared" si="0"/>
-        <v>0.94736842105263153</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="99" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="F11" s="9">
-        <v>12</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
       <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
         <v>11</v>
       </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
       <c r="J11" s="9">
         <v>0</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="37">
         <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>407</v>
-      </c>
       <c r="M11" s="9" t="s">
-        <v>131</v>
+        <v>394</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O11" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="102"/>
+      <c r="C12" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G12" s="9">
+        <v>12</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>11</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="37">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="102"/>
+      <c r="C13" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="9">
+        <v>11</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>9</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="37">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="102"/>
+      <c r="C14" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="G14" s="9">
+        <v>20</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>20</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="37">
+        <f>I14/G14</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="102"/>
+      <c r="C15" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="28" t="s">
+      <c r="E15" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="F15" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="9">
+        <v>15</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>14</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="37">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="F12" s="9">
-        <v>12</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="B16" s="102"/>
+      <c r="C16" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="D16" s="106" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="9">
         <v>11</v>
       </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="37">
-        <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="9">
-        <v>11</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="H16" s="9">
         <v>2</v>
       </c>
-      <c r="H13" s="9">
+      <c r="I16" s="9">
         <v>9</v>
       </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="37">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="37">
         <f t="shared" si="0"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F14" s="9">
-        <v>20</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>20</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="37">
-        <f>H14/F14</f>
-        <v>1</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F15" s="9">
-        <v>15</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9">
-        <v>14</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="37">
-        <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16" s="9">
-        <v>11</v>
-      </c>
-      <c r="G16" s="9">
-        <v>2</v>
-      </c>
-      <c r="H16" s="9">
-        <v>9</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="37">
-        <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>407</v>
-      </c>
       <c r="M16" s="9" t="s">
-        <v>131</v>
+        <v>394</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O16" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F17" s="9">
+        <v>163</v>
+      </c>
+      <c r="B17" s="102"/>
+      <c r="C17" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="D17" s="103"/>
+      <c r="E17" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="9">
         <v>16</v>
       </c>
-      <c r="G17" s="9">
+      <c r="H17" s="9">
         <v>2</v>
       </c>
-      <c r="H17" s="9">
+      <c r="I17" s="9">
         <v>14</v>
       </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
       <c r="J17" s="9">
         <v>0</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="37">
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="M17" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="102"/>
+      <c r="C18" s="60" t="s">
         <v>407</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="D18" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G18" s="9">
         <v>16</v>
       </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
       <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
         <v>16</v>
       </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
       <c r="J18" s="9">
         <v>0</v>
       </c>
-      <c r="K18" s="37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9" t="s">
-        <v>139</v>
-      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="9"/>
       <c r="N18" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F19" s="9">
+        <v>167</v>
+      </c>
+      <c r="B19" s="102"/>
+      <c r="C19" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="9">
         <v>15</v>
       </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
       <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
         <v>15</v>
       </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
       <c r="J19" s="9">
         <v>0</v>
       </c>
-      <c r="K19" s="37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9" t="s">
-        <v>131</v>
-      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="9"/>
       <c r="N19" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O19" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" s="9">
+        <v>170</v>
+      </c>
+      <c r="B20" s="102"/>
+      <c r="C20" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G20" s="9">
+        <v>10</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>10</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="102"/>
+      <c r="C21" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" s="9">
         <v>11</v>
       </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9">
+      <c r="H21" s="9">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9">
         <v>10</v>
       </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="37">
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="37">
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="M21" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="103"/>
+      <c r="C22" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" s="9">
+        <v>19</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1</v>
+      </c>
+      <c r="I22" s="9">
+        <v>18</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="37">
+        <f t="shared" si="0"/>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="60" t="s">
         <v>407</v>
       </c>
-      <c r="M20" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="9">
-        <v>19</v>
-      </c>
-      <c r="G21" s="9">
-        <v>1</v>
-      </c>
-      <c r="H21" s="9">
-        <v>18</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="37">
-        <f t="shared" si="0"/>
-        <v>0.94736842105263153</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="99" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="D23" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="G23" s="9">
         <v>15</v>
       </c>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9">
         <v>14</v>
       </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="37">
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="37">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="F23" s="9">
-        <v>11</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9">
-        <v>10</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0</v>
-      </c>
-      <c r="K23" s="37">
-        <f t="shared" si="0"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>407</v>
-      </c>
       <c r="M23" s="9" t="s">
-        <v>143</v>
+        <v>394</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O23" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="99" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F24" s="9">
+        <v>180</v>
+      </c>
+      <c r="B24" s="102"/>
+      <c r="C24" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="G24" s="9">
+        <v>11</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9">
+        <v>10</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="37">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="102"/>
+      <c r="C25" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="D25" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" s="9">
         <v>17</v>
       </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9">
+      <c r="H25" s="9">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9">
         <v>16</v>
       </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="37">
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="37">
         <f t="shared" si="0"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="M25" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B26" s="102"/>
+      <c r="C26" s="60" t="s">
         <v>407</v>
       </c>
-      <c r="M24" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="N24" s="9" t="s">
+      <c r="D26" s="102"/>
+      <c r="E26" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" s="21">
+        <v>18</v>
+      </c>
+      <c r="H26" s="21">
+        <v>1</v>
+      </c>
+      <c r="I26" s="21">
+        <v>17</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0</v>
+      </c>
+      <c r="L26" s="52">
+        <f t="shared" si="0"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N26" s="21" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F25" s="21">
-        <v>18</v>
-      </c>
-      <c r="G25" s="21">
-        <v>1</v>
-      </c>
-      <c r="H25" s="21">
-        <v>17</v>
-      </c>
-      <c r="I25" s="21">
-        <v>0</v>
-      </c>
-      <c r="J25" s="21">
-        <v>0</v>
-      </c>
-      <c r="K25" s="52">
-        <f t="shared" si="0"/>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="M25" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="N25" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="43"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O26" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="43"/>
       <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="43"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
@@ -6470,13 +6597,14 @@
       <c r="L28" s="43"/>
       <c r="M28" s="43"/>
       <c r="N28" s="43"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O28" s="43"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="43"/>
       <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="43"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="43"/>
@@ -6486,13 +6614,14 @@
       <c r="L29" s="43"/>
       <c r="M29" s="43"/>
       <c r="N29" s="43"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O29" s="43"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="43"/>
       <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="43"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>
@@ -6502,13 +6631,14 @@
       <c r="L30" s="43"/>
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O30" s="43"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="43"/>
       <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="43"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
@@ -6518,13 +6648,14 @@
       <c r="L31" s="43"/>
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O31" s="43"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="43"/>
       <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="43"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
@@ -6534,13 +6665,14 @@
       <c r="L32" s="43"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O32" s="43"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="43"/>
       <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="43"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
@@ -6550,13 +6682,14 @@
       <c r="L33" s="43"/>
       <c r="M33" s="43"/>
       <c r="N33" s="43"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O33" s="43"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="43"/>
       <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="43"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
@@ -6566,13 +6699,14 @@
       <c r="L34" s="43"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O34" s="43"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="43"/>
       <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="43"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
@@ -6582,13 +6716,14 @@
       <c r="L35" s="43"/>
       <c r="M35" s="43"/>
       <c r="N35" s="43"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O35" s="43"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="43"/>
       <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="43"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -6598,13 +6733,14 @@
       <c r="L36" s="43"/>
       <c r="M36" s="43"/>
       <c r="N36" s="43"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O36" s="43"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="43"/>
       <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="43"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="43"/>
@@ -6614,13 +6750,14 @@
       <c r="L37" s="43"/>
       <c r="M37" s="43"/>
       <c r="N37" s="43"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O37" s="43"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="43"/>
       <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="43"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="43"/>
@@ -6630,13 +6767,14 @@
       <c r="L38" s="43"/>
       <c r="M38" s="43"/>
       <c r="N38" s="43"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O38" s="43"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="43"/>
       <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="43"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
@@ -6646,13 +6784,14 @@
       <c r="L39" s="43"/>
       <c r="M39" s="43"/>
       <c r="N39" s="43"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O39" s="43"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="43"/>
       <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="43"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="43"/>
@@ -6662,13 +6801,14 @@
       <c r="L40" s="43"/>
       <c r="M40" s="43"/>
       <c r="N40" s="43"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O40" s="43"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="43"/>
       <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="43"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="46"/>
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="43"/>
@@ -6678,13 +6818,14 @@
       <c r="L41" s="43"/>
       <c r="M41" s="43"/>
       <c r="N41" s="43"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O41" s="43"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="43"/>
       <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="43"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="43"/>
@@ -6694,22 +6835,40 @@
       <c r="L42" s="43"/>
       <c r="M42" s="43"/>
       <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A43" s="43"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:J2"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B11:B21"/>
-    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6735,57 +6894,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="105" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="97" t="s">
+      <c r="A1" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97" t="s">
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="98" t="s">
+      <c r="N1" s="116" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="97"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="100"/>
       <c r="F3" s="32" t="s">
         <v>36</v>
       </c>
@@ -6801,26 +6960,26 @@
       <c r="J3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="97"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B4" s="99" t="s">
-        <v>200</v>
+        <v>186</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>187</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F4" s="9">
         <v>13</v>
@@ -6842,28 +7001,28 @@
         <v>0.92307692307692313</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="101"/>
+        <v>190</v>
+      </c>
+      <c r="B5" s="102"/>
       <c r="C5" s="28" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F5" s="9">
         <v>14</v>
@@ -6885,28 +7044,28 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="101"/>
+        <v>193</v>
+      </c>
+      <c r="B6" s="102"/>
       <c r="C6" s="28" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F6" s="9">
         <v>14</v>
@@ -6928,28 +7087,28 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="101"/>
+        <v>196</v>
+      </c>
+      <c r="B7" s="102"/>
       <c r="C7" s="28" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F7" s="9">
         <v>15</v>
@@ -6971,28 +7130,28 @@
         <v>0.93333333333333335</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="101"/>
+        <v>199</v>
+      </c>
+      <c r="B8" s="102"/>
       <c r="C8" s="28" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F8" s="9">
         <v>11</v>
@@ -7014,28 +7173,28 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="100"/>
+        <v>202</v>
+      </c>
+      <c r="B9" s="103"/>
       <c r="C9" s="28" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F9" s="9">
         <v>11</v>
@@ -7057,30 +7216,30 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="99" t="s">
-        <v>220</v>
+        <v>206</v>
+      </c>
+      <c r="B10" s="106" t="s">
+        <v>207</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F10" s="9">
         <v>12</v>
@@ -7102,28 +7261,28 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="101"/>
+        <v>210</v>
+      </c>
+      <c r="B11" s="102"/>
       <c r="C11" s="28" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F11" s="9">
         <v>16</v>
@@ -7145,28 +7304,28 @@
         <v>0.9375</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="101"/>
+        <v>212</v>
+      </c>
+      <c r="B12" s="102"/>
       <c r="C12" s="28" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="F12" s="9">
         <v>12</v>
@@ -7188,28 +7347,28 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="101"/>
+        <v>215</v>
+      </c>
+      <c r="B13" s="102"/>
       <c r="C13" s="28" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="F13" s="9">
         <v>18</v>
@@ -7231,28 +7390,28 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B14" s="101"/>
+        <v>218</v>
+      </c>
+      <c r="B14" s="102"/>
       <c r="C14" s="11" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="F14" s="9">
         <v>20</v>
@@ -7274,28 +7433,28 @@
         <v>0.9</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B15" s="100"/>
+        <v>221</v>
+      </c>
+      <c r="B15" s="103"/>
       <c r="C15" s="28" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F15" s="9">
         <v>11</v>
@@ -7317,30 +7476,30 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>238</v>
+        <v>224</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>225</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="F16" s="9">
         <v>14</v>
@@ -7362,28 +7521,28 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B17" s="101"/>
+        <v>226</v>
+      </c>
+      <c r="B17" s="102"/>
       <c r="C17" s="28" t="s">
         <v>72</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="F17" s="9">
         <v>20</v>
@@ -7405,28 +7564,28 @@
         <v>0.95</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B18" s="101"/>
+        <v>227</v>
+      </c>
+      <c r="B18" s="102"/>
       <c r="C18" s="28" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="F18" s="9">
         <v>16</v>
@@ -7448,28 +7607,28 @@
         <v>0.9375</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B19" s="101"/>
+        <v>230</v>
+      </c>
+      <c r="B19" s="102"/>
       <c r="C19" s="28" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F19" s="9">
         <v>16</v>
@@ -7491,28 +7650,28 @@
         <v>0.875</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B20" s="100"/>
+        <v>232</v>
+      </c>
+      <c r="B20" s="103"/>
       <c r="C20" s="28" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F20" s="9">
         <v>19</v>
@@ -7535,27 +7694,27 @@
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N20" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B21" s="99" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="106" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F21" s="9">
         <v>18</v>
@@ -7577,28 +7736,28 @@
         <v>0.94444444444444442</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B22" s="101"/>
+        <v>237</v>
+      </c>
+      <c r="B22" s="102"/>
       <c r="C22" s="28" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F22" s="9">
         <v>15</v>
@@ -7620,28 +7779,28 @@
         <v>0.93333333333333335</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B23" s="100"/>
+        <v>240</v>
+      </c>
+      <c r="B23" s="103"/>
       <c r="C23" s="28" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F23" s="9">
         <v>17</v>
@@ -7663,30 +7822,30 @@
         <v>0.94117647058823528</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B24" s="99" t="s">
-        <v>257</v>
+        <v>243</v>
+      </c>
+      <c r="B24" s="106" t="s">
+        <v>244</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F24" s="9">
         <v>13</v>
@@ -7709,25 +7868,25 @@
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="99" t="s">
-        <v>257</v>
+        <v>246</v>
+      </c>
+      <c r="B25" s="102"/>
+      <c r="C25" s="106" t="s">
+        <v>244</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F25" s="9">
         <v>13</v>
@@ -7750,23 +7909,23 @@
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="100"/>
+        <v>248</v>
+      </c>
+      <c r="B26" s="102"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="13" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F26" s="9">
         <v>11</v>
@@ -7788,28 +7947,28 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B27" s="100"/>
+        <v>250</v>
+      </c>
+      <c r="B27" s="103"/>
       <c r="C27" s="28" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F27" s="9">
         <v>14</v>
@@ -7831,30 +7990,30 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B28" s="99" t="s">
-        <v>267</v>
+        <v>253</v>
+      </c>
+      <c r="B28" s="106" t="s">
+        <v>254</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F28" s="9">
         <v>16</v>
@@ -7877,25 +8036,25 @@
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B29" s="100"/>
+        <v>257</v>
+      </c>
+      <c r="B29" s="103"/>
       <c r="C29" s="28" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F29" s="9">
         <v>20</v>
@@ -7917,22 +8076,17 @@
         <v>0.95</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="L1:L3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="N1:N3"/>
@@ -7942,6 +8096,11 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:J2"/>
     <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="L1:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7967,54 +8126,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="97" t="s">
+      <c r="A1" s="107" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97" t="s">
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="116" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="97"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="32" t="s">
         <v>36</v>
       </c>
@@ -8030,23 +8189,23 @@
       <c r="I3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
     </row>
     <row r="4" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="112" t="s">
         <v>127</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E4" s="9">
         <v>13</v>
@@ -8068,25 +8227,25 @@
         <v>0.92307692307692313</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="96"/>
+        <v>264</v>
+      </c>
+      <c r="B5" s="112"/>
       <c r="C5" s="12" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E5" s="9">
         <v>14</v>
@@ -8108,25 +8267,25 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="96"/>
+        <v>266</v>
+      </c>
+      <c r="B6" s="112"/>
       <c r="C6" s="12" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E6" s="9">
         <v>15</v>
@@ -8148,25 +8307,25 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="96"/>
+        <v>268</v>
+      </c>
+      <c r="B7" s="112"/>
       <c r="C7" s="12" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E7" s="9">
         <v>11</v>
@@ -8188,25 +8347,25 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" s="96"/>
+        <v>270</v>
+      </c>
+      <c r="B8" s="112"/>
       <c r="C8" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E8" s="9">
         <v>19</v>
@@ -8229,22 +8388,22 @@
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B9" s="96"/>
+        <v>272</v>
+      </c>
+      <c r="B9" s="112"/>
       <c r="C9" s="13" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E9" s="9">
         <v>13</v>
@@ -8266,25 +8425,25 @@
         <v>0.76923076923076927</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B10" s="96"/>
+        <v>274</v>
+      </c>
+      <c r="B10" s="112"/>
       <c r="C10" s="13" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E10" s="9">
         <v>19</v>
@@ -8306,27 +8465,27 @@
         <v>0.94736842105263153</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="112" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E11" s="9">
         <v>14</v>
@@ -8348,25 +8507,25 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="B12" s="96"/>
+        <v>279</v>
+      </c>
+      <c r="B12" s="112"/>
       <c r="C12" s="13" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E12" s="9">
         <v>20</v>
@@ -8389,22 +8548,22 @@
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B13" s="96"/>
+        <v>281</v>
+      </c>
+      <c r="B13" s="112"/>
       <c r="C13" s="13" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E13" s="9">
         <v>15</v>
@@ -8426,25 +8585,25 @@
         <v>0.93333333333333335</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="B14" s="96"/>
+        <v>283</v>
+      </c>
+      <c r="B14" s="112"/>
       <c r="C14" s="13" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E14" s="9">
         <v>10</v>
@@ -8466,27 +8625,27 @@
         <v>0.9</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E15" s="9">
         <v>11</v>
@@ -8508,27 +8667,27 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>155</v>
+        <v>287</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>149</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E16" s="9">
         <v>13</v>
@@ -8550,25 +8709,25 @@
         <v>0.92307692307692313</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B17" s="101"/>
+        <v>290</v>
+      </c>
+      <c r="B17" s="102"/>
       <c r="C17" s="13" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E17" s="9">
         <v>11</v>
@@ -8590,25 +8749,25 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="B18" s="101"/>
+        <v>292</v>
+      </c>
+      <c r="B18" s="102"/>
       <c r="C18" s="13" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E18" s="9">
         <v>15</v>
@@ -8630,25 +8789,25 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B19" s="101"/>
+        <v>294</v>
+      </c>
+      <c r="B19" s="102"/>
       <c r="C19" s="13" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E19" s="9">
         <v>14</v>
@@ -8670,25 +8829,25 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B20" s="101"/>
+        <v>296</v>
+      </c>
+      <c r="B20" s="102"/>
       <c r="C20" s="13" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E20" s="9">
         <v>12</v>
@@ -8710,25 +8869,25 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="B21" s="101"/>
+        <v>298</v>
+      </c>
+      <c r="B21" s="102"/>
       <c r="C21" s="13" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E21" s="9">
         <v>20</v>
@@ -8750,25 +8909,25 @@
         <v>0.95</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B22" s="101"/>
+        <v>300</v>
+      </c>
+      <c r="B22" s="102"/>
       <c r="C22" s="13" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E22" s="9">
         <v>11</v>
@@ -8790,25 +8949,25 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B23" s="101"/>
+        <v>302</v>
+      </c>
+      <c r="B23" s="102"/>
       <c r="C23" s="13" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E23" s="9">
         <v>13</v>
@@ -8830,25 +8989,25 @@
         <v>0.84615384615384615</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="B24" s="101"/>
+        <v>304</v>
+      </c>
+      <c r="B24" s="102"/>
       <c r="C24" s="13" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E24" s="9">
         <v>11</v>
@@ -8870,25 +9029,25 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B25" s="101"/>
+        <v>306</v>
+      </c>
+      <c r="B25" s="102"/>
       <c r="C25" s="13" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E25" s="9">
         <v>12</v>
@@ -8910,25 +9069,25 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="B26" s="101"/>
+        <v>308</v>
+      </c>
+      <c r="B26" s="102"/>
       <c r="C26" s="13" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E26" s="9">
         <v>11</v>
@@ -8950,25 +9109,25 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B27" s="101"/>
+        <v>310</v>
+      </c>
+      <c r="B27" s="102"/>
       <c r="C27" s="13" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E27" s="9">
         <v>18</v>
@@ -8990,25 +9149,25 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="B28" s="101"/>
+        <v>312</v>
+      </c>
+      <c r="B28" s="102"/>
       <c r="C28" s="13" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E28" s="9">
         <v>20</v>
@@ -9030,25 +9189,25 @@
         <v>0.95</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B29" s="101"/>
+        <v>314</v>
+      </c>
+      <c r="B29" s="102"/>
       <c r="C29" s="13" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E29" s="9">
         <v>13</v>
@@ -9070,25 +9229,25 @@
         <v>0.92307692307692313</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B30" s="101"/>
+        <v>316</v>
+      </c>
+      <c r="B30" s="102"/>
       <c r="C30" s="13" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E30" s="9">
         <v>13</v>
@@ -9110,25 +9269,25 @@
         <v>0.92307692307692313</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B31" s="101"/>
+        <v>318</v>
+      </c>
+      <c r="B31" s="102"/>
       <c r="C31" s="13" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E31" s="9">
         <v>17</v>
@@ -9150,25 +9309,25 @@
         <v>0.88235294117647056</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B32" s="101"/>
+        <v>320</v>
+      </c>
+      <c r="B32" s="102"/>
       <c r="C32" s="13" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E32" s="9">
         <v>16</v>
@@ -9190,25 +9349,25 @@
         <v>0.875</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B33" s="100"/>
+        <v>322</v>
+      </c>
+      <c r="B33" s="103"/>
       <c r="C33" s="13" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E33" s="9">
         <v>14</v>
@@ -9230,27 +9389,27 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="B34" s="99" t="s">
-        <v>187</v>
+        <v>324</v>
+      </c>
+      <c r="B34" s="106" t="s">
+        <v>174</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E34" s="9">
         <v>17</v>
@@ -9272,25 +9431,25 @@
         <v>0.94117647058823528</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L34" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="B35" s="101"/>
+        <v>326</v>
+      </c>
+      <c r="B35" s="102"/>
       <c r="C35" s="13" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E35" s="9">
         <v>15</v>
@@ -9312,25 +9471,25 @@
         <v>0.93333333333333335</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L35" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="M35" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="B36" s="101"/>
+        <v>328</v>
+      </c>
+      <c r="B36" s="102"/>
       <c r="C36" s="13" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E36" s="9">
         <v>11</v>
@@ -9352,25 +9511,25 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L36" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="B37" s="101"/>
+        <v>330</v>
+      </c>
+      <c r="B37" s="102"/>
       <c r="C37" s="13" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E37" s="9">
         <v>11</v>
@@ -9392,25 +9551,25 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L37" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="M37" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="B38" s="100"/>
+        <v>332</v>
+      </c>
+      <c r="B38" s="103"/>
       <c r="C38" s="13" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E38" s="9">
         <v>15</v>
@@ -9432,28 +9591,28 @@
         <v>0.93333333333333335</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L38" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="M38" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B16:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:I2"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="B16:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="K1:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9478,59 +9637,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="105" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="97" t="s">
+      <c r="A1" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97" t="s">
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98" t="s">
+      <c r="L1" s="100"/>
+      <c r="M1" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="98" t="s">
+      <c r="N1" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="98" t="s">
+      <c r="O1" s="116" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="97"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="100"/>
       <c r="F3" s="32" t="s">
         <v>36</v>
       </c>
@@ -9546,27 +9705,27 @@
       <c r="J3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="F4" s="9">
         <v>17</v>
@@ -9583,36 +9742,36 @@
       <c r="J4" s="9">
         <v>0</v>
       </c>
-      <c r="K4" s="128">
+      <c r="K4" s="141">
         <f>H4/F4</f>
         <v>0.35294117647058826</v>
       </c>
-      <c r="L4" s="129"/>
+      <c r="L4" s="142"/>
       <c r="M4" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="F5" s="9">
         <v>14</v>
@@ -9629,34 +9788,34 @@
       <c r="J5" s="9">
         <v>0</v>
       </c>
-      <c r="K5" s="128">
+      <c r="K5" s="141">
         <f t="shared" ref="K5:K11" si="0">H5/F5</f>
         <v>1</v>
       </c>
-      <c r="L5" s="129"/>
+      <c r="L5" s="142"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F6" s="9">
         <v>13</v>
@@ -9673,34 +9832,34 @@
       <c r="J6" s="9">
         <v>0</v>
       </c>
-      <c r="K6" s="128">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="129"/>
+      <c r="K6" s="141">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="142"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="F7" s="9">
         <v>16</v>
@@ -9717,34 +9876,34 @@
       <c r="J7" s="9">
         <v>0</v>
       </c>
-      <c r="K7" s="128">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L7" s="129"/>
+      <c r="K7" s="141">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="142"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="F8" s="9">
         <v>12</v>
@@ -9761,34 +9920,34 @@
       <c r="J8" s="9">
         <v>0</v>
       </c>
-      <c r="K8" s="128">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="129"/>
+      <c r="K8" s="141">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="142"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="F9" s="9">
         <v>14</v>
@@ -9805,34 +9964,34 @@
       <c r="J9" s="9">
         <v>0</v>
       </c>
-      <c r="K9" s="128">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="129"/>
+      <c r="K9" s="141">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="142"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="F10" s="9">
         <v>13</v>
@@ -9849,34 +10008,34 @@
       <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="K10" s="128">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="129"/>
+      <c r="K10" s="141">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="142"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="F11" s="21">
         <v>17</v>
@@ -9893,22 +10052,22 @@
       <c r="J11" s="21">
         <v>0</v>
       </c>
-      <c r="K11" s="128">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="129"/>
+      <c r="K11" s="141">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="142"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -9919,15 +10078,15 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="131"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="138"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -9938,15 +10097,15 @@
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="133"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="144"/>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="11"/>
@@ -9957,15 +10116,15 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="138"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -9976,15 +10135,15 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="131"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="138"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="28"/>
@@ -9995,15 +10154,15 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="131"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="138"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="28"/>
@@ -10014,15 +10173,15 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="131"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="138"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="28"/>
@@ -10033,15 +10192,15 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="131"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="138"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="28"/>
@@ -10052,15 +10211,15 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="131"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="138"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="28"/>
@@ -10071,15 +10230,15 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="131"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="138"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -10090,15 +10249,15 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="131"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="138"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -10109,15 +10268,15 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="131"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="138"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -10128,15 +10287,15 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="131"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="138"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -10147,15 +10306,15 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="131"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="138"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="15"/>
@@ -10166,15 +10325,15 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="131"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="138"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="34"/>
@@ -10185,15 +10344,15 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="135"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="140"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -10204,15 +10363,15 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="131"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="138"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -10223,15 +10382,15 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="131"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="138"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="9" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -10242,20 +10401,25 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="131"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="138"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:J2"/>
+    <mergeCell ref="K1:L3"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
@@ -10272,17 +10436,12 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:J2"/>
-    <mergeCell ref="K1:L3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
